--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -268,7 +268,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="131">
   <si>
     <t>Sim</t>
   </si>
@@ -644,6 +644,9 @@
     <t>ampgain</t>
   </si>
   <si>
+    <t>tReqOffsetSec</t>
+  </si>
+  <si>
     <t>useArc</t>
   </si>
   <si>
@@ -702,11 +705,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.00E+000"/>
+    <numFmt numFmtId="168" formatCode="0"/>
+    <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -991,7 +996,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1232,8 +1237,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1317,9 +1330,9 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1747,7 +1760,7 @@
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
       <c r="D40" s="31" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="5"/>
@@ -1801,7 +1814,7 @@
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="33" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="13"/>
@@ -1867,7 +1880,7 @@
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" s="13"/>
     </row>
@@ -1968,9 +1981,9 @@
   <dimension ref="A1:IQ45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5080,8 +5093,12 @@
       <c r="A13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
+      <c r="B13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -9075,10 +9092,10 @@
         <v>111</v>
       </c>
       <c r="B45" s="43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C45" s="43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9099,408 +9116,3705 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:DR19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DM1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="DM1" activeCellId="0" sqref="DM1"/>
+      <selection pane="bottomLeft" activeCell="DM5" activeCellId="0" sqref="DM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5561224489796"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="60" t="n">
+    <row r="1" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="60" t="n">
+      <c r="C1" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="60" t="n">
+      <c r="E1" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="60" t="n">
+      <c r="F1" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="60" t="n">
+      <c r="G1" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="60" t="n">
+      <c r="H1" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="60" t="n">
+      <c r="I1" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="60" t="n">
+      <c r="J1" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="60" t="n">
+      <c r="K1" s="61" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="60" t="n">
+      <c r="L1" s="61" t="n">
         <v>10</v>
+      </c>
+      <c r="M1" s="61" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="61" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="61" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="61" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="61" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="61" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="61" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="61" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="61" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="61" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="61" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="61" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="61" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="61" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="61" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="61" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="61" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="61" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="61" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="61" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="61" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="61" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="61" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="61" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="61" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="61" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="61" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="61" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="61" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="61" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="61" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="61" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="61" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="61" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="61" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="61" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="61" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="61" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="61" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="61" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="61" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="61" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="61" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="61" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="61" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="61" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="61" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="61" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="61" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="61" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="61" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="61" t="n">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="61" t="n">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="61" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="61" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="61" t="n">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="61" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="61" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="61" t="n">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="61" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="61" t="n">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="61" t="n">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="61" t="n">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="61" t="n">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="61" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="61" t="n">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="61" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="61" t="n">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="61" t="n">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="61" t="n">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="61" t="n">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="61" t="n">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="61" t="n">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="61" t="n">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="61" t="n">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="61" t="n">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="61" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="61" t="n">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="61" t="n">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="61" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="61" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="61" t="n">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="61" t="n">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="61" t="n">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="61" t="n">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="61" t="n">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="61" t="n">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="61" t="n">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="61" t="n">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="61" t="n">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="61" t="n">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="61" t="n">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="61" t="n">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="61" t="n">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="61" t="n">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="61" t="n">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="61" t="n">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="61" t="n">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="61" t="n">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="61" t="n">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="61" t="n">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="61" t="n">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="61" t="n">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="61" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
+      <c r="B2" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D2" s="62" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E2" s="62" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F2" s="62" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G2" s="62" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="62" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I2" s="62" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="J2" s="62" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K2" s="62" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L2" s="62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M2" s="62" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N2" s="62" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O2" s="62" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="P2" s="62" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="Q2" s="62" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="R2" s="62" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="S2" s="62" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T2" s="62" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="U2" s="62" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="V2" s="62" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W2" s="62" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="X2" s="62" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="Y2" s="62" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="Z2" s="62" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AA2" s="62" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AB2" s="62" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AC2" s="62" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AD2" s="62" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AE2" s="62" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AF2" s="62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AG2" s="62" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="AH2" s="62" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AI2" s="62" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="AJ2" s="62" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AK2" s="62" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AL2" s="62" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="AM2" s="62" t="n">
+        <v>0.0369999999999999</v>
+      </c>
+      <c r="AN2" s="62" t="n">
+        <v>0.0379999999999999</v>
+      </c>
+      <c r="AO2" s="62" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AP2" s="62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ2" s="62" t="n">
+        <v>0.0409999999999999</v>
+      </c>
+      <c r="AR2" s="62" t="n">
+        <v>0.0419999999999999</v>
+      </c>
+      <c r="AS2" s="62" t="n">
+        <v>0.0429999999999999</v>
+      </c>
+      <c r="AT2" s="62" t="n">
+        <v>0.0439999999999999</v>
+      </c>
+      <c r="AU2" s="62" t="n">
+        <v>0.0449999999999999</v>
+      </c>
+      <c r="AV2" s="62" t="n">
+        <v>0.0459999999999999</v>
+      </c>
+      <c r="AW2" s="62" t="n">
+        <v>0.0469999999999999</v>
+      </c>
+      <c r="AX2" s="62" t="n">
+        <v>0.0479999999999999</v>
+      </c>
+      <c r="AY2" s="62" t="n">
+        <v>0.0489999999999999</v>
+      </c>
+      <c r="AZ2" s="62" t="n">
+        <v>0.0499999999999999</v>
+      </c>
+      <c r="BA2" s="62" t="n">
+        <v>0.0509999999999999</v>
+      </c>
+      <c r="BB2" s="62" t="n">
+        <v>0.0519999999999999</v>
+      </c>
+      <c r="BC2" s="62" t="n">
+        <v>0.0529999999999999</v>
+      </c>
+      <c r="BD2" s="62" t="n">
+        <v>0.0539999999999999</v>
+      </c>
+      <c r="BE2" s="62" t="n">
+        <v>0.0549999999999999</v>
+      </c>
+      <c r="BF2" s="62" t="n">
+        <v>0.0559999999999999</v>
+      </c>
+      <c r="BG2" s="62" t="n">
+        <v>0.0569999999999999</v>
+      </c>
+      <c r="BH2" s="62" t="n">
+        <v>0.0579999999999999</v>
+      </c>
+      <c r="BI2" s="62" t="n">
+        <v>0.0589999999999999</v>
+      </c>
+      <c r="BJ2" s="62" t="n">
+        <v>0.0599999999999999</v>
+      </c>
+      <c r="BK2" s="62" t="n">
+        <v>0.0609999999999999</v>
+      </c>
+      <c r="BL2" s="62" t="n">
+        <v>0.0619999999999999</v>
+      </c>
+      <c r="BM2" s="62" t="n">
+        <v>0.0629999999999999</v>
+      </c>
+      <c r="BN2" s="62" t="n">
+        <v>0.0639999999999999</v>
+      </c>
+      <c r="BO2" s="62" t="n">
+        <v>0.0649999999999999</v>
+      </c>
+      <c r="BP2" s="62" t="n">
+        <v>0.0659999999999999</v>
+      </c>
+      <c r="BQ2" s="62" t="n">
+        <v>0.0669999999999999</v>
+      </c>
+      <c r="BR2" s="62" t="n">
+        <v>0.0679999999999999</v>
+      </c>
+      <c r="BS2" s="62" t="n">
+        <v>0.0689999999999999</v>
+      </c>
+      <c r="BT2" s="62" t="n">
+        <v>0.0699999999999999</v>
+      </c>
+      <c r="BU2" s="62" t="n">
+        <v>0.0709999999999999</v>
+      </c>
+      <c r="BV2" s="62" t="n">
+        <v>0.0719999999999999</v>
+      </c>
+      <c r="BW2" s="62" t="n">
+        <v>0.0729999999999999</v>
+      </c>
+      <c r="BX2" s="62" t="n">
+        <v>0.0739999999999999</v>
+      </c>
+      <c r="BY2" s="62" t="n">
+        <v>0.0749999999999999</v>
+      </c>
+      <c r="BZ2" s="62" t="n">
+        <v>0.0759999999999999</v>
+      </c>
+      <c r="CA2" s="62" t="n">
+        <v>0.0769999999999999</v>
+      </c>
+      <c r="CB2" s="62" t="n">
+        <v>0.0779999999999999</v>
+      </c>
+      <c r="CC2" s="62" t="n">
+        <v>0.0789999999999999</v>
+      </c>
+      <c r="CD2" s="62" t="n">
+        <v>0.0799999999999999</v>
+      </c>
+      <c r="CE2" s="62" t="n">
+        <v>0.0809999999999999</v>
+      </c>
+      <c r="CF2" s="62" t="n">
+        <v>0.0819999999999999</v>
+      </c>
+      <c r="CG2" s="62" t="n">
+        <v>0.0829999999999999</v>
+      </c>
+      <c r="CH2" s="62" t="n">
+        <v>0.0839999999999999</v>
+      </c>
+      <c r="CI2" s="62" t="n">
+        <v>0.0849999999999999</v>
+      </c>
+      <c r="CJ2" s="62" t="n">
+        <v>0.0859999999999999</v>
+      </c>
+      <c r="CK2" s="62" t="n">
+        <v>0.0869999999999999</v>
+      </c>
+      <c r="CL2" s="62" t="n">
+        <v>0.0879999999999999</v>
+      </c>
+      <c r="CM2" s="62" t="n">
+        <v>0.0889999999999999</v>
+      </c>
+      <c r="CN2" s="62" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CO2" s="62" t="n">
+        <v>0.0909999999999999</v>
+      </c>
+      <c r="CP2" s="62" t="n">
+        <v>0.0919999999999999</v>
+      </c>
+      <c r="CQ2" s="62" t="n">
+        <v>0.0929999999999999</v>
+      </c>
+      <c r="CR2" s="62" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="CS2" s="62" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="CT2" s="62" t="n">
+        <v>0.0959999999999999</v>
+      </c>
+      <c r="CU2" s="62" t="n">
+        <v>0.0969999999999999</v>
+      </c>
+      <c r="CV2" s="62" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="CW2" s="62" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="CX2" s="62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CY2" s="62" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="CZ2" s="62" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="DA2" s="62" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="DB2" s="62" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="DC2" s="62" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="DD2" s="62" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="DE2" s="62" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="DF2" s="62" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="DG2" s="62" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="DH2" s="62" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="DI2" s="62" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="DJ2" s="62" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="DK2" s="62" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="DL2" s="62" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="DM2" s="62" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="DN2" s="62" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="DO2" s="62" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="DP2" s="62" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="DQ2" s="62" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="DR2" s="62" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>-1.5</v>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO4" s="0" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS4" s="0" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU4" s="0" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="AV4" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW4" s="0" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="AX4" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY4" s="0" t="n">
+        <v>1.24499999999999</v>
+      </c>
+      <c r="AZ4" s="0" t="n">
+        <v>1.24999999999999</v>
+      </c>
+      <c r="BA4" s="0" t="n">
+        <v>1.25499999999999</v>
+      </c>
+      <c r="BB4" s="0" t="n">
+        <v>1.25999999999999</v>
+      </c>
+      <c r="BC4" s="0" t="n">
+        <v>1.26499999999999</v>
+      </c>
+      <c r="BD4" s="0" t="n">
+        <v>1.26999999999999</v>
+      </c>
+      <c r="BE4" s="0" t="n">
+        <v>1.27499999999999</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>1.27999999999999</v>
+      </c>
+      <c r="BG4" s="0" t="n">
+        <v>1.28499999999999</v>
+      </c>
+      <c r="BH4" s="0" t="n">
+        <v>1.28999999999999</v>
+      </c>
+      <c r="BI4" s="0" t="n">
+        <v>1.29499999999999</v>
+      </c>
+      <c r="BJ4" s="0" t="n">
+        <v>1.29999999999999</v>
+      </c>
+      <c r="BK4" s="0" t="n">
+        <v>1.30499999999999</v>
+      </c>
+      <c r="BL4" s="0" t="n">
+        <v>1.30999999999999</v>
+      </c>
+      <c r="BM4" s="0" t="n">
+        <v>1.31499999999999</v>
+      </c>
+      <c r="BN4" s="0" t="n">
+        <v>1.31999999999999</v>
+      </c>
+      <c r="BO4" s="0" t="n">
+        <v>1.32499999999999</v>
+      </c>
+      <c r="BP4" s="0" t="n">
+        <v>1.32999999999999</v>
+      </c>
+      <c r="BQ4" s="0" t="n">
+        <v>1.33499999999999</v>
+      </c>
+      <c r="BR4" s="0" t="n">
+        <v>1.33999999999999</v>
+      </c>
+      <c r="BS4" s="0" t="n">
+        <v>1.34499999999999</v>
+      </c>
+      <c r="BT4" s="0" t="n">
+        <v>1.34999999999999</v>
+      </c>
+      <c r="BU4" s="0" t="n">
+        <v>1.35499999999999</v>
+      </c>
+      <c r="BV4" s="0" t="n">
+        <v>1.35999999999999</v>
+      </c>
+      <c r="BW4" s="0" t="n">
+        <v>1.36499999999999</v>
+      </c>
+      <c r="BX4" s="0" t="n">
+        <v>1.36999999999999</v>
+      </c>
+      <c r="BY4" s="0" t="n">
+        <v>1.37499999999999</v>
+      </c>
+      <c r="BZ4" s="0" t="n">
+        <v>1.37999999999999</v>
+      </c>
+      <c r="CA4" s="0" t="n">
+        <v>1.38499999999999</v>
+      </c>
+      <c r="CB4" s="0" t="n">
+        <v>1.38999999999999</v>
+      </c>
+      <c r="CC4" s="0" t="n">
+        <v>1.39499999999999</v>
+      </c>
+      <c r="CD4" s="0" t="n">
+        <v>1.39999999999999</v>
+      </c>
+      <c r="CE4" s="0" t="n">
+        <v>1.40499999999999</v>
+      </c>
+      <c r="CF4" s="0" t="n">
+        <v>1.40999999999999</v>
+      </c>
+      <c r="CG4" s="0" t="n">
+        <v>1.41499999999999</v>
+      </c>
+      <c r="CH4" s="0" t="n">
+        <v>1.41999999999999</v>
+      </c>
+      <c r="CI4" s="0" t="n">
+        <v>1.42499999999999</v>
+      </c>
+      <c r="CJ4" s="0" t="n">
+        <v>1.42999999999999</v>
+      </c>
+      <c r="CK4" s="0" t="n">
+        <v>1.43499999999999</v>
+      </c>
+      <c r="CL4" s="0" t="n">
+        <v>1.43999999999999</v>
+      </c>
+      <c r="CM4" s="0" t="n">
+        <v>1.44499999999999</v>
+      </c>
+      <c r="CN4" s="0" t="n">
+        <v>1.44999999999999</v>
+      </c>
+      <c r="CO4" s="0" t="n">
+        <v>1.45499999999999</v>
+      </c>
+      <c r="CP4" s="0" t="n">
+        <v>1.45999999999999</v>
+      </c>
+      <c r="CQ4" s="0" t="n">
+        <v>1.46499999999999</v>
+      </c>
+      <c r="CR4" s="0" t="n">
+        <v>1.46999999999999</v>
+      </c>
+      <c r="CS4" s="0" t="n">
+        <v>1.47499999999999</v>
+      </c>
+      <c r="CT4" s="0" t="n">
+        <v>1.47999999999999</v>
+      </c>
+      <c r="CU4" s="0" t="n">
+        <v>1.48499999999999</v>
+      </c>
+      <c r="CV4" s="0" t="n">
+        <v>1.48999999999999</v>
+      </c>
+      <c r="CW4" s="0" t="n">
+        <v>1.49499999999999</v>
+      </c>
+      <c r="CX4" s="0" t="n">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="CY4" s="0" t="n">
+        <v>1.50499999999999</v>
+      </c>
+      <c r="CZ4" s="0" t="n">
+        <v>1.50999999999999</v>
+      </c>
+      <c r="DA4" s="0" t="n">
+        <v>1.51499999999999</v>
+      </c>
+      <c r="DB4" s="0" t="n">
+        <v>1.51999999999999</v>
+      </c>
+      <c r="DC4" s="0" t="n">
+        <v>1.52499999999999</v>
+      </c>
+      <c r="DD4" s="0" t="n">
+        <v>1.52999999999999</v>
+      </c>
+      <c r="DE4" s="0" t="n">
+        <v>1.53499999999999</v>
+      </c>
+      <c r="DF4" s="0" t="n">
+        <v>1.53999999999999</v>
+      </c>
+      <c r="DG4" s="0" t="n">
+        <v>1.54499999999999</v>
+      </c>
+      <c r="DH4" s="0" t="n">
+        <v>1.54999999999999</v>
+      </c>
+      <c r="DI4" s="0" t="n">
+        <v>1.55499999999999</v>
+      </c>
+      <c r="DJ4" s="0" t="n">
+        <v>1.55999999999999</v>
+      </c>
+      <c r="DK4" s="0" t="n">
+        <v>1.56499999999999</v>
+      </c>
+      <c r="DL4" s="0" t="n">
+        <v>1.56999999999999</v>
+      </c>
+      <c r="DM4" s="0" t="n">
+        <v>1.57499999999999</v>
+      </c>
+      <c r="DN4" s="0" t="n">
+        <v>1.57999999999999</v>
+      </c>
+      <c r="DO4" s="0" t="n">
+        <v>1.58499999999999</v>
+      </c>
+      <c r="DP4" s="0" t="n">
+        <v>1.58999999999999</v>
+      </c>
+      <c r="DQ4" s="0" t="n">
+        <v>1.59499999999999</v>
+      </c>
+      <c r="DR4" s="0" t="n">
+        <v>1.59999999999999</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BD7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BE7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BF7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BG7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BH7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BK7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BL7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BM7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BN7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BO7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BP7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BR7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BT7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BU7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BV7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BW7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BX7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BY7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BZ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CA7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CB7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CC7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CD7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CE7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CF7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CG7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CH7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CI7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CJ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CK7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CL7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CM7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CN7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CO7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CP7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CQ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CR7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CS7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CT7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CU7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CV7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CW7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CX7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CY7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CZ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DA7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DB7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DC7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DD7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DE7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DF7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DG7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DH7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DI7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DJ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DK7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DL7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DM7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DN7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DO7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DP7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DQ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DR7" s="4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>119</v>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DA9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DB9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DC9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DD9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DE9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DF9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DG9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DH9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DJ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DM9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DN9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DO9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DP9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DQ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR9" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>5000</v>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CK10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CL10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CQ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CR10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CT10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CU10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CX10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CZ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DA10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DC10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DD10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DE10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DF10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DG10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DH10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DI10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DJ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DK10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DL10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DM10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DO10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DP10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DQ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR10" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="C12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="D12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="E12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="F12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="G12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="H12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="I12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="J12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="K12" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="L12" s="48" t="n">
-        <v>2800000000000</v>
+      <c r="B12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AK12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AL12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AO12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AP12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AQ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AR12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AS12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AT12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AU12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AV12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AW12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AX12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AY12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AZ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BA12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BB12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BC12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BD12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BE12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BF12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BG12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BH12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BI12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BJ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BK12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BM12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BN12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BO12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BP12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BQ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BR12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BS12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BT12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BU12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BV12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BW12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BX12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BY12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BZ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CA12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CB12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CC12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CD12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CE12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CF12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CG12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CH12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CI12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CJ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CK12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CL12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CM12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CN12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CO12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CP12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CQ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CR12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CS12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CT12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CU12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CV12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CW12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CX12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CY12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="CZ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DA12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DB12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DC12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DD12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DE12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DF12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DG12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DH12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DI12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DJ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DK12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DL12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DM12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DN12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DO12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DP12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DQ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="DR12" s="0" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.375</v>
+      <c r="B13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="C13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="D13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="E13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="F13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="G13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="H13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="I13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="J13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="K13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="L13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="M13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="N13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="O13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="P13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="Q13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="R13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="S13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="T13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="U13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="V13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="W13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="X13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="Y13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="Z13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AA13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AB13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AC13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AD13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AE13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AF13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AG13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AH13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AI13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AJ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AK13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AL13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AM13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AN13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AO13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AP13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AQ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AR13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AS13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AT13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AU13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AV13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AW13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AX13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AY13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AZ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BA13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BB13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BC13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BD13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BE13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BF13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BG13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BH13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BI13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BJ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BK13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BL13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BM13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BN13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BO13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BP13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BQ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BR13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BS13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BT13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BU13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BV13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BW13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BX13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BY13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BZ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CA13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CB13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CC13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CD13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CE13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CF13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CG13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CH13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CI13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CJ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CK13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CL13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CM13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CN13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CO13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CP13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CQ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CR13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CS13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CT13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CU13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CV13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CW13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CX13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CY13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="CZ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DA13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DB13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DC13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DD13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DE13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DF13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DG13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DH13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DI13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DJ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DK13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DL13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DM13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DN13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DO13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DP13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DQ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="DR13" s="48" t="n">
+        <v>2800000000000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9508,37 +12822,367 @@
         <v>125</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AK14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AL14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AO14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AP14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AR14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AS14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AT14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AU14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AV14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AW14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AX14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AY14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AZ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BA14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BB14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BC14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BD14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BE14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BF14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BG14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BH14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BI14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BJ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BK14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BL14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BM14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BN14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BO14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BP14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BQ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BR14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BS14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BT14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BU14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BV14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BW14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BX14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BY14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BZ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CA14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CB14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CC14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CD14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CE14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CF14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CG14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CH14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CI14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CJ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CL14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CM14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CN14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CO14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CP14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CQ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CR14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CS14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CT14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CU14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CV14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CW14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CX14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CY14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CZ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DA14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DB14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DC14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DD14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DE14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DF14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DG14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DH14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DI14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DJ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DK14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DL14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DM14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DN14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DO14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DP14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DQ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DR14" s="0" t="n">
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9546,37 +13190,367 @@
         <v>126</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AV15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AX15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AY15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AZ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BA15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BB15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BD15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BE15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BF15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BG15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BH15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BJ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BK15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BL15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BM15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BN15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BO15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BP15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BQ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BR15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BS15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BT15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BU15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BV15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BW15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BX15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BY15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BZ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CA15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CB15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CC15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CD15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CE15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CF15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CG15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CI15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CJ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CK15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CL15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CM15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CN15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CO15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CP15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CQ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CR15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CS15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CT15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CU15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CV15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CW15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CX15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CY15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CZ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DA15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DB15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DC15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DD15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DE15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DF15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DG15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DH15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DI15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DJ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DK15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DL15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DM15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DN15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DO15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DP15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DQ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DR15" s="0" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,37 +13558,367 @@
         <v>127</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AV16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AW16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AZ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BB16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BC16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BH16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BJ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BQ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BR16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BS16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BT16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BU16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BV16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BW16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BX16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BY16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BZ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CA16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CB16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CC16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CD16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CE16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CF16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CG16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CH16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CI16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CJ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CK16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CL16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CM16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CN16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CO16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CP16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CQ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CR16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CS16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CT16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CU16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CV16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CW16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CX16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CY16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CZ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DA16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DB16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DC16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DD16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DE16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DF16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DG16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DH16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DI16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DJ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DK16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DL16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DM16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DN16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DO16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DP16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DQ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DR16" s="0" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9622,37 +13926,367 @@
         <v>128</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>10000</v>
+        <v>3.5</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AP17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AR17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AS17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AT17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AV17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AW17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AZ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BH17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BJ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BL17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BQ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BR17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BS17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BT17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BU17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BV17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BW17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BX17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BY17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BZ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CA17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CB17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CC17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CD17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CE17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CF17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CG17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CH17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CI17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CJ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CK17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CL17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CM17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CN17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CO17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CP17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CQ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CR17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CS17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CT17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CU17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CV17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CW17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CX17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CY17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CZ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DA17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DB17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DC17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DD17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DE17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DF17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DG17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DH17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DI17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DJ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DK17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DL17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DM17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DN17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DO17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DP17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DQ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DR17" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9660,36 +14294,734 @@
         <v>129</v>
       </c>
       <c r="B18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AO18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AP18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AR18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AS18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AU18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AV18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AW18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AX18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AY18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AZ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BA18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BB18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BC18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BE18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BF18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BG18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BH18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BI18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BK18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BM18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BN18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BP18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BR18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BT18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BU18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BV18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BW18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BX18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BY18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BZ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CA18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CB18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CC18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CD18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CE18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CF18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CG18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CH18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CI18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CJ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CK18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CL18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CM18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CN18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CO18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CP18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CQ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CR18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CS18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CT18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CU18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CV18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CW18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CX18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CY18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="CZ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DA18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DB18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DC18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DD18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DE18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DF18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DG18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DH18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DI18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DJ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DK18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DL18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DM18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DN18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DO18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DP18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DQ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="DR18" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AV19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AW19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AX19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AY19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AZ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BA19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BB19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BD19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BE19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BF19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BG19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BH19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BJ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BK19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BL19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BM19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BN19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BO19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BP19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BQ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BR19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BS19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BT19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BU19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BV19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BW19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BX19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BY19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BZ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CA19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CB19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CC19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CD19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CE19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CF19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CG19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CH19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CI19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CJ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CK19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CL19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CM19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CN19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CO19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CP19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CQ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CR19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CS19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CT19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CU19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CV19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CW19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CX19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CY19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CZ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DA19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DB19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DC19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DD19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DE19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DF19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DG19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DH19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DI19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DJ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DK19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DL19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DM19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DN19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DO19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DP19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DQ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DR19" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="131">
   <si>
     <t>Sim</t>
   </si>
@@ -1980,7 +1980,7 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
@@ -9116,12 +9116,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:YR19"/>
+  <dimension ref="A1:ZZ19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="ZS1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="DP1" activeCellId="0" sqref="DP1"/>
+      <selection pane="topLeft" activeCell="ZS1" activeCellId="0" sqref="ZS1"/>
+      <selection pane="bottomLeft" activeCell="ZZ24" activeCellId="0" sqref="ZZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11114,12 +11114,126 @@
       <c r="YL1" s="61" t="n">
         <v>660</v>
       </c>
-      <c r="YM1" s="61"/>
-      <c r="YN1" s="61"/>
-      <c r="YO1" s="61"/>
-      <c r="YP1" s="61"/>
-      <c r="YQ1" s="61"/>
-      <c r="YR1" s="61"/>
+      <c r="YM1" s="61" t="n">
+        <v>661</v>
+      </c>
+      <c r="YN1" s="61" t="n">
+        <v>662</v>
+      </c>
+      <c r="YO1" s="61" t="n">
+        <v>663</v>
+      </c>
+      <c r="YP1" s="61" t="n">
+        <v>664</v>
+      </c>
+      <c r="YQ1" s="61" t="n">
+        <v>665</v>
+      </c>
+      <c r="YR1" s="61" t="n">
+        <v>666</v>
+      </c>
+      <c r="YS1" s="61" t="n">
+        <v>667</v>
+      </c>
+      <c r="YT1" s="61" t="n">
+        <v>668</v>
+      </c>
+      <c r="YU1" s="61" t="n">
+        <v>669</v>
+      </c>
+      <c r="YV1" s="61" t="n">
+        <v>670</v>
+      </c>
+      <c r="YW1" s="61" t="n">
+        <v>671</v>
+      </c>
+      <c r="YX1" s="61" t="n">
+        <v>672</v>
+      </c>
+      <c r="YY1" s="61" t="n">
+        <v>673</v>
+      </c>
+      <c r="YZ1" s="61" t="n">
+        <v>674</v>
+      </c>
+      <c r="ZA1" s="61" t="n">
+        <v>675</v>
+      </c>
+      <c r="ZB1" s="61" t="n">
+        <v>676</v>
+      </c>
+      <c r="ZC1" s="61" t="n">
+        <v>677</v>
+      </c>
+      <c r="ZD1" s="61" t="n">
+        <v>678</v>
+      </c>
+      <c r="ZE1" s="61" t="n">
+        <v>679</v>
+      </c>
+      <c r="ZF1" s="61" t="n">
+        <v>680</v>
+      </c>
+      <c r="ZG1" s="61" t="n">
+        <v>681</v>
+      </c>
+      <c r="ZH1" s="61" t="n">
+        <v>682</v>
+      </c>
+      <c r="ZI1" s="61" t="n">
+        <v>683</v>
+      </c>
+      <c r="ZJ1" s="61" t="n">
+        <v>684</v>
+      </c>
+      <c r="ZK1" s="61" t="n">
+        <v>685</v>
+      </c>
+      <c r="ZL1" s="61" t="n">
+        <v>686</v>
+      </c>
+      <c r="ZM1" s="61" t="n">
+        <v>687</v>
+      </c>
+      <c r="ZN1" s="61" t="n">
+        <v>688</v>
+      </c>
+      <c r="ZO1" s="61" t="n">
+        <v>689</v>
+      </c>
+      <c r="ZP1" s="61" t="n">
+        <v>690</v>
+      </c>
+      <c r="ZQ1" s="61" t="n">
+        <v>691</v>
+      </c>
+      <c r="ZR1" s="61" t="n">
+        <v>692</v>
+      </c>
+      <c r="ZS1" s="61" t="n">
+        <v>693</v>
+      </c>
+      <c r="ZT1" s="61" t="n">
+        <v>694</v>
+      </c>
+      <c r="ZU1" s="61" t="n">
+        <v>695</v>
+      </c>
+      <c r="ZV1" s="61" t="n">
+        <v>696</v>
+      </c>
+      <c r="ZW1" s="61" t="n">
+        <v>697</v>
+      </c>
+      <c r="ZX1" s="61" t="n">
+        <v>698</v>
+      </c>
+      <c r="ZY1" s="61" t="n">
+        <v>699</v>
+      </c>
+      <c r="ZZ1" s="61" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -13108,12 +13222,126 @@
       <c r="YL2" s="62" t="n">
         <v>0.66</v>
       </c>
-      <c r="YM2" s="62"/>
-      <c r="YN2" s="62"/>
-      <c r="YO2" s="62"/>
-      <c r="YP2" s="62"/>
-      <c r="YQ2" s="62"/>
-      <c r="YR2" s="62"/>
+      <c r="YM2" s="62" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="YN2" s="62" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="YO2" s="62" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="YP2" s="62" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="YQ2" s="62" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="YR2" s="62" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="YS2" s="62" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="YT2" s="62" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="YU2" s="62" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="YV2" s="62" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="YW2" s="62" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="YX2" s="62" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="YY2" s="62" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="YZ2" s="62" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="ZA2" s="62" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="ZB2" s="62" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="ZC2" s="62" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="ZD2" s="62" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="ZE2" s="62" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="ZF2" s="62" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="ZG2" s="62" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="ZH2" s="62" t="n">
+        <v>0.682</v>
+      </c>
+      <c r="ZI2" s="62" t="n">
+        <v>0.683</v>
+      </c>
+      <c r="ZJ2" s="62" t="n">
+        <v>0.684</v>
+      </c>
+      <c r="ZK2" s="62" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="ZL2" s="62" t="n">
+        <v>0.686</v>
+      </c>
+      <c r="ZM2" s="62" t="n">
+        <v>0.687</v>
+      </c>
+      <c r="ZN2" s="62" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="ZO2" s="62" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="ZP2" s="62" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="ZQ2" s="62" t="n">
+        <v>0.691</v>
+      </c>
+      <c r="ZR2" s="62" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="ZS2" s="62" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="ZT2" s="62" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="ZU2" s="62" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="ZV2" s="62" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="ZW2" s="62" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="ZX2" s="62" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="ZY2" s="62" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="ZZ2" s="62" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -15102,6 +15330,126 @@
       <c r="YL3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="YM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YV3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YW3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YY3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YZ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZV3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZW3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZY3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZZ3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -17090,6 +17438,126 @@
       <c r="YL4" s="0" t="n">
         <v>3.29999999999994</v>
       </c>
+      <c r="YM4" s="0" t="n">
+        <v>3.30499999999994</v>
+      </c>
+      <c r="YN4" s="0" t="n">
+        <v>3.30999999999994</v>
+      </c>
+      <c r="YO4" s="0" t="n">
+        <v>3.31499999999994</v>
+      </c>
+      <c r="YP4" s="0" t="n">
+        <v>3.31999999999994</v>
+      </c>
+      <c r="YQ4" s="0" t="n">
+        <v>3.32499999999994</v>
+      </c>
+      <c r="YR4" s="0" t="n">
+        <v>3.32999999999994</v>
+      </c>
+      <c r="YS4" s="0" t="n">
+        <v>3.33499999999994</v>
+      </c>
+      <c r="YT4" s="0" t="n">
+        <v>3.33999999999994</v>
+      </c>
+      <c r="YU4" s="0" t="n">
+        <v>3.34499999999994</v>
+      </c>
+      <c r="YV4" s="0" t="n">
+        <v>3.34999999999994</v>
+      </c>
+      <c r="YW4" s="0" t="n">
+        <v>3.35499999999994</v>
+      </c>
+      <c r="YX4" s="0" t="n">
+        <v>3.35999999999994</v>
+      </c>
+      <c r="YY4" s="0" t="n">
+        <v>3.36499999999994</v>
+      </c>
+      <c r="YZ4" s="0" t="n">
+        <v>3.36999999999994</v>
+      </c>
+      <c r="ZA4" s="0" t="n">
+        <v>3.37499999999994</v>
+      </c>
+      <c r="ZB4" s="0" t="n">
+        <v>3.37999999999994</v>
+      </c>
+      <c r="ZC4" s="0" t="n">
+        <v>3.38499999999994</v>
+      </c>
+      <c r="ZD4" s="0" t="n">
+        <v>3.38999999999994</v>
+      </c>
+      <c r="ZE4" s="0" t="n">
+        <v>3.39499999999994</v>
+      </c>
+      <c r="ZF4" s="0" t="n">
+        <v>3.39999999999994</v>
+      </c>
+      <c r="ZG4" s="0" t="n">
+        <v>3.40499999999994</v>
+      </c>
+      <c r="ZH4" s="0" t="n">
+        <v>3.40999999999994</v>
+      </c>
+      <c r="ZI4" s="0" t="n">
+        <v>3.41499999999994</v>
+      </c>
+      <c r="ZJ4" s="0" t="n">
+        <v>3.41999999999994</v>
+      </c>
+      <c r="ZK4" s="0" t="n">
+        <v>3.42499999999994</v>
+      </c>
+      <c r="ZL4" s="0" t="n">
+        <v>3.42999999999994</v>
+      </c>
+      <c r="ZM4" s="0" t="n">
+        <v>3.43499999999994</v>
+      </c>
+      <c r="ZN4" s="0" t="n">
+        <v>3.43999999999994</v>
+      </c>
+      <c r="ZO4" s="0" t="n">
+        <v>3.44499999999994</v>
+      </c>
+      <c r="ZP4" s="0" t="n">
+        <v>3.44999999999994</v>
+      </c>
+      <c r="ZQ4" s="0" t="n">
+        <v>3.45499999999994</v>
+      </c>
+      <c r="ZR4" s="0" t="n">
+        <v>3.45999999999994</v>
+      </c>
+      <c r="ZS4" s="0" t="n">
+        <v>3.46499999999994</v>
+      </c>
+      <c r="ZT4" s="0" t="n">
+        <v>3.46999999999994</v>
+      </c>
+      <c r="ZU4" s="0" t="n">
+        <v>3.47499999999994</v>
+      </c>
+      <c r="ZV4" s="0" t="n">
+        <v>3.47999999999994</v>
+      </c>
+      <c r="ZW4" s="0" t="n">
+        <v>3.48499999999994</v>
+      </c>
+      <c r="ZX4" s="0" t="n">
+        <v>3.48999999999994</v>
+      </c>
+      <c r="ZY4" s="0" t="n">
+        <v>3.49499999999994</v>
+      </c>
+      <c r="ZZ4" s="0" t="n">
+        <v>3.49999999999994</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -19088,12 +19556,126 @@
       <c r="YL7" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="YM7" s="4"/>
-      <c r="YN7" s="4"/>
-      <c r="YO7" s="4"/>
-      <c r="YP7" s="4"/>
-      <c r="YQ7" s="4"/>
-      <c r="YR7" s="4"/>
+      <c r="YM7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YN7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YO7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YP7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YQ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YR7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YS7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YT7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YU7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YV7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YW7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YX7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YY7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="YZ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZA7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZB7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZC7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZD7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZE7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZF7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZG7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZH7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZI7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZJ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZK7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZL7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZM7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZN7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZO7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZP7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZQ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZR7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZS7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZT7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZU7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZV7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZW7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZX7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZY7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ZZ7" s="4" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -21082,6 +21664,126 @@
       <c r="YL8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="YM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YO8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YP8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YQ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YR8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YS8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YT8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YU8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YV8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YW8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YX8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YY8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="YZ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZA8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZB8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZD8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZG8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZO8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZP8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZQ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZR8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZS8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZT8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZU8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZV8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZW8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZX8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZY8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="ZZ8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -23070,12 +23772,126 @@
       <c r="YL9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="YM9" s="4"/>
-      <c r="YN9" s="4"/>
-      <c r="YO9" s="4"/>
-      <c r="YP9" s="4"/>
-      <c r="YQ9" s="4"/>
-      <c r="YR9" s="4"/>
+      <c r="YM9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YN9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YO9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YP9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YQ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YR9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YS9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YT9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YU9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YV9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YW9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YX9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YY9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="YZ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZA9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZB9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZC9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZD9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZE9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZF9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZG9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZH9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZI9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZJ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZK9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZL9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZM9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZN9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZO9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZP9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZQ9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZR9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZS9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZT9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZU9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZV9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZW9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZX9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZY9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="ZZ9" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -25064,12 +25880,126 @@
       <c r="YL10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="YM10" s="4"/>
-      <c r="YN10" s="4"/>
-      <c r="YO10" s="4"/>
-      <c r="YP10" s="4"/>
-      <c r="YQ10" s="4"/>
-      <c r="YR10" s="4"/>
+      <c r="YM10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YN10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YO10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YP10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YQ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YR10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YS10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YT10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YU10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YV10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YW10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YX10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YY10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="YZ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZA10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZB10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZC10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZD10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZE10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZF10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZG10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZH10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZI10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZJ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZK10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZL10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZM10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZN10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZO10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZP10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZQ10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZR10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZS10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZT10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZU10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZV10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZW10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZX10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZY10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ZZ10" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -27058,6 +27988,126 @@
       <c r="YL12" s="0" t="n">
         <v>5000</v>
       </c>
+      <c r="YM12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YN12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YO12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YP12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YQ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YR12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YS12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YT12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YU12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YV12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YW12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YX12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YY12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="YZ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZA12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZB12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZC12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZD12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZE12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZF12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZG12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZH12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZI12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZJ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZK12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZL12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZM12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZN12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZO12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZP12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZQ12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZR12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZS12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZT12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZU12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZV12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZW12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZX12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZY12" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="ZZ12" s="0" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -29046,12 +30096,126 @@
       <c r="YL13" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="YM13" s="48"/>
-      <c r="YN13" s="48"/>
-      <c r="YO13" s="48"/>
-      <c r="YP13" s="48"/>
-      <c r="YQ13" s="48"/>
-      <c r="YR13" s="48"/>
+      <c r="YM13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YN13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YO13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YP13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YQ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YR13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YS13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YT13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YU13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YV13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YW13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YX13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YY13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="YZ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZA13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZB13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZC13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZD13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZE13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZF13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZG13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZH13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZI13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZJ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZK13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZL13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZM13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZN13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZO13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZP13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZQ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZR13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZS13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZT13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZU13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZV13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZW13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZX13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZY13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="ZZ13" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -31040,6 +32204,126 @@
       <c r="YL14" s="0" t="n">
         <v>0.375</v>
       </c>
+      <c r="YM14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YN14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YO14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YP14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YQ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YR14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YS14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YT14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YU14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YV14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YW14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YX14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YY14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="YZ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZA14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZB14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZC14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZD14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZE14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZF14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZG14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZH14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZI14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZJ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZK14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZL14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZM14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZN14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZO14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZP14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZQ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZR14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZS14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZT14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZU14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZV14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZW14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZX14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZY14" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ZZ14" s="0" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -33028,6 +34312,126 @@
       <c r="YL15" s="0" t="n">
         <v>0.8</v>
       </c>
+      <c r="YM15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YN15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YO15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YP15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YQ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YR15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YS15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YT15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YU15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YV15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YW15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YX15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YY15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="YZ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZA15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZB15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZC15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZD15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZE15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZF15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZG15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZH15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZI15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZJ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZK15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZL15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZM15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZN15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZO15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZP15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZQ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZR15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZS15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZT15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZU15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZV15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZW15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZX15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZY15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ZZ15" s="0" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -35016,6 +36420,126 @@
       <c r="YL16" s="0" t="n">
         <v>2.5</v>
       </c>
+      <c r="YM16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YN16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YO16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YP16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YQ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YR16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YS16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YT16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YU16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YV16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YW16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YX16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YY16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="YZ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZA16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZB16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZC16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZD16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZE16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZF16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZG16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZH16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZI16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZJ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZK16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZL16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZM16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZN16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZO16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZP16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZQ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZR16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZS16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZT16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZU16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZV16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZW16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZX16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZY16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="ZZ16" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -37004,6 +38528,126 @@
       <c r="YL17" s="0" t="n">
         <v>3.5</v>
       </c>
+      <c r="YM17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YN17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YO17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YP17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YQ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YR17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YS17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YT17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YU17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YV17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YW17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YX17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YY17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="YZ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZA17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZB17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZC17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZD17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZE17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZF17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZG17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZH17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZI17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZJ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZK17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZL17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZM17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZN17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZO17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZP17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZQ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZR17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZS17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZT17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZU17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZV17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZW17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZX17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZY17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="ZZ17" s="0" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -38992,6 +40636,126 @@
       <c r="YL18" s="0" t="n">
         <v>10000</v>
       </c>
+      <c r="YM18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YN18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YO18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YP18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YQ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YR18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YS18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YT18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YU18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YV18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YW18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YX18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YY18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="YZ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZA18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZB18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZC18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZD18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZE18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZF18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZG18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZH18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZI18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZJ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZK18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZL18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZM18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZN18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZO18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZP18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZQ18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZR18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZS18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZT18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZU18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZV18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZW18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZX18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZY18" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="ZZ18" s="0" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -40978,6 +42742,126 @@
         <v>0.2</v>
       </c>
       <c r="YL19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YM19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YN19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YO19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YP19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YQ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YR19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YS19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YT19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YU19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YV19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YW19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YX19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YY19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="YZ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZA19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZB19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZC19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZD19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZE19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZF19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZG19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZH19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZI19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZJ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZK19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZL19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZM19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZN19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZO19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZP19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZQ19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZR19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZS19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZT19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZU19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZV19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZW19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZX19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZY19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ZZ19" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1980,10 +1980,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4070,10 +4070,10 @@
         <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -9118,7 +9118,7 @@
   </sheetPr>
   <dimension ref="A1:ZZ19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="ZS1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="ZS1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="ZS1" activeCellId="0" sqref="ZS1"/>
       <selection pane="bottomLeft" activeCell="ZZ24" activeCellId="0" sqref="ZZ24"/>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -268,7 +268,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="131">
   <si>
     <t>Sim</t>
   </si>
@@ -422,7 +422,7 @@
     <t>OpticalFilter</t>
   </si>
   <si>
-    <t>BG3</t>
+    <t>bg3</t>
   </si>
   <si>
     <t>metastable</t>
@@ -648,9 +648,6 @@
   </si>
   <si>
     <t>tReqOffsetSec</t>
-  </si>
-  <si>
-    <t>useArc</t>
   </si>
   <si>
     <t>X0km</t>
@@ -1335,7 +1332,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="1" sqref="I1:AZ19 A12"/>
+      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1520,9 +1517,6 @@
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
       <c r="G15" s="0"/>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -1994,9 +1988,9 @@
   <dimension ref="A1:IQ45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="1" sqref="I1:AZ19 C9"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9129,12 +9123,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:LT19"/>
+  <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AW1" activeCellId="0" sqref="AW1"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="0" sqref="I1:AZ19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9745,320 +9739,167 @@
       <c r="BG2" s="62"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>-0.9</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>-0.7</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1</v>
+        <v>-0.3</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1</v>
+        <v>-2.22044604925031E-016</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1</v>
+        <v>0.0999999999999998</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AK3" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AL3" s="0" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="AM3" s="0" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AN3" s="0" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="AO3" s="0" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="AP3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ3" s="0" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="AR3" s="0" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="AS3" s="0" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="AT3" s="0" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" s="0" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="AV3" s="0" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="AW3" s="0" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="AX3" s="0" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="AY3" s="0" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="AZ3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>-2.22044604925031E-016</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0.0999999999999998</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK4" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AL4" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AM4" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AO4" s="0" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AP4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ4" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AR4" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AS4" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AT4" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AV4" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AX4" s="0" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY4" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AZ4" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -10069,486 +9910,646 @@
       <c r="A6" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="B6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AX7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AY7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AZ7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="B8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -10558,650 +10559,643 @@
       <c r="BF9" s="4"/>
       <c r="BG9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
+      <c r="B11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AO11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AP11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AQ11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AR11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AS11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AT11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AU11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AV11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AW11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AX11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AY11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AZ11" s="0" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AH12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AI12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AK12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AL12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AM12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AN12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AO12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AP12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AQ12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AR12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AS12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AT12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AU12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AV12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AW12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AX12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AY12" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AZ12" s="0" t="n">
-        <v>5000</v>
-      </c>
+      <c r="B12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="C12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="D12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="E12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="F12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="G12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="H12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="I12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="J12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="K12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="L12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="M12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="O12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="P12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="Q12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="R12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="S12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="T12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="U12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="V12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="W12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="X12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="Y12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="Z12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AA12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AB12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AC12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AD12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AE12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AF12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AG12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AH12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AI12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AJ12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AK12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AL12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AM12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AN12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AO12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AP12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AQ12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AR12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AS12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AT12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AU12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AV12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AW12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AX12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AY12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="AZ12" s="48" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="C13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="D13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="E13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="F13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="G13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="H13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="I13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="J13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="K13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="L13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="M13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="N13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="O13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="P13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="Q13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="R13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="S13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="T13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="U13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="V13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="W13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="X13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="Y13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="Z13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AA13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AB13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AC13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AD13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AE13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AF13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AG13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AH13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AI13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AJ13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AK13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AL13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AM13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AN13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AO13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AP13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AQ13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AR13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AS13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AT13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AU13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AV13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AW13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AX13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AY13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="AZ13" s="48" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
+      <c r="B13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AJ13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AK13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AL13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AN13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AO13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AP13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AQ13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AR13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AS13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AT13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AU13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AV13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AW13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AX13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AY13" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AZ13" s="0" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AG14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AH14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AI14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AJ14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AK14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AL14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AM14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AN14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AO14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AP14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AR14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AS14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AT14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AV14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AW14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AX14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AY14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AZ14" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11209,157 +11203,157 @@
         <v>127</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AG15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AH15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AI15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AJ15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AK15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AL15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AM15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AN15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AO15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AP15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AR15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AS15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AV15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AW15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AX15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AY15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AZ15" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11367,157 +11361,157 @@
         <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AE16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AH16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AI16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AJ16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AK16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AL16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AM16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AN16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AP16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AQ16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AR16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AS16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AT16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AV16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AW16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AX16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AY16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AZ16" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11525,157 +11519,157 @@
         <v>129</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AA17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AB17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AE17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AG17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AH17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AI17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AJ17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AK17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AL17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AM17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AN17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AO17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AP17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AQ17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AR17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AS17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AT17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AU17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AV17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AW17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AX17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AY17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="AZ17" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11683,314 +11677,156 @@
         <v>130</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="Z18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AA18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AB18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AE18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AG18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AH18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AI18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AJ18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AK18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AL18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AM18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AN18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AO18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AP18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AQ18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AR18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AS18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AT18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AU18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AV18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AW18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AX18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AY18" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="AZ18" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AG19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AI19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AK19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AL19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AM19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AN19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AO19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AP19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AQ19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AR19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AS19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AT19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AU19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AV19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AW19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AX19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AY19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AZ19" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1332,7 +1332,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H22" activeCellId="1" sqref="C24 H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1517,6 +1517,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
       <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -1987,10 +1988,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4077,10 +4078,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -7911,8 +7912,14 @@
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B9*0.9</f>
+        <v>225</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">C9*0.9</f>
+        <v>225</v>
+      </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -9125,10 +9132,10 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="C24 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1332,7 +1332,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H22" activeCellId="1" sqref="C24 H22"/>
+      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1988,7 +1988,7 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
@@ -9132,10 +9132,10 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="C24 A3"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9780,7 +9780,7 @@
         <v>-0.1</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>-2.22044604925031E-016</v>
+        <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0.0999999999999998</v>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,12 +65,26 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t>[nm] for plotting only
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t>none
 bg3</t>
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0">
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
   <si>
     <t>Sim</t>
   </si>
@@ -417,6 +431,12 @@
   </si>
   <si>
     <t>downsampleEnergy</t>
+  </si>
+  <si>
+    <t>lambdamin</t>
+  </si>
+  <si>
+    <t>lambdamax</t>
   </si>
   <si>
     <t>OpticalFilter</t>
@@ -713,7 +733,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -787,6 +807,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF9900FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -996,7 +1022,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1073,6 +1099,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1081,7 +1111,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,7 +1127,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1173,11 +1203,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1201,7 +1231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1241,7 +1271,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1327,12 +1357,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1564,71 +1594,67 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="7"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19" t="n">
+        <v>200</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="G21" s="0"/>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19" t="n">
+        <v>1200</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="7"/>
+      <c r="H22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="G23" s="0"/>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
       <c r="G24" s="0"/>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0" t="n">
@@ -1637,9 +1663,9 @@
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0" t="n">
@@ -1647,60 +1673,64 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="7"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="7"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="22"/>
+      <c r="C32" s="7"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
@@ -1709,202 +1739,206 @@
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="G35" s="27" t="s">
+      <c r="B35" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
+      <c r="B36" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="22"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="29"/>
+      <c r="G39" s="0"/>
       <c r="H39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="0"/>
-      <c r="C40" s="13"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30" t="s">
+      <c r="C40" s="0"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="D41" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="0"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="0"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="13"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="33" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="33" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="13"/>
+      <c r="D44" s="32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30" t="s">
-        <v>58</v>
+      <c r="A45" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="33" t="n">
-        <v>89</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="13"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
-        <v>59</v>
+      <c r="A46" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="13"/>
+      <c r="D46" s="34" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="D47" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" s="35"/>
       <c r="F47" s="13"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="15"/>
+      <c r="D48" s="34" t="n">
+        <v>89</v>
+      </c>
+      <c r="E48" s="35"/>
       <c r="F48" s="13"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
+      <c r="A49" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="D49" s="36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="37"/>
       <c r="F49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="7"/>
-      <c r="E50" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="E51" s="15"/>
       <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="7"/>
+      <c r="E53" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="F53" s="39"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -1912,19 +1946,20 @@
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
-      <c r="F54" s="40"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="F55" s="41"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1932,42 +1967,65 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="27"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="41"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1996,19 +2054,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="43" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.0459183673469"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
     <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="44" t="n">
+      <c r="B1" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="n">
+      <c r="C1" s="45" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2262,7 +2320,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2520,13 +2578,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="45" t="n">
+      <c r="A3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="n">
+      <c r="C3" s="46" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2779,13 +2837,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="45" t="n">
+      <c r="A4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="45" t="n">
+      <c r="C4" s="46" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3038,8 +3096,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>75</v>
+      <c r="A5" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3297,13 +3355,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="45" t="n">
+      <c r="A6" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="46" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="46" t="n">
         <v>88.3</v>
       </c>
       <c r="D6" s="0"/>
@@ -3556,13 +3614,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="45" t="n">
+      <c r="A7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="45" t="n">
+      <c r="C7" s="46" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3815,8 +3873,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>78</v>
+      <c r="A8" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4075,7 +4133,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>250</v>
@@ -4334,10 +4392,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4588,8 +4646,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>81</v>
+      <c r="A11" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4844,9 +4902,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="50"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5099,7 +5157,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5357,13 +5415,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="51" t="n">
+      <c r="A14" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="52" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="51" t="n">
+      <c r="C14" s="52" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5616,11 +5674,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
-        <v>85</v>
+      <c r="A15" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5871,11 +5929,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
-        <v>86</v>
+      <c r="A16" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6126,11 +6184,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6382,7 +6440,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6638,7 +6696,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6890,10 +6948,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="57"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7145,10 +7203,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="57"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7400,7 +7458,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7655,7 +7713,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7910,7 +7968,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8424,7 +8482,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8683,7 +8741,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8947,7 +9005,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8958,7 +9016,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8969,7 +9027,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8980,7 +9038,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8991,7 +9049,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9003,23 +9061,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="58" t="n">
+        <v>103</v>
+      </c>
+      <c r="B35" s="59" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="58" t="n">
+      <c r="C35" s="59" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="58" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" s="59" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="58" t="n">
+      <c r="C36" s="59" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9030,7 +9088,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9041,7 +9099,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9052,24 +9110,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9078,37 +9136,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="59" t="n">
+      <c r="A43" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="59" t="n">
+      <c r="C43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="43" t="n">
+      <c r="A44" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="43" t="n">
+      <c r="C44" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="43" t="n">
+      <c r="A45" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="43" t="n">
+      <c r="C45" s="44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9132,7 +9190,7 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
@@ -9145,609 +9203,609 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61" t="n">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="61" t="n">
+      <c r="C1" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="n">
+      <c r="D1" s="62" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="61" t="n">
+      <c r="E1" s="62" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="61" t="n">
+      <c r="F1" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="61" t="n">
+      <c r="G1" s="62" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="61" t="n">
+      <c r="H1" s="62" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="61" t="n">
+      <c r="I1" s="62" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="61" t="n">
+      <c r="J1" s="62" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="61" t="n">
+      <c r="K1" s="62" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="61" t="n">
+      <c r="L1" s="62" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="61" t="n">
+      <c r="M1" s="62" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="61" t="n">
+      <c r="N1" s="62" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="61" t="n">
+      <c r="O1" s="62" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="61" t="n">
+      <c r="P1" s="62" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="61" t="n">
+      <c r="Q1" s="62" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="61" t="n">
+      <c r="R1" s="62" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="61" t="n">
+      <c r="S1" s="62" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="61" t="n">
+      <c r="T1" s="62" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="61" t="n">
+      <c r="U1" s="62" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="61" t="n">
+      <c r="V1" s="62" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="61" t="n">
+      <c r="W1" s="62" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="61" t="n">
+      <c r="X1" s="62" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="61" t="n">
+      <c r="Y1" s="62" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="61" t="n">
+      <c r="Z1" s="62" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="61" t="n">
+      <c r="AA1" s="62" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="61" t="n">
+      <c r="AB1" s="62" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="61" t="n">
+      <c r="AC1" s="62" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="61" t="n">
+      <c r="AD1" s="62" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="61" t="n">
+      <c r="AE1" s="62" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="61" t="n">
+      <c r="AF1" s="62" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="61" t="n">
+      <c r="AG1" s="62" t="n">
         <v>31</v>
       </c>
-      <c r="AH1" s="61" t="n">
+      <c r="AH1" s="62" t="n">
         <v>32</v>
       </c>
-      <c r="AI1" s="61" t="n">
+      <c r="AI1" s="62" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1" s="61" t="n">
+      <c r="AJ1" s="62" t="n">
         <v>34</v>
       </c>
-      <c r="AK1" s="61" t="n">
+      <c r="AK1" s="62" t="n">
         <v>35</v>
       </c>
-      <c r="AL1" s="61" t="n">
+      <c r="AL1" s="62" t="n">
         <v>36</v>
       </c>
-      <c r="AM1" s="61" t="n">
+      <c r="AM1" s="62" t="n">
         <v>37</v>
       </c>
-      <c r="AN1" s="61" t="n">
+      <c r="AN1" s="62" t="n">
         <v>38</v>
       </c>
-      <c r="AO1" s="61" t="n">
+      <c r="AO1" s="62" t="n">
         <v>39</v>
       </c>
-      <c r="AP1" s="61" t="n">
+      <c r="AP1" s="62" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1" s="61" t="n">
+      <c r="AQ1" s="62" t="n">
         <v>41</v>
       </c>
-      <c r="AR1" s="61" t="n">
+      <c r="AR1" s="62" t="n">
         <v>42</v>
       </c>
-      <c r="AS1" s="61" t="n">
+      <c r="AS1" s="62" t="n">
         <v>43</v>
       </c>
-      <c r="AT1" s="61" t="n">
+      <c r="AT1" s="62" t="n">
         <v>44</v>
       </c>
-      <c r="AU1" s="61" t="n">
+      <c r="AU1" s="62" t="n">
         <v>45</v>
       </c>
-      <c r="AV1" s="61" t="n">
+      <c r="AV1" s="62" t="n">
         <v>46</v>
       </c>
-      <c r="AW1" s="61" t="n">
+      <c r="AW1" s="62" t="n">
         <v>47</v>
       </c>
-      <c r="AX1" s="61" t="n">
+      <c r="AX1" s="62" t="n">
         <v>48</v>
       </c>
-      <c r="AY1" s="61" t="n">
+      <c r="AY1" s="62" t="n">
         <v>49</v>
       </c>
-      <c r="AZ1" s="61" t="n">
+      <c r="AZ1" s="62" t="n">
         <v>50</v>
       </c>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="60"/>
-      <c r="BN1" s="60"/>
-      <c r="BO1" s="60"/>
-      <c r="BP1" s="60"/>
-      <c r="BQ1" s="60"/>
-      <c r="BR1" s="60"/>
-      <c r="BS1" s="60"/>
-      <c r="BT1" s="60"/>
-      <c r="BU1" s="60"/>
-      <c r="BV1" s="60"/>
-      <c r="BW1" s="60"/>
-      <c r="BX1" s="60"/>
-      <c r="BY1" s="60"/>
-      <c r="BZ1" s="60"/>
-      <c r="CA1" s="60"/>
-      <c r="CB1" s="60"/>
-      <c r="CC1" s="60"/>
-      <c r="CD1" s="60"/>
-      <c r="CE1" s="60"/>
-      <c r="CF1" s="60"/>
-      <c r="CG1" s="60"/>
-      <c r="CH1" s="60"/>
-      <c r="CI1" s="60"/>
-      <c r="CJ1" s="60"/>
-      <c r="CK1" s="60"/>
-      <c r="CL1" s="60"/>
-      <c r="CM1" s="60"/>
-      <c r="CN1" s="60"/>
-      <c r="CO1" s="60"/>
-      <c r="CP1" s="60"/>
-      <c r="CQ1" s="60"/>
-      <c r="CR1" s="60"/>
-      <c r="CS1" s="60"/>
-      <c r="CT1" s="60"/>
-      <c r="CU1" s="60"/>
-      <c r="CV1" s="60"/>
-      <c r="CW1" s="60"/>
-      <c r="CX1" s="60"/>
-      <c r="CY1" s="60"/>
-      <c r="CZ1" s="60"/>
-      <c r="DA1" s="60"/>
-      <c r="DB1" s="60"/>
-      <c r="DC1" s="60"/>
-      <c r="DD1" s="60"/>
-      <c r="DE1" s="60"/>
-      <c r="DF1" s="60"/>
-      <c r="DG1" s="60"/>
-      <c r="DH1" s="60"/>
-      <c r="DI1" s="60"/>
-      <c r="DJ1" s="60"/>
-      <c r="DK1" s="60"/>
-      <c r="DL1" s="60"/>
-      <c r="DM1" s="60"/>
-      <c r="DN1" s="60"/>
-      <c r="DO1" s="60"/>
-      <c r="DP1" s="60"/>
-      <c r="DQ1" s="60"/>
-      <c r="DR1" s="60"/>
-      <c r="DS1" s="60"/>
-      <c r="DT1" s="60"/>
-      <c r="DU1" s="60"/>
-      <c r="DV1" s="60"/>
-      <c r="DW1" s="60"/>
-      <c r="DX1" s="60"/>
-      <c r="DY1" s="60"/>
-      <c r="DZ1" s="60"/>
-      <c r="EA1" s="60"/>
-      <c r="EB1" s="60"/>
-      <c r="EC1" s="60"/>
-      <c r="ED1" s="60"/>
-      <c r="EE1" s="60"/>
-      <c r="EF1" s="60"/>
-      <c r="EG1" s="60"/>
-      <c r="EH1" s="60"/>
-      <c r="EI1" s="60"/>
-      <c r="EJ1" s="60"/>
-      <c r="EK1" s="60"/>
-      <c r="EL1" s="60"/>
-      <c r="EM1" s="60"/>
-      <c r="EN1" s="60"/>
-      <c r="EO1" s="60"/>
-      <c r="EP1" s="60"/>
-      <c r="EQ1" s="60"/>
-      <c r="ER1" s="60"/>
-      <c r="ES1" s="60"/>
-      <c r="ET1" s="60"/>
-      <c r="EU1" s="60"/>
-      <c r="EV1" s="60"/>
-      <c r="EW1" s="60"/>
-      <c r="EX1" s="60"/>
-      <c r="EY1" s="60"/>
-      <c r="EZ1" s="60"/>
-      <c r="FA1" s="60"/>
-      <c r="FB1" s="60"/>
-      <c r="FC1" s="60"/>
-      <c r="FD1" s="60"/>
-      <c r="FE1" s="60"/>
-      <c r="FF1" s="60"/>
-      <c r="FG1" s="60"/>
-      <c r="FH1" s="60"/>
-      <c r="FI1" s="60"/>
-      <c r="FJ1" s="60"/>
-      <c r="FK1" s="60"/>
-      <c r="FL1" s="60"/>
-      <c r="FM1" s="60"/>
-      <c r="FN1" s="60"/>
-      <c r="FO1" s="60"/>
-      <c r="FP1" s="60"/>
-      <c r="FQ1" s="60"/>
-      <c r="FR1" s="60"/>
-      <c r="FS1" s="60"/>
-      <c r="FT1" s="60"/>
-      <c r="FU1" s="60"/>
-      <c r="FV1" s="60"/>
-      <c r="FW1" s="60"/>
-      <c r="FX1" s="60"/>
-      <c r="FY1" s="60"/>
-      <c r="FZ1" s="60"/>
-      <c r="GA1" s="60"/>
-      <c r="GB1" s="60"/>
-      <c r="GC1" s="60"/>
-      <c r="GD1" s="60"/>
-      <c r="GE1" s="60"/>
-      <c r="GF1" s="60"/>
-      <c r="GG1" s="60"/>
-      <c r="GH1" s="60"/>
-      <c r="GI1" s="60"/>
-      <c r="GJ1" s="60"/>
-      <c r="GK1" s="60"/>
-      <c r="GL1" s="60"/>
-      <c r="GM1" s="60"/>
-      <c r="GN1" s="60"/>
-      <c r="GO1" s="60"/>
-      <c r="GP1" s="60"/>
-      <c r="GQ1" s="60"/>
-      <c r="GR1" s="60"/>
-      <c r="GS1" s="60"/>
-      <c r="GT1" s="60"/>
-      <c r="GU1" s="60"/>
-      <c r="GV1" s="60"/>
-      <c r="GW1" s="60"/>
-      <c r="GX1" s="60"/>
-      <c r="GY1" s="60"/>
-      <c r="GZ1" s="60"/>
-      <c r="HA1" s="60"/>
-      <c r="HB1" s="60"/>
-      <c r="HC1" s="60"/>
-      <c r="HD1" s="60"/>
-      <c r="HE1" s="60"/>
-      <c r="HF1" s="60"/>
-      <c r="HG1" s="60"/>
-      <c r="HH1" s="60"/>
-      <c r="HI1" s="60"/>
-      <c r="HJ1" s="60"/>
-      <c r="HK1" s="60"/>
-      <c r="HL1" s="60"/>
-      <c r="HM1" s="60"/>
-      <c r="HN1" s="60"/>
-      <c r="HO1" s="60"/>
-      <c r="HP1" s="60"/>
-      <c r="HQ1" s="60"/>
-      <c r="HR1" s="60"/>
-      <c r="HS1" s="60"/>
-      <c r="HT1" s="60"/>
-      <c r="HU1" s="60"/>
-      <c r="HV1" s="60"/>
-      <c r="HW1" s="60"/>
-      <c r="HX1" s="60"/>
-      <c r="HY1" s="60"/>
-      <c r="HZ1" s="60"/>
-      <c r="IA1" s="60"/>
-      <c r="IB1" s="60"/>
-      <c r="IC1" s="60"/>
-      <c r="ID1" s="60"/>
-      <c r="IE1" s="60"/>
-      <c r="IF1" s="60"/>
-      <c r="IG1" s="60"/>
-      <c r="IH1" s="60"/>
-      <c r="II1" s="60"/>
-      <c r="IJ1" s="60"/>
-      <c r="IK1" s="60"/>
-      <c r="IL1" s="60"/>
-      <c r="IM1" s="60"/>
-      <c r="IN1" s="60"/>
-      <c r="IO1" s="60"/>
-      <c r="IP1" s="60"/>
-      <c r="IQ1" s="60"/>
-      <c r="IR1" s="60"/>
-      <c r="IS1" s="60"/>
-      <c r="IT1" s="60"/>
-      <c r="IU1" s="60"/>
-      <c r="IV1" s="60"/>
-      <c r="IW1" s="60"/>
-      <c r="IX1" s="60"/>
-      <c r="IY1" s="60"/>
-      <c r="IZ1" s="60"/>
-      <c r="JA1" s="60"/>
-      <c r="JB1" s="60"/>
-      <c r="JC1" s="60"/>
-      <c r="JD1" s="60"/>
-      <c r="JE1" s="60"/>
-      <c r="JF1" s="60"/>
-      <c r="JG1" s="60"/>
-      <c r="JH1" s="60"/>
-      <c r="JI1" s="60"/>
-      <c r="JJ1" s="60"/>
-      <c r="JK1" s="60"/>
-      <c r="JL1" s="60"/>
-      <c r="JM1" s="60"/>
-      <c r="JN1" s="60"/>
-      <c r="JO1" s="60"/>
-      <c r="JP1" s="60"/>
-      <c r="JQ1" s="60"/>
-      <c r="JR1" s="60"/>
-      <c r="JS1" s="60"/>
-      <c r="JT1" s="60"/>
-      <c r="JU1" s="60"/>
-      <c r="JV1" s="60"/>
-      <c r="JW1" s="60"/>
-      <c r="JX1" s="60"/>
-      <c r="JY1" s="60"/>
-      <c r="JZ1" s="60"/>
-      <c r="KA1" s="60"/>
-      <c r="KB1" s="60"/>
-      <c r="KC1" s="60"/>
-      <c r="KD1" s="60"/>
-      <c r="KE1" s="60"/>
-      <c r="KF1" s="60"/>
-      <c r="KG1" s="60"/>
-      <c r="KH1" s="60"/>
-      <c r="KI1" s="60"/>
-      <c r="KJ1" s="60"/>
-      <c r="KK1" s="60"/>
-      <c r="KL1" s="60"/>
-      <c r="KM1" s="60"/>
-      <c r="KN1" s="60"/>
-      <c r="KO1" s="60"/>
-      <c r="KP1" s="60"/>
-      <c r="KQ1" s="60"/>
-      <c r="KR1" s="60"/>
-      <c r="KS1" s="60"/>
-      <c r="KT1" s="60"/>
-      <c r="KU1" s="60"/>
-      <c r="KV1" s="60"/>
-      <c r="KW1" s="60"/>
-      <c r="KX1" s="60"/>
-      <c r="KY1" s="60"/>
-      <c r="KZ1" s="60"/>
-      <c r="LA1" s="60"/>
-      <c r="LB1" s="60"/>
-      <c r="LC1" s="60"/>
-      <c r="LD1" s="60"/>
-      <c r="LE1" s="60"/>
-      <c r="LF1" s="60"/>
-      <c r="LG1" s="60"/>
-      <c r="LH1" s="60"/>
-      <c r="LI1" s="60"/>
-      <c r="LJ1" s="60"/>
-      <c r="LK1" s="60"/>
-      <c r="LL1" s="60"/>
-      <c r="LM1" s="60"/>
-      <c r="LN1" s="60"/>
-      <c r="LO1" s="60"/>
-      <c r="LP1" s="60"/>
-      <c r="LQ1" s="60"/>
-      <c r="LR1" s="60"/>
-      <c r="LS1" s="60"/>
-      <c r="LT1" s="60"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
+      <c r="BT1" s="61"/>
+      <c r="BU1" s="61"/>
+      <c r="BV1" s="61"/>
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="61"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="61"/>
+      <c r="CC1" s="61"/>
+      <c r="CD1" s="61"/>
+      <c r="CE1" s="61"/>
+      <c r="CF1" s="61"/>
+      <c r="CG1" s="61"/>
+      <c r="CH1" s="61"/>
+      <c r="CI1" s="61"/>
+      <c r="CJ1" s="61"/>
+      <c r="CK1" s="61"/>
+      <c r="CL1" s="61"/>
+      <c r="CM1" s="61"/>
+      <c r="CN1" s="61"/>
+      <c r="CO1" s="61"/>
+      <c r="CP1" s="61"/>
+      <c r="CQ1" s="61"/>
+      <c r="CR1" s="61"/>
+      <c r="CS1" s="61"/>
+      <c r="CT1" s="61"/>
+      <c r="CU1" s="61"/>
+      <c r="CV1" s="61"/>
+      <c r="CW1" s="61"/>
+      <c r="CX1" s="61"/>
+      <c r="CY1" s="61"/>
+      <c r="CZ1" s="61"/>
+      <c r="DA1" s="61"/>
+      <c r="DB1" s="61"/>
+      <c r="DC1" s="61"/>
+      <c r="DD1" s="61"/>
+      <c r="DE1" s="61"/>
+      <c r="DF1" s="61"/>
+      <c r="DG1" s="61"/>
+      <c r="DH1" s="61"/>
+      <c r="DI1" s="61"/>
+      <c r="DJ1" s="61"/>
+      <c r="DK1" s="61"/>
+      <c r="DL1" s="61"/>
+      <c r="DM1" s="61"/>
+      <c r="DN1" s="61"/>
+      <c r="DO1" s="61"/>
+      <c r="DP1" s="61"/>
+      <c r="DQ1" s="61"/>
+      <c r="DR1" s="61"/>
+      <c r="DS1" s="61"/>
+      <c r="DT1" s="61"/>
+      <c r="DU1" s="61"/>
+      <c r="DV1" s="61"/>
+      <c r="DW1" s="61"/>
+      <c r="DX1" s="61"/>
+      <c r="DY1" s="61"/>
+      <c r="DZ1" s="61"/>
+      <c r="EA1" s="61"/>
+      <c r="EB1" s="61"/>
+      <c r="EC1" s="61"/>
+      <c r="ED1" s="61"/>
+      <c r="EE1" s="61"/>
+      <c r="EF1" s="61"/>
+      <c r="EG1" s="61"/>
+      <c r="EH1" s="61"/>
+      <c r="EI1" s="61"/>
+      <c r="EJ1" s="61"/>
+      <c r="EK1" s="61"/>
+      <c r="EL1" s="61"/>
+      <c r="EM1" s="61"/>
+      <c r="EN1" s="61"/>
+      <c r="EO1" s="61"/>
+      <c r="EP1" s="61"/>
+      <c r="EQ1" s="61"/>
+      <c r="ER1" s="61"/>
+      <c r="ES1" s="61"/>
+      <c r="ET1" s="61"/>
+      <c r="EU1" s="61"/>
+      <c r="EV1" s="61"/>
+      <c r="EW1" s="61"/>
+      <c r="EX1" s="61"/>
+      <c r="EY1" s="61"/>
+      <c r="EZ1" s="61"/>
+      <c r="FA1" s="61"/>
+      <c r="FB1" s="61"/>
+      <c r="FC1" s="61"/>
+      <c r="FD1" s="61"/>
+      <c r="FE1" s="61"/>
+      <c r="FF1" s="61"/>
+      <c r="FG1" s="61"/>
+      <c r="FH1" s="61"/>
+      <c r="FI1" s="61"/>
+      <c r="FJ1" s="61"/>
+      <c r="FK1" s="61"/>
+      <c r="FL1" s="61"/>
+      <c r="FM1" s="61"/>
+      <c r="FN1" s="61"/>
+      <c r="FO1" s="61"/>
+      <c r="FP1" s="61"/>
+      <c r="FQ1" s="61"/>
+      <c r="FR1" s="61"/>
+      <c r="FS1" s="61"/>
+      <c r="FT1" s="61"/>
+      <c r="FU1" s="61"/>
+      <c r="FV1" s="61"/>
+      <c r="FW1" s="61"/>
+      <c r="FX1" s="61"/>
+      <c r="FY1" s="61"/>
+      <c r="FZ1" s="61"/>
+      <c r="GA1" s="61"/>
+      <c r="GB1" s="61"/>
+      <c r="GC1" s="61"/>
+      <c r="GD1" s="61"/>
+      <c r="GE1" s="61"/>
+      <c r="GF1" s="61"/>
+      <c r="GG1" s="61"/>
+      <c r="GH1" s="61"/>
+      <c r="GI1" s="61"/>
+      <c r="GJ1" s="61"/>
+      <c r="GK1" s="61"/>
+      <c r="GL1" s="61"/>
+      <c r="GM1" s="61"/>
+      <c r="GN1" s="61"/>
+      <c r="GO1" s="61"/>
+      <c r="GP1" s="61"/>
+      <c r="GQ1" s="61"/>
+      <c r="GR1" s="61"/>
+      <c r="GS1" s="61"/>
+      <c r="GT1" s="61"/>
+      <c r="GU1" s="61"/>
+      <c r="GV1" s="61"/>
+      <c r="GW1" s="61"/>
+      <c r="GX1" s="61"/>
+      <c r="GY1" s="61"/>
+      <c r="GZ1" s="61"/>
+      <c r="HA1" s="61"/>
+      <c r="HB1" s="61"/>
+      <c r="HC1" s="61"/>
+      <c r="HD1" s="61"/>
+      <c r="HE1" s="61"/>
+      <c r="HF1" s="61"/>
+      <c r="HG1" s="61"/>
+      <c r="HH1" s="61"/>
+      <c r="HI1" s="61"/>
+      <c r="HJ1" s="61"/>
+      <c r="HK1" s="61"/>
+      <c r="HL1" s="61"/>
+      <c r="HM1" s="61"/>
+      <c r="HN1" s="61"/>
+      <c r="HO1" s="61"/>
+      <c r="HP1" s="61"/>
+      <c r="HQ1" s="61"/>
+      <c r="HR1" s="61"/>
+      <c r="HS1" s="61"/>
+      <c r="HT1" s="61"/>
+      <c r="HU1" s="61"/>
+      <c r="HV1" s="61"/>
+      <c r="HW1" s="61"/>
+      <c r="HX1" s="61"/>
+      <c r="HY1" s="61"/>
+      <c r="HZ1" s="61"/>
+      <c r="IA1" s="61"/>
+      <c r="IB1" s="61"/>
+      <c r="IC1" s="61"/>
+      <c r="ID1" s="61"/>
+      <c r="IE1" s="61"/>
+      <c r="IF1" s="61"/>
+      <c r="IG1" s="61"/>
+      <c r="IH1" s="61"/>
+      <c r="II1" s="61"/>
+      <c r="IJ1" s="61"/>
+      <c r="IK1" s="61"/>
+      <c r="IL1" s="61"/>
+      <c r="IM1" s="61"/>
+      <c r="IN1" s="61"/>
+      <c r="IO1" s="61"/>
+      <c r="IP1" s="61"/>
+      <c r="IQ1" s="61"/>
+      <c r="IR1" s="61"/>
+      <c r="IS1" s="61"/>
+      <c r="IT1" s="61"/>
+      <c r="IU1" s="61"/>
+      <c r="IV1" s="61"/>
+      <c r="IW1" s="61"/>
+      <c r="IX1" s="61"/>
+      <c r="IY1" s="61"/>
+      <c r="IZ1" s="61"/>
+      <c r="JA1" s="61"/>
+      <c r="JB1" s="61"/>
+      <c r="JC1" s="61"/>
+      <c r="JD1" s="61"/>
+      <c r="JE1" s="61"/>
+      <c r="JF1" s="61"/>
+      <c r="JG1" s="61"/>
+      <c r="JH1" s="61"/>
+      <c r="JI1" s="61"/>
+      <c r="JJ1" s="61"/>
+      <c r="JK1" s="61"/>
+      <c r="JL1" s="61"/>
+      <c r="JM1" s="61"/>
+      <c r="JN1" s="61"/>
+      <c r="JO1" s="61"/>
+      <c r="JP1" s="61"/>
+      <c r="JQ1" s="61"/>
+      <c r="JR1" s="61"/>
+      <c r="JS1" s="61"/>
+      <c r="JT1" s="61"/>
+      <c r="JU1" s="61"/>
+      <c r="JV1" s="61"/>
+      <c r="JW1" s="61"/>
+      <c r="JX1" s="61"/>
+      <c r="JY1" s="61"/>
+      <c r="JZ1" s="61"/>
+      <c r="KA1" s="61"/>
+      <c r="KB1" s="61"/>
+      <c r="KC1" s="61"/>
+      <c r="KD1" s="61"/>
+      <c r="KE1" s="61"/>
+      <c r="KF1" s="61"/>
+      <c r="KG1" s="61"/>
+      <c r="KH1" s="61"/>
+      <c r="KI1" s="61"/>
+      <c r="KJ1" s="61"/>
+      <c r="KK1" s="61"/>
+      <c r="KL1" s="61"/>
+      <c r="KM1" s="61"/>
+      <c r="KN1" s="61"/>
+      <c r="KO1" s="61"/>
+      <c r="KP1" s="61"/>
+      <c r="KQ1" s="61"/>
+      <c r="KR1" s="61"/>
+      <c r="KS1" s="61"/>
+      <c r="KT1" s="61"/>
+      <c r="KU1" s="61"/>
+      <c r="KV1" s="61"/>
+      <c r="KW1" s="61"/>
+      <c r="KX1" s="61"/>
+      <c r="KY1" s="61"/>
+      <c r="KZ1" s="61"/>
+      <c r="LA1" s="61"/>
+      <c r="LB1" s="61"/>
+      <c r="LC1" s="61"/>
+      <c r="LD1" s="61"/>
+      <c r="LE1" s="61"/>
+      <c r="LF1" s="61"/>
+      <c r="LG1" s="61"/>
+      <c r="LH1" s="61"/>
+      <c r="LI1" s="61"/>
+      <c r="LJ1" s="61"/>
+      <c r="LK1" s="61"/>
+      <c r="LL1" s="61"/>
+      <c r="LM1" s="61"/>
+      <c r="LN1" s="61"/>
+      <c r="LO1" s="61"/>
+      <c r="LP1" s="61"/>
+      <c r="LQ1" s="61"/>
+      <c r="LR1" s="61"/>
+      <c r="LS1" s="61"/>
+      <c r="LT1" s="61"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="62" t="n">
+        <v>115</v>
+      </c>
+      <c r="B2" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="n">
+      <c r="C2" s="63" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="62" t="n">
+      <c r="D2" s="63" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="62" t="n">
+      <c r="E2" s="63" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="62" t="n">
+      <c r="F2" s="63" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="62" t="n">
+      <c r="G2" s="63" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="62" t="n">
+      <c r="H2" s="63" t="n">
         <v>0.12</v>
       </c>
-      <c r="I2" s="62" t="n">
+      <c r="I2" s="63" t="n">
         <v>0.14</v>
       </c>
-      <c r="J2" s="62" t="n">
+      <c r="J2" s="63" t="n">
         <v>0.16</v>
       </c>
-      <c r="K2" s="62" t="n">
+      <c r="K2" s="63" t="n">
         <v>0.18</v>
       </c>
-      <c r="L2" s="62" t="n">
+      <c r="L2" s="63" t="n">
         <v>0.2</v>
       </c>
-      <c r="M2" s="62" t="n">
+      <c r="M2" s="63" t="n">
         <v>0.22</v>
       </c>
-      <c r="N2" s="62" t="n">
+      <c r="N2" s="63" t="n">
         <v>0.24</v>
       </c>
-      <c r="O2" s="62" t="n">
+      <c r="O2" s="63" t="n">
         <v>0.26</v>
       </c>
-      <c r="P2" s="62" t="n">
+      <c r="P2" s="63" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q2" s="62" t="n">
+      <c r="Q2" s="63" t="n">
         <v>0.3</v>
       </c>
-      <c r="R2" s="62" t="n">
+      <c r="R2" s="63" t="n">
         <v>0.32</v>
       </c>
-      <c r="S2" s="62" t="n">
+      <c r="S2" s="63" t="n">
         <v>0.34</v>
       </c>
-      <c r="T2" s="62" t="n">
+      <c r="T2" s="63" t="n">
         <v>0.36</v>
       </c>
-      <c r="U2" s="62" t="n">
+      <c r="U2" s="63" t="n">
         <v>0.38</v>
       </c>
-      <c r="V2" s="62" t="n">
+      <c r="V2" s="63" t="n">
         <v>0.4</v>
       </c>
-      <c r="W2" s="62" t="n">
+      <c r="W2" s="63" t="n">
         <v>0.42</v>
       </c>
-      <c r="X2" s="62" t="n">
+      <c r="X2" s="63" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y2" s="62" t="n">
+      <c r="Y2" s="63" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z2" s="62" t="n">
+      <c r="Z2" s="63" t="n">
         <v>0.48</v>
       </c>
-      <c r="AA2" s="62" t="n">
+      <c r="AA2" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="62" t="n">
+      <c r="AB2" s="63" t="n">
         <v>0.52</v>
       </c>
-      <c r="AC2" s="62" t="n">
+      <c r="AC2" s="63" t="n">
         <v>0.54</v>
       </c>
-      <c r="AD2" s="62" t="n">
+      <c r="AD2" s="63" t="n">
         <v>0.56</v>
       </c>
-      <c r="AE2" s="62" t="n">
+      <c r="AE2" s="63" t="n">
         <v>0.58</v>
       </c>
-      <c r="AF2" s="62" t="n">
+      <c r="AF2" s="63" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG2" s="62" t="n">
+      <c r="AG2" s="63" t="n">
         <v>0.62</v>
       </c>
-      <c r="AH2" s="62" t="n">
+      <c r="AH2" s="63" t="n">
         <v>0.64</v>
       </c>
-      <c r="AI2" s="62" t="n">
+      <c r="AI2" s="63" t="n">
         <v>0.66</v>
       </c>
-      <c r="AJ2" s="62" t="n">
+      <c r="AJ2" s="63" t="n">
         <v>0.68</v>
       </c>
-      <c r="AK2" s="62" t="n">
+      <c r="AK2" s="63" t="n">
         <v>0.7</v>
       </c>
-      <c r="AL2" s="62" t="n">
+      <c r="AL2" s="63" t="n">
         <v>0.72</v>
       </c>
-      <c r="AM2" s="62" t="n">
+      <c r="AM2" s="63" t="n">
         <v>0.74</v>
       </c>
-      <c r="AN2" s="62" t="n">
+      <c r="AN2" s="63" t="n">
         <v>0.76</v>
       </c>
-      <c r="AO2" s="62" t="n">
+      <c r="AO2" s="63" t="n">
         <v>0.78</v>
       </c>
-      <c r="AP2" s="62" t="n">
+      <c r="AP2" s="63" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ2" s="62" t="n">
+      <c r="AQ2" s="63" t="n">
         <v>0.82</v>
       </c>
-      <c r="AR2" s="62" t="n">
+      <c r="AR2" s="63" t="n">
         <v>0.84</v>
       </c>
-      <c r="AS2" s="62" t="n">
+      <c r="AS2" s="63" t="n">
         <v>0.86</v>
       </c>
-      <c r="AT2" s="62" t="n">
+      <c r="AT2" s="63" t="n">
         <v>0.88</v>
       </c>
-      <c r="AU2" s="62" t="n">
+      <c r="AU2" s="63" t="n">
         <v>0.9</v>
       </c>
-      <c r="AV2" s="62" t="n">
+      <c r="AV2" s="63" t="n">
         <v>0.92</v>
       </c>
-      <c r="AW2" s="62" t="n">
+      <c r="AW2" s="63" t="n">
         <v>0.94</v>
       </c>
-      <c r="AX2" s="62" t="n">
+      <c r="AX2" s="63" t="n">
         <v>0.96</v>
       </c>
-      <c r="AY2" s="62" t="n">
+      <c r="AY2" s="63" t="n">
         <v>0.98</v>
       </c>
-      <c r="AZ2" s="62" t="n">
+      <c r="AZ2" s="63" t="n">
         <v>1</v>
       </c>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="63"/>
+      <c r="BE2" s="63"/>
+      <c r="BF2" s="63"/>
+      <c r="BG2" s="63"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -9905,17 +9963,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -10080,7 +10138,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -10238,160 +10296,160 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -10403,160 +10461,160 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -10568,7 +10626,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -10726,172 +10784,172 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="48" t="n">
+        <v>126</v>
+      </c>
+      <c r="B12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="C12" s="48" t="n">
+      <c r="C12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="D12" s="48" t="n">
+      <c r="D12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="E12" s="48" t="n">
+      <c r="E12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="G12" s="48" t="n">
+      <c r="G12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="H12" s="48" t="n">
+      <c r="H12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="I12" s="48" t="n">
+      <c r="I12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="J12" s="48" t="n">
+      <c r="J12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="K12" s="48" t="n">
+      <c r="K12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="L12" s="48" t="n">
+      <c r="L12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="M12" s="48" t="n">
+      <c r="M12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="N12" s="48" t="n">
+      <c r="N12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="O12" s="48" t="n">
+      <c r="O12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="P12" s="48" t="n">
+      <c r="P12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Q12" s="48" t="n">
+      <c r="Q12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="R12" s="48" t="n">
+      <c r="R12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="S12" s="48" t="n">
+      <c r="S12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="T12" s="48" t="n">
+      <c r="T12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="U12" s="48" t="n">
+      <c r="U12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="V12" s="48" t="n">
+      <c r="V12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="W12" s="48" t="n">
+      <c r="W12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="X12" s="48" t="n">
+      <c r="X12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Y12" s="48" t="n">
+      <c r="Y12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Z12" s="48" t="n">
+      <c r="Z12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AA12" s="48" t="n">
+      <c r="AA12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AB12" s="48" t="n">
+      <c r="AB12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AC12" s="48" t="n">
+      <c r="AC12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AD12" s="48" t="n">
+      <c r="AD12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AE12" s="48" t="n">
+      <c r="AE12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AF12" s="48" t="n">
+      <c r="AF12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AG12" s="48" t="n">
+      <c r="AG12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AH12" s="48" t="n">
+      <c r="AH12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AI12" s="48" t="n">
+      <c r="AI12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AJ12" s="48" t="n">
+      <c r="AJ12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AK12" s="48" t="n">
+      <c r="AK12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AL12" s="48" t="n">
+      <c r="AL12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AM12" s="48" t="n">
+      <c r="AM12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AN12" s="48" t="n">
+      <c r="AN12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AO12" s="48" t="n">
+      <c r="AO12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AP12" s="48" t="n">
+      <c r="AP12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AQ12" s="48" t="n">
+      <c r="AQ12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AR12" s="48" t="n">
+      <c r="AR12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AS12" s="48" t="n">
+      <c r="AS12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AT12" s="48" t="n">
+      <c r="AT12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AU12" s="48" t="n">
+      <c r="AU12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AV12" s="48" t="n">
+      <c r="AV12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AW12" s="48" t="n">
+      <c r="AW12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AX12" s="48" t="n">
+      <c r="AX12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AY12" s="48" t="n">
+      <c r="AY12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AZ12" s="48" t="n">
+      <c r="AZ12" s="49" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="49"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -11049,7 +11107,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -11207,7 +11265,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -11365,7 +11423,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -11523,7 +11581,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -11681,7 +11739,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0">
+    <comment ref="A60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
   <si>
     <t>Sim</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>OptimMaxiter</t>
+  </si>
+  <si>
+    <t>minflux</t>
   </si>
   <si>
     <t>maxIter</t>
@@ -1357,12 +1360,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1953,17 +1956,21 @@
       <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="F56" s="40"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -1971,7 +1978,7 @@
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="41"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -1979,7 +1986,7 @@
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="42"/>
+      <c r="F58" s="41"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -1987,7 +1994,7 @@
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -1995,37 +2002,45 @@
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="28"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4"/>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="E62" s="43"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="E63" s="43"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2320,7 +2335,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2579,7 +2594,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="46" t="n">
         <v>0</v>
@@ -2838,7 +2853,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="46" t="n">
         <v>0</v>
@@ -3097,7 +3112,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3356,7 +3371,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="46" t="n">
         <v>90</v>
@@ -3615,7 +3630,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>9</v>
@@ -3874,7 +3889,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4133,7 +4148,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>250</v>
@@ -4392,7 +4407,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -4647,7 +4662,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4902,7 +4917,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="0"/>
@@ -5157,7 +5172,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5416,7 +5431,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>-1</v>
@@ -5675,7 +5690,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="54"/>
@@ -5930,7 +5945,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="54"/>
@@ -6185,7 +6200,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
@@ -6440,7 +6455,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6948,7 +6963,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="58"/>
@@ -7203,7 +7218,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="58"/>
@@ -7458,7 +7473,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7713,7 +7728,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7968,7 +7983,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8482,7 +8497,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8741,7 +8756,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -9005,7 +9020,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9016,7 +9031,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9027,7 +9042,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9038,7 +9053,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9049,7 +9064,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9061,7 +9076,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="59" t="n">
         <v>65.1186367</v>
@@ -9072,7 +9087,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="59" t="n">
         <v>-147.432975</v>
@@ -9088,7 +9103,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9099,7 +9114,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9110,24 +9125,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9137,7 +9152,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -9150,7 +9165,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="44" t="n">
         <v>1</v>
@@ -9161,7 +9176,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="44" t="n">
         <v>1</v>
@@ -9190,9 +9205,9 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -9640,7 +9655,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="63" t="n">
         <v>0</v>
@@ -9805,7 +9820,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -9963,17 +9978,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -10138,7 +10153,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -10296,160 +10311,160 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -10461,160 +10476,160 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -10626,7 +10641,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -10784,7 +10799,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" s="49" t="n">
         <v>2800000000000</v>
@@ -10949,7 +10964,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -11107,7 +11122,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -11265,7 +11280,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -11423,7 +11438,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -11581,7 +11596,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -11739,7 +11754,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Cameras" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Arcs" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Arc0" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="Excel_BuiltIn_Print_Area" vbProcedure="false">NA()</definedName>
@@ -1362,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="38"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -2064,7 +2064,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3377,7 +3377,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="46" t="n">
-        <v>88.3</v>
+        <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
@@ -5688,7 +5688,7 @@
       <c r="IP14" s="0"/>
       <c r="IQ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
         <v>88</v>
       </c>
@@ -9205,9 +9205,9 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -102,10 +101,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -118,7 +115,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -132,10 +128,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -148,10 +142,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -167,7 +159,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -204,7 +195,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -219,7 +209,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -236,7 +225,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -250,7 +238,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -287,7 +274,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -304,7 +290,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -364,25 +349,25 @@
     <t>BG3transFN</t>
   </si>
   <si>
-    <t>transcarutils/precompute/BG3transmittance.h5</t>
+    <t>precompute/BG3transmittance.h5</t>
   </si>
   <si>
     <t>windowFN</t>
   </si>
   <si>
-    <t>transcarutils/precompute/ixonWindowT.h5</t>
+    <t>precompute/ixonWindowT.h5</t>
   </si>
   <si>
     <t>emccdQEfn</t>
   </si>
   <si>
-    <t>transcarutils/precompute/emccdQE.h5</t>
+    <t>precompute/emccdQE.h5</t>
   </si>
   <si>
     <t>TranscarDataDir</t>
   </si>
   <si>
-    <t>../transcar/out/ifort2</t>
+    <t>test/data</t>
   </si>
   <si>
     <t>ExcitationDATfn</t>
@@ -415,19 +400,19 @@
     <t>BeamEnergyFN</t>
   </si>
   <si>
-    <t>../transcar/dir.transcar.server/BT_E1E2prev.csv</t>
+    <t>test/data/BT_E1E2prev.csv</t>
   </si>
   <si>
     <t>reactionParam</t>
   </si>
   <si>
-    <t>transcarutils/precompute/vjeinfc.h5</t>
+    <t>precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
   </si>
   <si>
-    <t>../transcar/dir.transcar.server/dir.input/conttanh.dat</t>
+    <t>test/data/conttanh.dat</t>
   </si>
   <si>
     <t>downsampleEnergy</t>
@@ -736,7 +721,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -789,14 +774,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1025,7 +1002,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1070,10 +1047,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1090,7 +1063,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1098,11 +1071,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1110,11 +1083,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,7 +1103,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1206,11 +1179,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1234,7 +1207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1274,7 +1247,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1362,23 +1335,23 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.91836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,13 +1451,13 @@
       <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
     </row>
@@ -1493,9 +1466,9 @@
         <v>21</v>
       </c>
       <c r="B10" s="0"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
       <c r="G10" s="0"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1506,7 +1479,7 @@
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
       <c r="G11" s="0"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1519,7 +1492,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="G12" s="0"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -1528,7 +1501,7 @@
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
       <c r="G13" s="0"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1559,7 +1532,7 @@
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
       <c r="G16" s="0"/>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1570,7 +1543,7 @@
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
       <c r="G17" s="0"/>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1581,15 +1554,15 @@
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7"/>
       <c r="G19" s="0"/>
       <c r="H19" s="1" t="n">
@@ -1597,17 +1570,17 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="7"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="19" t="n">
+      <c r="B21" s="18" t="n">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
@@ -1615,10 +1588,10 @@
       <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="19" t="n">
+      <c r="B22" s="18" t="n">
         <v>1200</v>
       </c>
       <c r="C22" s="7"/>
@@ -1632,10 +1605,10 @@
       <c r="H23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="7"/>
       <c r="G24" s="0"/>
       <c r="H24" s="1" t="s">
@@ -1646,7 +1619,7 @@
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0" t="n">
@@ -1657,7 +1630,7 @@
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="7"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0" t="n">
@@ -1668,7 +1641,7 @@
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0" t="n">
@@ -1679,7 +1652,7 @@
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="7"/>
       <c r="G28" s="0"/>
       <c r="H28" s="0" t="n">
@@ -1690,7 +1663,7 @@
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="7"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0" t="n">
@@ -1701,7 +1674,7 @@
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="7"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0" t="n">
@@ -1710,7 +1683,7 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="22"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
@@ -1719,10 +1692,10 @@
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="7"/>
       <c r="G32" s="0"/>
-      <c r="H32" s="23" t="n">
+      <c r="H32" s="22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1733,7 +1706,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="G33" s="0"/>
-      <c r="H33" s="24"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
@@ -1743,24 +1716,24 @@
       <c r="H34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="26" t="n">
+      <c r="B35" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="25"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="22" t="n">
+      <c r="B36" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
     </row>
@@ -1772,12 +1745,12 @@
       <c r="H37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="0"/>
@@ -1794,7 +1767,7 @@
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="G40" s="29"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,106 +1776,106 @@
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="0"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="12"/>
       <c r="G43" s="0"/>
-      <c r="H43" s="15" t="n">
+      <c r="H43" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="32" t="n">
+      <c r="D44" s="31" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="33"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="5"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="5"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="34" t="n">
+      <c r="D46" s="33" t="n">
         <v>-10</v>
       </c>
-      <c r="E46" s="35"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="5"/>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="34" t="n">
+      <c r="D47" s="33" t="n">
         <v>10</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="13"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="0"/>
       <c r="H47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="34" t="n">
+      <c r="D48" s="33" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="13"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="0"/>
       <c r="H48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="35" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="13"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
     </row>
@@ -1912,7 +1885,7 @@
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
@@ -1921,8 +1894,8 @@
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
@@ -1930,18 +1903,18 @@
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -1953,7 +1926,7 @@
       <c r="E54" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -1965,12 +1938,12 @@
       <c r="E55" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -1978,7 +1951,7 @@
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="40"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -1986,7 +1959,7 @@
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="41"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -1994,7 +1967,7 @@
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="42"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -2002,7 +1975,7 @@
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="41"/>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -2010,7 +1983,7 @@
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="28"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
@@ -2024,7 +1997,7 @@
       </c>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="E63" s="43"/>
+      <c r="E63" s="42"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,7 +2005,7 @@
       <c r="C64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2069,19 +2042,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="43" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="43" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="45" t="n">
+      <c r="B1" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="n">
+      <c r="C1" s="44" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2593,13 +2565,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="45" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2852,13 +2824,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="45" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3111,7 +3083,7 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="4" t="n">
@@ -3370,13 +3342,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="45" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="45" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
@@ -3629,13 +3601,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="45" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3888,7 +3860,7 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="4" t="n">
@@ -4409,8 +4381,8 @@
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4661,7 +4633,7 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="0"/>
@@ -4919,7 +4891,7 @@
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5430,13 +5402,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="52" t="n">
+      <c r="B14" s="51" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="52" t="n">
+      <c r="C14" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5689,11 +5661,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5944,11 +5916,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6199,11 +6171,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6711,7 +6683,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="58"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6965,8 +6937,8 @@
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7220,8 +7192,8 @@
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -9078,10 +9050,10 @@
       <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="59" t="n">
+      <c r="B35" s="58" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="59" t="n">
+      <c r="C35" s="58" t="n">
         <v>65.12657</v>
       </c>
     </row>
@@ -9089,10 +9061,10 @@
       <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="59" t="n">
+      <c r="B36" s="58" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="59" t="n">
+      <c r="C36" s="58" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9151,37 +9123,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="60" t="n">
+      <c r="B43" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="60" t="n">
+      <c r="C43" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="44" t="n">
+      <c r="B44" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="44" t="n">
+      <c r="C44" s="43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="44" t="n">
+      <c r="B45" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="44" t="n">
+      <c r="C45" s="43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9205,7 +9177,7 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
@@ -9213,610 +9185,610 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62" t="n">
+      <c r="A1" s="60"/>
+      <c r="B1" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="n">
+      <c r="C1" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="n">
+      <c r="D1" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="n">
+      <c r="E1" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="n">
+      <c r="F1" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="n">
+      <c r="G1" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="62" t="n">
+      <c r="H1" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="62" t="n">
+      <c r="I1" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="62" t="n">
+      <c r="J1" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="62" t="n">
+      <c r="K1" s="61" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="62" t="n">
+      <c r="L1" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="62" t="n">
+      <c r="M1" s="61" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="62" t="n">
+      <c r="N1" s="61" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="62" t="n">
+      <c r="O1" s="61" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="62" t="n">
+      <c r="P1" s="61" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="62" t="n">
+      <c r="Q1" s="61" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="62" t="n">
+      <c r="R1" s="61" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="62" t="n">
+      <c r="S1" s="61" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="62" t="n">
+      <c r="T1" s="61" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="62" t="n">
+      <c r="U1" s="61" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="62" t="n">
+      <c r="V1" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="62" t="n">
+      <c r="W1" s="61" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="62" t="n">
+      <c r="X1" s="61" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="62" t="n">
+      <c r="Y1" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="62" t="n">
+      <c r="Z1" s="61" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="62" t="n">
+      <c r="AA1" s="61" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="62" t="n">
+      <c r="AB1" s="61" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="62" t="n">
+      <c r="AC1" s="61" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="62" t="n">
+      <c r="AD1" s="61" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="62" t="n">
+      <c r="AE1" s="61" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="62" t="n">
+      <c r="AF1" s="61" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="62" t="n">
+      <c r="AG1" s="61" t="n">
         <v>31</v>
       </c>
-      <c r="AH1" s="62" t="n">
+      <c r="AH1" s="61" t="n">
         <v>32</v>
       </c>
-      <c r="AI1" s="62" t="n">
+      <c r="AI1" s="61" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1" s="62" t="n">
+      <c r="AJ1" s="61" t="n">
         <v>34</v>
       </c>
-      <c r="AK1" s="62" t="n">
+      <c r="AK1" s="61" t="n">
         <v>35</v>
       </c>
-      <c r="AL1" s="62" t="n">
+      <c r="AL1" s="61" t="n">
         <v>36</v>
       </c>
-      <c r="AM1" s="62" t="n">
+      <c r="AM1" s="61" t="n">
         <v>37</v>
       </c>
-      <c r="AN1" s="62" t="n">
+      <c r="AN1" s="61" t="n">
         <v>38</v>
       </c>
-      <c r="AO1" s="62" t="n">
+      <c r="AO1" s="61" t="n">
         <v>39</v>
       </c>
-      <c r="AP1" s="62" t="n">
+      <c r="AP1" s="61" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1" s="62" t="n">
+      <c r="AQ1" s="61" t="n">
         <v>41</v>
       </c>
-      <c r="AR1" s="62" t="n">
+      <c r="AR1" s="61" t="n">
         <v>42</v>
       </c>
-      <c r="AS1" s="62" t="n">
+      <c r="AS1" s="61" t="n">
         <v>43</v>
       </c>
-      <c r="AT1" s="62" t="n">
+      <c r="AT1" s="61" t="n">
         <v>44</v>
       </c>
-      <c r="AU1" s="62" t="n">
+      <c r="AU1" s="61" t="n">
         <v>45</v>
       </c>
-      <c r="AV1" s="62" t="n">
+      <c r="AV1" s="61" t="n">
         <v>46</v>
       </c>
-      <c r="AW1" s="62" t="n">
+      <c r="AW1" s="61" t="n">
         <v>47</v>
       </c>
-      <c r="AX1" s="62" t="n">
+      <c r="AX1" s="61" t="n">
         <v>48</v>
       </c>
-      <c r="AY1" s="62" t="n">
+      <c r="AY1" s="61" t="n">
         <v>49</v>
       </c>
-      <c r="AZ1" s="62" t="n">
+      <c r="AZ1" s="61" t="n">
         <v>50</v>
       </c>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BS1" s="61"/>
-      <c r="BT1" s="61"/>
-      <c r="BU1" s="61"/>
-      <c r="BV1" s="61"/>
-      <c r="BW1" s="61"/>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="61"/>
-      <c r="CA1" s="61"/>
-      <c r="CB1" s="61"/>
-      <c r="CC1" s="61"/>
-      <c r="CD1" s="61"/>
-      <c r="CE1" s="61"/>
-      <c r="CF1" s="61"/>
-      <c r="CG1" s="61"/>
-      <c r="CH1" s="61"/>
-      <c r="CI1" s="61"/>
-      <c r="CJ1" s="61"/>
-      <c r="CK1" s="61"/>
-      <c r="CL1" s="61"/>
-      <c r="CM1" s="61"/>
-      <c r="CN1" s="61"/>
-      <c r="CO1" s="61"/>
-      <c r="CP1" s="61"/>
-      <c r="CQ1" s="61"/>
-      <c r="CR1" s="61"/>
-      <c r="CS1" s="61"/>
-      <c r="CT1" s="61"/>
-      <c r="CU1" s="61"/>
-      <c r="CV1" s="61"/>
-      <c r="CW1" s="61"/>
-      <c r="CX1" s="61"/>
-      <c r="CY1" s="61"/>
-      <c r="CZ1" s="61"/>
-      <c r="DA1" s="61"/>
-      <c r="DB1" s="61"/>
-      <c r="DC1" s="61"/>
-      <c r="DD1" s="61"/>
-      <c r="DE1" s="61"/>
-      <c r="DF1" s="61"/>
-      <c r="DG1" s="61"/>
-      <c r="DH1" s="61"/>
-      <c r="DI1" s="61"/>
-      <c r="DJ1" s="61"/>
-      <c r="DK1" s="61"/>
-      <c r="DL1" s="61"/>
-      <c r="DM1" s="61"/>
-      <c r="DN1" s="61"/>
-      <c r="DO1" s="61"/>
-      <c r="DP1" s="61"/>
-      <c r="DQ1" s="61"/>
-      <c r="DR1" s="61"/>
-      <c r="DS1" s="61"/>
-      <c r="DT1" s="61"/>
-      <c r="DU1" s="61"/>
-      <c r="DV1" s="61"/>
-      <c r="DW1" s="61"/>
-      <c r="DX1" s="61"/>
-      <c r="DY1" s="61"/>
-      <c r="DZ1" s="61"/>
-      <c r="EA1" s="61"/>
-      <c r="EB1" s="61"/>
-      <c r="EC1" s="61"/>
-      <c r="ED1" s="61"/>
-      <c r="EE1" s="61"/>
-      <c r="EF1" s="61"/>
-      <c r="EG1" s="61"/>
-      <c r="EH1" s="61"/>
-      <c r="EI1" s="61"/>
-      <c r="EJ1" s="61"/>
-      <c r="EK1" s="61"/>
-      <c r="EL1" s="61"/>
-      <c r="EM1" s="61"/>
-      <c r="EN1" s="61"/>
-      <c r="EO1" s="61"/>
-      <c r="EP1" s="61"/>
-      <c r="EQ1" s="61"/>
-      <c r="ER1" s="61"/>
-      <c r="ES1" s="61"/>
-      <c r="ET1" s="61"/>
-      <c r="EU1" s="61"/>
-      <c r="EV1" s="61"/>
-      <c r="EW1" s="61"/>
-      <c r="EX1" s="61"/>
-      <c r="EY1" s="61"/>
-      <c r="EZ1" s="61"/>
-      <c r="FA1" s="61"/>
-      <c r="FB1" s="61"/>
-      <c r="FC1" s="61"/>
-      <c r="FD1" s="61"/>
-      <c r="FE1" s="61"/>
-      <c r="FF1" s="61"/>
-      <c r="FG1" s="61"/>
-      <c r="FH1" s="61"/>
-      <c r="FI1" s="61"/>
-      <c r="FJ1" s="61"/>
-      <c r="FK1" s="61"/>
-      <c r="FL1" s="61"/>
-      <c r="FM1" s="61"/>
-      <c r="FN1" s="61"/>
-      <c r="FO1" s="61"/>
-      <c r="FP1" s="61"/>
-      <c r="FQ1" s="61"/>
-      <c r="FR1" s="61"/>
-      <c r="FS1" s="61"/>
-      <c r="FT1" s="61"/>
-      <c r="FU1" s="61"/>
-      <c r="FV1" s="61"/>
-      <c r="FW1" s="61"/>
-      <c r="FX1" s="61"/>
-      <c r="FY1" s="61"/>
-      <c r="FZ1" s="61"/>
-      <c r="GA1" s="61"/>
-      <c r="GB1" s="61"/>
-      <c r="GC1" s="61"/>
-      <c r="GD1" s="61"/>
-      <c r="GE1" s="61"/>
-      <c r="GF1" s="61"/>
-      <c r="GG1" s="61"/>
-      <c r="GH1" s="61"/>
-      <c r="GI1" s="61"/>
-      <c r="GJ1" s="61"/>
-      <c r="GK1" s="61"/>
-      <c r="GL1" s="61"/>
-      <c r="GM1" s="61"/>
-      <c r="GN1" s="61"/>
-      <c r="GO1" s="61"/>
-      <c r="GP1" s="61"/>
-      <c r="GQ1" s="61"/>
-      <c r="GR1" s="61"/>
-      <c r="GS1" s="61"/>
-      <c r="GT1" s="61"/>
-      <c r="GU1" s="61"/>
-      <c r="GV1" s="61"/>
-      <c r="GW1" s="61"/>
-      <c r="GX1" s="61"/>
-      <c r="GY1" s="61"/>
-      <c r="GZ1" s="61"/>
-      <c r="HA1" s="61"/>
-      <c r="HB1" s="61"/>
-      <c r="HC1" s="61"/>
-      <c r="HD1" s="61"/>
-      <c r="HE1" s="61"/>
-      <c r="HF1" s="61"/>
-      <c r="HG1" s="61"/>
-      <c r="HH1" s="61"/>
-      <c r="HI1" s="61"/>
-      <c r="HJ1" s="61"/>
-      <c r="HK1" s="61"/>
-      <c r="HL1" s="61"/>
-      <c r="HM1" s="61"/>
-      <c r="HN1" s="61"/>
-      <c r="HO1" s="61"/>
-      <c r="HP1" s="61"/>
-      <c r="HQ1" s="61"/>
-      <c r="HR1" s="61"/>
-      <c r="HS1" s="61"/>
-      <c r="HT1" s="61"/>
-      <c r="HU1" s="61"/>
-      <c r="HV1" s="61"/>
-      <c r="HW1" s="61"/>
-      <c r="HX1" s="61"/>
-      <c r="HY1" s="61"/>
-      <c r="HZ1" s="61"/>
-      <c r="IA1" s="61"/>
-      <c r="IB1" s="61"/>
-      <c r="IC1" s="61"/>
-      <c r="ID1" s="61"/>
-      <c r="IE1" s="61"/>
-      <c r="IF1" s="61"/>
-      <c r="IG1" s="61"/>
-      <c r="IH1" s="61"/>
-      <c r="II1" s="61"/>
-      <c r="IJ1" s="61"/>
-      <c r="IK1" s="61"/>
-      <c r="IL1" s="61"/>
-      <c r="IM1" s="61"/>
-      <c r="IN1" s="61"/>
-      <c r="IO1" s="61"/>
-      <c r="IP1" s="61"/>
-      <c r="IQ1" s="61"/>
-      <c r="IR1" s="61"/>
-      <c r="IS1" s="61"/>
-      <c r="IT1" s="61"/>
-      <c r="IU1" s="61"/>
-      <c r="IV1" s="61"/>
-      <c r="IW1" s="61"/>
-      <c r="IX1" s="61"/>
-      <c r="IY1" s="61"/>
-      <c r="IZ1" s="61"/>
-      <c r="JA1" s="61"/>
-      <c r="JB1" s="61"/>
-      <c r="JC1" s="61"/>
-      <c r="JD1" s="61"/>
-      <c r="JE1" s="61"/>
-      <c r="JF1" s="61"/>
-      <c r="JG1" s="61"/>
-      <c r="JH1" s="61"/>
-      <c r="JI1" s="61"/>
-      <c r="JJ1" s="61"/>
-      <c r="JK1" s="61"/>
-      <c r="JL1" s="61"/>
-      <c r="JM1" s="61"/>
-      <c r="JN1" s="61"/>
-      <c r="JO1" s="61"/>
-      <c r="JP1" s="61"/>
-      <c r="JQ1" s="61"/>
-      <c r="JR1" s="61"/>
-      <c r="JS1" s="61"/>
-      <c r="JT1" s="61"/>
-      <c r="JU1" s="61"/>
-      <c r="JV1" s="61"/>
-      <c r="JW1" s="61"/>
-      <c r="JX1" s="61"/>
-      <c r="JY1" s="61"/>
-      <c r="JZ1" s="61"/>
-      <c r="KA1" s="61"/>
-      <c r="KB1" s="61"/>
-      <c r="KC1" s="61"/>
-      <c r="KD1" s="61"/>
-      <c r="KE1" s="61"/>
-      <c r="KF1" s="61"/>
-      <c r="KG1" s="61"/>
-      <c r="KH1" s="61"/>
-      <c r="KI1" s="61"/>
-      <c r="KJ1" s="61"/>
-      <c r="KK1" s="61"/>
-      <c r="KL1" s="61"/>
-      <c r="KM1" s="61"/>
-      <c r="KN1" s="61"/>
-      <c r="KO1" s="61"/>
-      <c r="KP1" s="61"/>
-      <c r="KQ1" s="61"/>
-      <c r="KR1" s="61"/>
-      <c r="KS1" s="61"/>
-      <c r="KT1" s="61"/>
-      <c r="KU1" s="61"/>
-      <c r="KV1" s="61"/>
-      <c r="KW1" s="61"/>
-      <c r="KX1" s="61"/>
-      <c r="KY1" s="61"/>
-      <c r="KZ1" s="61"/>
-      <c r="LA1" s="61"/>
-      <c r="LB1" s="61"/>
-      <c r="LC1" s="61"/>
-      <c r="LD1" s="61"/>
-      <c r="LE1" s="61"/>
-      <c r="LF1" s="61"/>
-      <c r="LG1" s="61"/>
-      <c r="LH1" s="61"/>
-      <c r="LI1" s="61"/>
-      <c r="LJ1" s="61"/>
-      <c r="LK1" s="61"/>
-      <c r="LL1" s="61"/>
-      <c r="LM1" s="61"/>
-      <c r="LN1" s="61"/>
-      <c r="LO1" s="61"/>
-      <c r="LP1" s="61"/>
-      <c r="LQ1" s="61"/>
-      <c r="LR1" s="61"/>
-      <c r="LS1" s="61"/>
-      <c r="LT1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="60"/>
+      <c r="BN1" s="60"/>
+      <c r="BO1" s="60"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="60"/>
+      <c r="BY1" s="60"/>
+      <c r="BZ1" s="60"/>
+      <c r="CA1" s="60"/>
+      <c r="CB1" s="60"/>
+      <c r="CC1" s="60"/>
+      <c r="CD1" s="60"/>
+      <c r="CE1" s="60"/>
+      <c r="CF1" s="60"/>
+      <c r="CG1" s="60"/>
+      <c r="CH1" s="60"/>
+      <c r="CI1" s="60"/>
+      <c r="CJ1" s="60"/>
+      <c r="CK1" s="60"/>
+      <c r="CL1" s="60"/>
+      <c r="CM1" s="60"/>
+      <c r="CN1" s="60"/>
+      <c r="CO1" s="60"/>
+      <c r="CP1" s="60"/>
+      <c r="CQ1" s="60"/>
+      <c r="CR1" s="60"/>
+      <c r="CS1" s="60"/>
+      <c r="CT1" s="60"/>
+      <c r="CU1" s="60"/>
+      <c r="CV1" s="60"/>
+      <c r="CW1" s="60"/>
+      <c r="CX1" s="60"/>
+      <c r="CY1" s="60"/>
+      <c r="CZ1" s="60"/>
+      <c r="DA1" s="60"/>
+      <c r="DB1" s="60"/>
+      <c r="DC1" s="60"/>
+      <c r="DD1" s="60"/>
+      <c r="DE1" s="60"/>
+      <c r="DF1" s="60"/>
+      <c r="DG1" s="60"/>
+      <c r="DH1" s="60"/>
+      <c r="DI1" s="60"/>
+      <c r="DJ1" s="60"/>
+      <c r="DK1" s="60"/>
+      <c r="DL1" s="60"/>
+      <c r="DM1" s="60"/>
+      <c r="DN1" s="60"/>
+      <c r="DO1" s="60"/>
+      <c r="DP1" s="60"/>
+      <c r="DQ1" s="60"/>
+      <c r="DR1" s="60"/>
+      <c r="DS1" s="60"/>
+      <c r="DT1" s="60"/>
+      <c r="DU1" s="60"/>
+      <c r="DV1" s="60"/>
+      <c r="DW1" s="60"/>
+      <c r="DX1" s="60"/>
+      <c r="DY1" s="60"/>
+      <c r="DZ1" s="60"/>
+      <c r="EA1" s="60"/>
+      <c r="EB1" s="60"/>
+      <c r="EC1" s="60"/>
+      <c r="ED1" s="60"/>
+      <c r="EE1" s="60"/>
+      <c r="EF1" s="60"/>
+      <c r="EG1" s="60"/>
+      <c r="EH1" s="60"/>
+      <c r="EI1" s="60"/>
+      <c r="EJ1" s="60"/>
+      <c r="EK1" s="60"/>
+      <c r="EL1" s="60"/>
+      <c r="EM1" s="60"/>
+      <c r="EN1" s="60"/>
+      <c r="EO1" s="60"/>
+      <c r="EP1" s="60"/>
+      <c r="EQ1" s="60"/>
+      <c r="ER1" s="60"/>
+      <c r="ES1" s="60"/>
+      <c r="ET1" s="60"/>
+      <c r="EU1" s="60"/>
+      <c r="EV1" s="60"/>
+      <c r="EW1" s="60"/>
+      <c r="EX1" s="60"/>
+      <c r="EY1" s="60"/>
+      <c r="EZ1" s="60"/>
+      <c r="FA1" s="60"/>
+      <c r="FB1" s="60"/>
+      <c r="FC1" s="60"/>
+      <c r="FD1" s="60"/>
+      <c r="FE1" s="60"/>
+      <c r="FF1" s="60"/>
+      <c r="FG1" s="60"/>
+      <c r="FH1" s="60"/>
+      <c r="FI1" s="60"/>
+      <c r="FJ1" s="60"/>
+      <c r="FK1" s="60"/>
+      <c r="FL1" s="60"/>
+      <c r="FM1" s="60"/>
+      <c r="FN1" s="60"/>
+      <c r="FO1" s="60"/>
+      <c r="FP1" s="60"/>
+      <c r="FQ1" s="60"/>
+      <c r="FR1" s="60"/>
+      <c r="FS1" s="60"/>
+      <c r="FT1" s="60"/>
+      <c r="FU1" s="60"/>
+      <c r="FV1" s="60"/>
+      <c r="FW1" s="60"/>
+      <c r="FX1" s="60"/>
+      <c r="FY1" s="60"/>
+      <c r="FZ1" s="60"/>
+      <c r="GA1" s="60"/>
+      <c r="GB1" s="60"/>
+      <c r="GC1" s="60"/>
+      <c r="GD1" s="60"/>
+      <c r="GE1" s="60"/>
+      <c r="GF1" s="60"/>
+      <c r="GG1" s="60"/>
+      <c r="GH1" s="60"/>
+      <c r="GI1" s="60"/>
+      <c r="GJ1" s="60"/>
+      <c r="GK1" s="60"/>
+      <c r="GL1" s="60"/>
+      <c r="GM1" s="60"/>
+      <c r="GN1" s="60"/>
+      <c r="GO1" s="60"/>
+      <c r="GP1" s="60"/>
+      <c r="GQ1" s="60"/>
+      <c r="GR1" s="60"/>
+      <c r="GS1" s="60"/>
+      <c r="GT1" s="60"/>
+      <c r="GU1" s="60"/>
+      <c r="GV1" s="60"/>
+      <c r="GW1" s="60"/>
+      <c r="GX1" s="60"/>
+      <c r="GY1" s="60"/>
+      <c r="GZ1" s="60"/>
+      <c r="HA1" s="60"/>
+      <c r="HB1" s="60"/>
+      <c r="HC1" s="60"/>
+      <c r="HD1" s="60"/>
+      <c r="HE1" s="60"/>
+      <c r="HF1" s="60"/>
+      <c r="HG1" s="60"/>
+      <c r="HH1" s="60"/>
+      <c r="HI1" s="60"/>
+      <c r="HJ1" s="60"/>
+      <c r="HK1" s="60"/>
+      <c r="HL1" s="60"/>
+      <c r="HM1" s="60"/>
+      <c r="HN1" s="60"/>
+      <c r="HO1" s="60"/>
+      <c r="HP1" s="60"/>
+      <c r="HQ1" s="60"/>
+      <c r="HR1" s="60"/>
+      <c r="HS1" s="60"/>
+      <c r="HT1" s="60"/>
+      <c r="HU1" s="60"/>
+      <c r="HV1" s="60"/>
+      <c r="HW1" s="60"/>
+      <c r="HX1" s="60"/>
+      <c r="HY1" s="60"/>
+      <c r="HZ1" s="60"/>
+      <c r="IA1" s="60"/>
+      <c r="IB1" s="60"/>
+      <c r="IC1" s="60"/>
+      <c r="ID1" s="60"/>
+      <c r="IE1" s="60"/>
+      <c r="IF1" s="60"/>
+      <c r="IG1" s="60"/>
+      <c r="IH1" s="60"/>
+      <c r="II1" s="60"/>
+      <c r="IJ1" s="60"/>
+      <c r="IK1" s="60"/>
+      <c r="IL1" s="60"/>
+      <c r="IM1" s="60"/>
+      <c r="IN1" s="60"/>
+      <c r="IO1" s="60"/>
+      <c r="IP1" s="60"/>
+      <c r="IQ1" s="60"/>
+      <c r="IR1" s="60"/>
+      <c r="IS1" s="60"/>
+      <c r="IT1" s="60"/>
+      <c r="IU1" s="60"/>
+      <c r="IV1" s="60"/>
+      <c r="IW1" s="60"/>
+      <c r="IX1" s="60"/>
+      <c r="IY1" s="60"/>
+      <c r="IZ1" s="60"/>
+      <c r="JA1" s="60"/>
+      <c r="JB1" s="60"/>
+      <c r="JC1" s="60"/>
+      <c r="JD1" s="60"/>
+      <c r="JE1" s="60"/>
+      <c r="JF1" s="60"/>
+      <c r="JG1" s="60"/>
+      <c r="JH1" s="60"/>
+      <c r="JI1" s="60"/>
+      <c r="JJ1" s="60"/>
+      <c r="JK1" s="60"/>
+      <c r="JL1" s="60"/>
+      <c r="JM1" s="60"/>
+      <c r="JN1" s="60"/>
+      <c r="JO1" s="60"/>
+      <c r="JP1" s="60"/>
+      <c r="JQ1" s="60"/>
+      <c r="JR1" s="60"/>
+      <c r="JS1" s="60"/>
+      <c r="JT1" s="60"/>
+      <c r="JU1" s="60"/>
+      <c r="JV1" s="60"/>
+      <c r="JW1" s="60"/>
+      <c r="JX1" s="60"/>
+      <c r="JY1" s="60"/>
+      <c r="JZ1" s="60"/>
+      <c r="KA1" s="60"/>
+      <c r="KB1" s="60"/>
+      <c r="KC1" s="60"/>
+      <c r="KD1" s="60"/>
+      <c r="KE1" s="60"/>
+      <c r="KF1" s="60"/>
+      <c r="KG1" s="60"/>
+      <c r="KH1" s="60"/>
+      <c r="KI1" s="60"/>
+      <c r="KJ1" s="60"/>
+      <c r="KK1" s="60"/>
+      <c r="KL1" s="60"/>
+      <c r="KM1" s="60"/>
+      <c r="KN1" s="60"/>
+      <c r="KO1" s="60"/>
+      <c r="KP1" s="60"/>
+      <c r="KQ1" s="60"/>
+      <c r="KR1" s="60"/>
+      <c r="KS1" s="60"/>
+      <c r="KT1" s="60"/>
+      <c r="KU1" s="60"/>
+      <c r="KV1" s="60"/>
+      <c r="KW1" s="60"/>
+      <c r="KX1" s="60"/>
+      <c r="KY1" s="60"/>
+      <c r="KZ1" s="60"/>
+      <c r="LA1" s="60"/>
+      <c r="LB1" s="60"/>
+      <c r="LC1" s="60"/>
+      <c r="LD1" s="60"/>
+      <c r="LE1" s="60"/>
+      <c r="LF1" s="60"/>
+      <c r="LG1" s="60"/>
+      <c r="LH1" s="60"/>
+      <c r="LI1" s="60"/>
+      <c r="LJ1" s="60"/>
+      <c r="LK1" s="60"/>
+      <c r="LL1" s="60"/>
+      <c r="LM1" s="60"/>
+      <c r="LN1" s="60"/>
+      <c r="LO1" s="60"/>
+      <c r="LP1" s="60"/>
+      <c r="LQ1" s="60"/>
+      <c r="LR1" s="60"/>
+      <c r="LS1" s="60"/>
+      <c r="LT1" s="60"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="63" t="n">
+      <c r="B2" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="n">
+      <c r="C2" s="62" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="63" t="n">
+      <c r="D2" s="62" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="63" t="n">
+      <c r="E2" s="62" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="63" t="n">
+      <c r="F2" s="62" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="63" t="n">
+      <c r="G2" s="62" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="63" t="n">
+      <c r="H2" s="62" t="n">
         <v>0.12</v>
       </c>
-      <c r="I2" s="63" t="n">
+      <c r="I2" s="62" t="n">
         <v>0.14</v>
       </c>
-      <c r="J2" s="63" t="n">
+      <c r="J2" s="62" t="n">
         <v>0.16</v>
       </c>
-      <c r="K2" s="63" t="n">
+      <c r="K2" s="62" t="n">
         <v>0.18</v>
       </c>
-      <c r="L2" s="63" t="n">
+      <c r="L2" s="62" t="n">
         <v>0.2</v>
       </c>
-      <c r="M2" s="63" t="n">
+      <c r="M2" s="62" t="n">
         <v>0.22</v>
       </c>
-      <c r="N2" s="63" t="n">
+      <c r="N2" s="62" t="n">
         <v>0.24</v>
       </c>
-      <c r="O2" s="63" t="n">
+      <c r="O2" s="62" t="n">
         <v>0.26</v>
       </c>
-      <c r="P2" s="63" t="n">
+      <c r="P2" s="62" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q2" s="63" t="n">
+      <c r="Q2" s="62" t="n">
         <v>0.3</v>
       </c>
-      <c r="R2" s="63" t="n">
+      <c r="R2" s="62" t="n">
         <v>0.32</v>
       </c>
-      <c r="S2" s="63" t="n">
+      <c r="S2" s="62" t="n">
         <v>0.34</v>
       </c>
-      <c r="T2" s="63" t="n">
+      <c r="T2" s="62" t="n">
         <v>0.36</v>
       </c>
-      <c r="U2" s="63" t="n">
+      <c r="U2" s="62" t="n">
         <v>0.38</v>
       </c>
-      <c r="V2" s="63" t="n">
+      <c r="V2" s="62" t="n">
         <v>0.4</v>
       </c>
-      <c r="W2" s="63" t="n">
+      <c r="W2" s="62" t="n">
         <v>0.42</v>
       </c>
-      <c r="X2" s="63" t="n">
+      <c r="X2" s="62" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y2" s="63" t="n">
+      <c r="Y2" s="62" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z2" s="63" t="n">
+      <c r="Z2" s="62" t="n">
         <v>0.48</v>
       </c>
-      <c r="AA2" s="63" t="n">
+      <c r="AA2" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="63" t="n">
+      <c r="AB2" s="62" t="n">
         <v>0.52</v>
       </c>
-      <c r="AC2" s="63" t="n">
+      <c r="AC2" s="62" t="n">
         <v>0.54</v>
       </c>
-      <c r="AD2" s="63" t="n">
+      <c r="AD2" s="62" t="n">
         <v>0.56</v>
       </c>
-      <c r="AE2" s="63" t="n">
+      <c r="AE2" s="62" t="n">
         <v>0.58</v>
       </c>
-      <c r="AF2" s="63" t="n">
+      <c r="AF2" s="62" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG2" s="63" t="n">
+      <c r="AG2" s="62" t="n">
         <v>0.62</v>
       </c>
-      <c r="AH2" s="63" t="n">
+      <c r="AH2" s="62" t="n">
         <v>0.64</v>
       </c>
-      <c r="AI2" s="63" t="n">
+      <c r="AI2" s="62" t="n">
         <v>0.66</v>
       </c>
-      <c r="AJ2" s="63" t="n">
+      <c r="AJ2" s="62" t="n">
         <v>0.68</v>
       </c>
-      <c r="AK2" s="63" t="n">
+      <c r="AK2" s="62" t="n">
         <v>0.7</v>
       </c>
-      <c r="AL2" s="63" t="n">
+      <c r="AL2" s="62" t="n">
         <v>0.72</v>
       </c>
-      <c r="AM2" s="63" t="n">
+      <c r="AM2" s="62" t="n">
         <v>0.74</v>
       </c>
-      <c r="AN2" s="63" t="n">
+      <c r="AN2" s="62" t="n">
         <v>0.76</v>
       </c>
-      <c r="AO2" s="63" t="n">
+      <c r="AO2" s="62" t="n">
         <v>0.78</v>
       </c>
-      <c r="AP2" s="63" t="n">
+      <c r="AP2" s="62" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ2" s="63" t="n">
+      <c r="AQ2" s="62" t="n">
         <v>0.82</v>
       </c>
-      <c r="AR2" s="63" t="n">
+      <c r="AR2" s="62" t="n">
         <v>0.84</v>
       </c>
-      <c r="AS2" s="63" t="n">
+      <c r="AS2" s="62" t="n">
         <v>0.86</v>
       </c>
-      <c r="AT2" s="63" t="n">
+      <c r="AT2" s="62" t="n">
         <v>0.88</v>
       </c>
-      <c r="AU2" s="63" t="n">
+      <c r="AU2" s="62" t="n">
         <v>0.9</v>
       </c>
-      <c r="AV2" s="63" t="n">
+      <c r="AV2" s="62" t="n">
         <v>0.92</v>
       </c>
-      <c r="AW2" s="63" t="n">
+      <c r="AW2" s="62" t="n">
         <v>0.94</v>
       </c>
-      <c r="AX2" s="63" t="n">
+      <c r="AX2" s="62" t="n">
         <v>0.96</v>
       </c>
-      <c r="AY2" s="63" t="n">
+      <c r="AY2" s="62" t="n">
         <v>0.98</v>
       </c>
-      <c r="AZ2" s="63" t="n">
+      <c r="AZ2" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="63"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="63"/>
-      <c r="BF2" s="63"/>
-      <c r="BG2" s="63"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="62"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -10801,166 +10773,166 @@
       <c r="A12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="49" t="n">
+      <c r="B12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="C12" s="49" t="n">
+      <c r="C12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="D12" s="49" t="n">
+      <c r="D12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="E12" s="49" t="n">
+      <c r="E12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="F12" s="49" t="n">
+      <c r="F12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="G12" s="49" t="n">
+      <c r="G12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="H12" s="49" t="n">
+      <c r="H12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="I12" s="49" t="n">
+      <c r="I12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="J12" s="49" t="n">
+      <c r="J12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="K12" s="49" t="n">
+      <c r="K12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="L12" s="49" t="n">
+      <c r="L12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="M12" s="49" t="n">
+      <c r="M12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="N12" s="49" t="n">
+      <c r="N12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="O12" s="49" t="n">
+      <c r="O12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="P12" s="49" t="n">
+      <c r="P12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Q12" s="49" t="n">
+      <c r="Q12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="R12" s="49" t="n">
+      <c r="R12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="S12" s="49" t="n">
+      <c r="S12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="T12" s="49" t="n">
+      <c r="T12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="U12" s="49" t="n">
+      <c r="U12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="V12" s="49" t="n">
+      <c r="V12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="W12" s="49" t="n">
+      <c r="W12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="X12" s="49" t="n">
+      <c r="X12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Y12" s="49" t="n">
+      <c r="Y12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Z12" s="49" t="n">
+      <c r="Z12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AA12" s="49" t="n">
+      <c r="AA12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AB12" s="49" t="n">
+      <c r="AB12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AC12" s="49" t="n">
+      <c r="AC12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AD12" s="49" t="n">
+      <c r="AD12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AE12" s="49" t="n">
+      <c r="AE12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AF12" s="49" t="n">
+      <c r="AF12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AG12" s="49" t="n">
+      <c r="AG12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AH12" s="49" t="n">
+      <c r="AH12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AI12" s="49" t="n">
+      <c r="AI12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AJ12" s="49" t="n">
+      <c r="AJ12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AK12" s="49" t="n">
+      <c r="AK12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AL12" s="49" t="n">
+      <c r="AL12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AM12" s="49" t="n">
+      <c r="AM12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AN12" s="49" t="n">
+      <c r="AN12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AO12" s="49" t="n">
+      <c r="AO12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AP12" s="49" t="n">
+      <c r="AP12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AQ12" s="49" t="n">
+      <c r="AQ12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AR12" s="49" t="n">
+      <c r="AR12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AS12" s="49" t="n">
+      <c r="AS12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AT12" s="49" t="n">
+      <c r="AT12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AU12" s="49" t="n">
+      <c r="AU12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AV12" s="49" t="n">
+      <c r="AV12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AW12" s="49" t="n">
+      <c r="AW12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AX12" s="49" t="n">
+      <c r="AX12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AY12" s="49" t="n">
+      <c r="AY12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AZ12" s="49" t="n">
+      <c r="AZ12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="BA12" s="49"/>
-      <c r="BB12" s="49"/>
-      <c r="BC12" s="49"/>
-      <c r="BD12" s="49"/>
-      <c r="BE12" s="49"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="49"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
   <si>
     <t>Sim</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>minflux</t>
+  </si>
+  <si>
+    <t>mingaussEv</t>
   </si>
   <si>
     <t>maxIter</t>
@@ -721,7 +724,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -810,14 +813,6 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1179,11 +1174,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,7 +1202,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1247,7 +1242,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1333,12 +1328,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1935,23 +1930,25 @@
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5" t="n">
-        <v>100</v>
-      </c>
+      <c r="E55" s="5"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="n">
+        <v>800</v>
+      </c>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="F57" s="39"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -1959,7 +1956,7 @@
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="40"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -1967,7 +1964,7 @@
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -1975,7 +1972,7 @@
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="40"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -1983,37 +1980,45 @@
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="27"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="E63" s="42"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="E64" s="42"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2035,7 +2040,7 @@
   <dimension ref="A1:IQ45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
@@ -2307,7 +2312,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2566,7 +2571,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="45" t="n">
         <v>0</v>
@@ -2825,7 +2830,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="45" t="n">
         <v>0</v>
@@ -3084,7 +3089,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3343,7 +3348,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="45" t="n">
         <v>90</v>
@@ -3602,7 +3607,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="45" t="n">
         <v>9</v>
@@ -3861,7 +3866,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4120,7 +4125,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>250</v>
@@ -4379,7 +4384,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -4634,7 +4639,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4889,7 +4894,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="0"/>
@@ -5144,7 +5149,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5403,7 +5408,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="51" t="n">
         <v>-1</v>
@@ -5660,9 +5665,9 @@
       <c r="IP14" s="0"/>
       <c r="IQ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="53"/>
@@ -5917,7 +5922,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="53"/>
@@ -6172,7 +6177,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
@@ -6427,7 +6432,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6935,7 +6940,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="57"/>
@@ -7190,7 +7195,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="57"/>
@@ -7445,7 +7450,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7700,7 +7705,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7955,7 +7960,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8469,7 +8474,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8728,7 +8733,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8992,7 +8997,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9003,7 +9008,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9014,7 +9019,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9025,7 +9030,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9036,7 +9041,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9048,7 +9053,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="58" t="n">
         <v>65.1186367</v>
@@ -9059,7 +9064,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="58" t="n">
         <v>-147.432975</v>
@@ -9075,7 +9080,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9086,7 +9091,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9097,24 +9102,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9124,7 +9129,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -9137,7 +9142,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B44" s="43" t="n">
         <v>1</v>
@@ -9148,7 +9153,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B45" s="43" t="n">
         <v>1</v>
@@ -9177,7 +9182,7 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
@@ -9627,7 +9632,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="62" t="n">
         <v>0</v>
@@ -9792,7 +9797,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -9950,17 +9955,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -10125,7 +10130,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -10283,160 +10288,160 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -10448,160 +10453,160 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -10613,7 +10618,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -10771,7 +10776,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="48" t="n">
         <v>2800000000000</v>
@@ -10936,7 +10941,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -11094,7 +11099,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -11252,7 +11257,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -11410,7 +11415,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -11568,7 +11573,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -11726,7 +11731,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm_Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
   <si>
     <t>Sim</t>
   </si>
@@ -319,12 +324,6 @@
     <t>Recon</t>
   </si>
   <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
     <t>Transcar</t>
   </si>
   <si>
@@ -568,7 +567,7 @@
     <t>timeShiftSec</t>
   </si>
   <si>
-    <t>frameRateHz</t>
+    <t>kineticsec</t>
   </si>
   <si>
     <t>rotCCW</t>
@@ -716,13 +715,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00E+000"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00E+000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -865,7 +863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -944,13 +942,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -997,7 +988,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1006,12 +997,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1110,14 +1101,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1154,18 +1137,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1182,15 +1153,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1218,7 +1189,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1234,19 +1205,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1328,239 +1299,213 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="5"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="12"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
+      <c r="F10" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="13" t="s">
-        <v>24</v>
+      <c r="F11" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="14" t="s">
-        <v>27</v>
+      <c r="F13" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="15" t="s">
-        <v>31</v>
+      <c r="F16" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="15" t="s">
-        <v>33</v>
+      <c r="F17" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="7"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1568,329 +1513,291 @@
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="7"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>1200</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="7"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="7"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="7"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="7"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="7"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="7"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="7"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="21"/>
       <c r="C31" s="7"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="7"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="22" t="n">
+      <c r="F32" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="25"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="21" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="G38" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="0"/>
+      <c r="C38" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="0"/>
+      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="0"/>
+      <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="12"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="14" t="n">
+      <c r="F43" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>56</v>
+      <c r="A44" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="31" t="n">
+      <c r="D44" s="29" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30" t="s">
-        <v>57</v>
+      <c r="A45" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
-        <v>58</v>
+      <c r="A46" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="33" t="n">
+      <c r="D46" s="31" t="n">
         <v>-10</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="30" t="s">
-        <v>59</v>
+      <c r="A47" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="33" t="n">
+      <c r="D47" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="30" t="s">
-        <v>60</v>
+      <c r="A48" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="33" t="n">
+      <c r="D48" s="31" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30" t="s">
-        <v>61</v>
+      <c r="A49" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="35" t="n">
+      <c r="D49" s="33" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="34"/>
+      <c r="F49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
@@ -1898,22 +1805,20 @@
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="12"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
@@ -1921,21 +1826,19 @@
       <c r="E54" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1943,82 +1846,73 @@
       <c r="E56" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="F56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="40"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="27"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="37"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30" t="s">
-        <v>74</v>
+      <c r="A66" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2039,26 +1933,26 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="43" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="43" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="38" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="38" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="44" t="n">
+      <c r="B1" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="n">
+      <c r="C1" s="39" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2312,7 +2206,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2570,13 +2464,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="45" t="n">
+      <c r="A3" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="n">
+      <c r="C3" s="40" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2829,13 +2723,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="45" t="n">
+      <c r="A4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="45" t="n">
+      <c r="C4" s="40" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3088,8 +2982,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>79</v>
+      <c r="A5" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3347,13 +3241,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="45" t="n">
+      <c r="A6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="40" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="40" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
@@ -3606,13 +3500,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="45" t="n">
+      <c r="A7" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="45" t="n">
+      <c r="C7" s="40" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3865,8 +3759,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>82</v>
+      <c r="A8" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4125,7 +4019,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>250</v>
@@ -4384,10 +4278,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4638,8 +4532,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>85</v>
+      <c r="A11" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4894,9 +4788,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="44"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5149,13 +5043,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -5407,13 +5301,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="51" t="n">
+      <c r="A14" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="46" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="51" t="n">
+      <c r="C14" s="46" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5666,11 +5560,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
-        <v>89</v>
+      <c r="A15" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="53"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5921,11 +5815,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
-        <v>90</v>
+      <c r="A16" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="53"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6176,11 +6070,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6432,7 +6326,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6688,7 +6582,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6940,10 +6834,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="57"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7195,10 +7089,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="57"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7450,7 +7344,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7705,7 +7599,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7960,7 +7854,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8474,7 +8368,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8483,7 +8377,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -8733,7 +8627,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8742,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -8997,7 +8891,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9008,7 +8902,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9019,7 +8913,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9030,7 +8924,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9041,7 +8935,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9053,23 +8947,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="58" t="n">
+        <v>103</v>
+      </c>
+      <c r="B35" s="53" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="58" t="n">
+      <c r="C35" s="53" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="58" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" s="53" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="58" t="n">
+      <c r="C36" s="53" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9080,7 +8974,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9091,7 +8985,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9102,24 +8996,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,37 +9022,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="59" t="n">
+      <c r="A43" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="59" t="n">
+      <c r="C43" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="43" t="n">
+      <c r="A44" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="43" t="n">
+      <c r="C44" s="38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="43" t="n">
+      <c r="A45" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="43" t="n">
+      <c r="C45" s="38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9182,7 +9076,7 @@
   </sheetPr>
   <dimension ref="A1:LT18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
@@ -9190,614 +9084,614 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61" t="n">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="61" t="n">
+      <c r="C1" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="n">
+      <c r="D1" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="61" t="n">
+      <c r="E1" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="61" t="n">
+      <c r="F1" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="61" t="n">
+      <c r="G1" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="61" t="n">
+      <c r="H1" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="61" t="n">
+      <c r="I1" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="61" t="n">
+      <c r="J1" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="61" t="n">
+      <c r="K1" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="61" t="n">
+      <c r="L1" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="61" t="n">
+      <c r="M1" s="56" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="61" t="n">
+      <c r="N1" s="56" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="61" t="n">
+      <c r="O1" s="56" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="61" t="n">
+      <c r="P1" s="56" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="61" t="n">
+      <c r="Q1" s="56" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="61" t="n">
+      <c r="R1" s="56" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="61" t="n">
+      <c r="S1" s="56" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="61" t="n">
+      <c r="T1" s="56" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="61" t="n">
+      <c r="U1" s="56" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="61" t="n">
+      <c r="V1" s="56" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="61" t="n">
+      <c r="W1" s="56" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="61" t="n">
+      <c r="X1" s="56" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="61" t="n">
+      <c r="Y1" s="56" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="61" t="n">
+      <c r="Z1" s="56" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="61" t="n">
+      <c r="AA1" s="56" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="61" t="n">
+      <c r="AB1" s="56" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="61" t="n">
+      <c r="AC1" s="56" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="61" t="n">
+      <c r="AD1" s="56" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="61" t="n">
+      <c r="AE1" s="56" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="61" t="n">
+      <c r="AF1" s="56" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="61" t="n">
+      <c r="AG1" s="56" t="n">
         <v>31</v>
       </c>
-      <c r="AH1" s="61" t="n">
+      <c r="AH1" s="56" t="n">
         <v>32</v>
       </c>
-      <c r="AI1" s="61" t="n">
+      <c r="AI1" s="56" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1" s="61" t="n">
+      <c r="AJ1" s="56" t="n">
         <v>34</v>
       </c>
-      <c r="AK1" s="61" t="n">
+      <c r="AK1" s="56" t="n">
         <v>35</v>
       </c>
-      <c r="AL1" s="61" t="n">
+      <c r="AL1" s="56" t="n">
         <v>36</v>
       </c>
-      <c r="AM1" s="61" t="n">
+      <c r="AM1" s="56" t="n">
         <v>37</v>
       </c>
-      <c r="AN1" s="61" t="n">
+      <c r="AN1" s="56" t="n">
         <v>38</v>
       </c>
-      <c r="AO1" s="61" t="n">
+      <c r="AO1" s="56" t="n">
         <v>39</v>
       </c>
-      <c r="AP1" s="61" t="n">
+      <c r="AP1" s="56" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1" s="61" t="n">
+      <c r="AQ1" s="56" t="n">
         <v>41</v>
       </c>
-      <c r="AR1" s="61" t="n">
+      <c r="AR1" s="56" t="n">
         <v>42</v>
       </c>
-      <c r="AS1" s="61" t="n">
+      <c r="AS1" s="56" t="n">
         <v>43</v>
       </c>
-      <c r="AT1" s="61" t="n">
+      <c r="AT1" s="56" t="n">
         <v>44</v>
       </c>
-      <c r="AU1" s="61" t="n">
+      <c r="AU1" s="56" t="n">
         <v>45</v>
       </c>
-      <c r="AV1" s="61" t="n">
+      <c r="AV1" s="56" t="n">
         <v>46</v>
       </c>
-      <c r="AW1" s="61" t="n">
+      <c r="AW1" s="56" t="n">
         <v>47</v>
       </c>
-      <c r="AX1" s="61" t="n">
+      <c r="AX1" s="56" t="n">
         <v>48</v>
       </c>
-      <c r="AY1" s="61" t="n">
+      <c r="AY1" s="56" t="n">
         <v>49</v>
       </c>
-      <c r="AZ1" s="61" t="n">
+      <c r="AZ1" s="56" t="n">
         <v>50</v>
       </c>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="60"/>
-      <c r="BN1" s="60"/>
-      <c r="BO1" s="60"/>
-      <c r="BP1" s="60"/>
-      <c r="BQ1" s="60"/>
-      <c r="BR1" s="60"/>
-      <c r="BS1" s="60"/>
-      <c r="BT1" s="60"/>
-      <c r="BU1" s="60"/>
-      <c r="BV1" s="60"/>
-      <c r="BW1" s="60"/>
-      <c r="BX1" s="60"/>
-      <c r="BY1" s="60"/>
-      <c r="BZ1" s="60"/>
-      <c r="CA1" s="60"/>
-      <c r="CB1" s="60"/>
-      <c r="CC1" s="60"/>
-      <c r="CD1" s="60"/>
-      <c r="CE1" s="60"/>
-      <c r="CF1" s="60"/>
-      <c r="CG1" s="60"/>
-      <c r="CH1" s="60"/>
-      <c r="CI1" s="60"/>
-      <c r="CJ1" s="60"/>
-      <c r="CK1" s="60"/>
-      <c r="CL1" s="60"/>
-      <c r="CM1" s="60"/>
-      <c r="CN1" s="60"/>
-      <c r="CO1" s="60"/>
-      <c r="CP1" s="60"/>
-      <c r="CQ1" s="60"/>
-      <c r="CR1" s="60"/>
-      <c r="CS1" s="60"/>
-      <c r="CT1" s="60"/>
-      <c r="CU1" s="60"/>
-      <c r="CV1" s="60"/>
-      <c r="CW1" s="60"/>
-      <c r="CX1" s="60"/>
-      <c r="CY1" s="60"/>
-      <c r="CZ1" s="60"/>
-      <c r="DA1" s="60"/>
-      <c r="DB1" s="60"/>
-      <c r="DC1" s="60"/>
-      <c r="DD1" s="60"/>
-      <c r="DE1" s="60"/>
-      <c r="DF1" s="60"/>
-      <c r="DG1" s="60"/>
-      <c r="DH1" s="60"/>
-      <c r="DI1" s="60"/>
-      <c r="DJ1" s="60"/>
-      <c r="DK1" s="60"/>
-      <c r="DL1" s="60"/>
-      <c r="DM1" s="60"/>
-      <c r="DN1" s="60"/>
-      <c r="DO1" s="60"/>
-      <c r="DP1" s="60"/>
-      <c r="DQ1" s="60"/>
-      <c r="DR1" s="60"/>
-      <c r="DS1" s="60"/>
-      <c r="DT1" s="60"/>
-      <c r="DU1" s="60"/>
-      <c r="DV1" s="60"/>
-      <c r="DW1" s="60"/>
-      <c r="DX1" s="60"/>
-      <c r="DY1" s="60"/>
-      <c r="DZ1" s="60"/>
-      <c r="EA1" s="60"/>
-      <c r="EB1" s="60"/>
-      <c r="EC1" s="60"/>
-      <c r="ED1" s="60"/>
-      <c r="EE1" s="60"/>
-      <c r="EF1" s="60"/>
-      <c r="EG1" s="60"/>
-      <c r="EH1" s="60"/>
-      <c r="EI1" s="60"/>
-      <c r="EJ1" s="60"/>
-      <c r="EK1" s="60"/>
-      <c r="EL1" s="60"/>
-      <c r="EM1" s="60"/>
-      <c r="EN1" s="60"/>
-      <c r="EO1" s="60"/>
-      <c r="EP1" s="60"/>
-      <c r="EQ1" s="60"/>
-      <c r="ER1" s="60"/>
-      <c r="ES1" s="60"/>
-      <c r="ET1" s="60"/>
-      <c r="EU1" s="60"/>
-      <c r="EV1" s="60"/>
-      <c r="EW1" s="60"/>
-      <c r="EX1" s="60"/>
-      <c r="EY1" s="60"/>
-      <c r="EZ1" s="60"/>
-      <c r="FA1" s="60"/>
-      <c r="FB1" s="60"/>
-      <c r="FC1" s="60"/>
-      <c r="FD1" s="60"/>
-      <c r="FE1" s="60"/>
-      <c r="FF1" s="60"/>
-      <c r="FG1" s="60"/>
-      <c r="FH1" s="60"/>
-      <c r="FI1" s="60"/>
-      <c r="FJ1" s="60"/>
-      <c r="FK1" s="60"/>
-      <c r="FL1" s="60"/>
-      <c r="FM1" s="60"/>
-      <c r="FN1" s="60"/>
-      <c r="FO1" s="60"/>
-      <c r="FP1" s="60"/>
-      <c r="FQ1" s="60"/>
-      <c r="FR1" s="60"/>
-      <c r="FS1" s="60"/>
-      <c r="FT1" s="60"/>
-      <c r="FU1" s="60"/>
-      <c r="FV1" s="60"/>
-      <c r="FW1" s="60"/>
-      <c r="FX1" s="60"/>
-      <c r="FY1" s="60"/>
-      <c r="FZ1" s="60"/>
-      <c r="GA1" s="60"/>
-      <c r="GB1" s="60"/>
-      <c r="GC1" s="60"/>
-      <c r="GD1" s="60"/>
-      <c r="GE1" s="60"/>
-      <c r="GF1" s="60"/>
-      <c r="GG1" s="60"/>
-      <c r="GH1" s="60"/>
-      <c r="GI1" s="60"/>
-      <c r="GJ1" s="60"/>
-      <c r="GK1" s="60"/>
-      <c r="GL1" s="60"/>
-      <c r="GM1" s="60"/>
-      <c r="GN1" s="60"/>
-      <c r="GO1" s="60"/>
-      <c r="GP1" s="60"/>
-      <c r="GQ1" s="60"/>
-      <c r="GR1" s="60"/>
-      <c r="GS1" s="60"/>
-      <c r="GT1" s="60"/>
-      <c r="GU1" s="60"/>
-      <c r="GV1" s="60"/>
-      <c r="GW1" s="60"/>
-      <c r="GX1" s="60"/>
-      <c r="GY1" s="60"/>
-      <c r="GZ1" s="60"/>
-      <c r="HA1" s="60"/>
-      <c r="HB1" s="60"/>
-      <c r="HC1" s="60"/>
-      <c r="HD1" s="60"/>
-      <c r="HE1" s="60"/>
-      <c r="HF1" s="60"/>
-      <c r="HG1" s="60"/>
-      <c r="HH1" s="60"/>
-      <c r="HI1" s="60"/>
-      <c r="HJ1" s="60"/>
-      <c r="HK1" s="60"/>
-      <c r="HL1" s="60"/>
-      <c r="HM1" s="60"/>
-      <c r="HN1" s="60"/>
-      <c r="HO1" s="60"/>
-      <c r="HP1" s="60"/>
-      <c r="HQ1" s="60"/>
-      <c r="HR1" s="60"/>
-      <c r="HS1" s="60"/>
-      <c r="HT1" s="60"/>
-      <c r="HU1" s="60"/>
-      <c r="HV1" s="60"/>
-      <c r="HW1" s="60"/>
-      <c r="HX1" s="60"/>
-      <c r="HY1" s="60"/>
-      <c r="HZ1" s="60"/>
-      <c r="IA1" s="60"/>
-      <c r="IB1" s="60"/>
-      <c r="IC1" s="60"/>
-      <c r="ID1" s="60"/>
-      <c r="IE1" s="60"/>
-      <c r="IF1" s="60"/>
-      <c r="IG1" s="60"/>
-      <c r="IH1" s="60"/>
-      <c r="II1" s="60"/>
-      <c r="IJ1" s="60"/>
-      <c r="IK1" s="60"/>
-      <c r="IL1" s="60"/>
-      <c r="IM1" s="60"/>
-      <c r="IN1" s="60"/>
-      <c r="IO1" s="60"/>
-      <c r="IP1" s="60"/>
-      <c r="IQ1" s="60"/>
-      <c r="IR1" s="60"/>
-      <c r="IS1" s="60"/>
-      <c r="IT1" s="60"/>
-      <c r="IU1" s="60"/>
-      <c r="IV1" s="60"/>
-      <c r="IW1" s="60"/>
-      <c r="IX1" s="60"/>
-      <c r="IY1" s="60"/>
-      <c r="IZ1" s="60"/>
-      <c r="JA1" s="60"/>
-      <c r="JB1" s="60"/>
-      <c r="JC1" s="60"/>
-      <c r="JD1" s="60"/>
-      <c r="JE1" s="60"/>
-      <c r="JF1" s="60"/>
-      <c r="JG1" s="60"/>
-      <c r="JH1" s="60"/>
-      <c r="JI1" s="60"/>
-      <c r="JJ1" s="60"/>
-      <c r="JK1" s="60"/>
-      <c r="JL1" s="60"/>
-      <c r="JM1" s="60"/>
-      <c r="JN1" s="60"/>
-      <c r="JO1" s="60"/>
-      <c r="JP1" s="60"/>
-      <c r="JQ1" s="60"/>
-      <c r="JR1" s="60"/>
-      <c r="JS1" s="60"/>
-      <c r="JT1" s="60"/>
-      <c r="JU1" s="60"/>
-      <c r="JV1" s="60"/>
-      <c r="JW1" s="60"/>
-      <c r="JX1" s="60"/>
-      <c r="JY1" s="60"/>
-      <c r="JZ1" s="60"/>
-      <c r="KA1" s="60"/>
-      <c r="KB1" s="60"/>
-      <c r="KC1" s="60"/>
-      <c r="KD1" s="60"/>
-      <c r="KE1" s="60"/>
-      <c r="KF1" s="60"/>
-      <c r="KG1" s="60"/>
-      <c r="KH1" s="60"/>
-      <c r="KI1" s="60"/>
-      <c r="KJ1" s="60"/>
-      <c r="KK1" s="60"/>
-      <c r="KL1" s="60"/>
-      <c r="KM1" s="60"/>
-      <c r="KN1" s="60"/>
-      <c r="KO1" s="60"/>
-      <c r="KP1" s="60"/>
-      <c r="KQ1" s="60"/>
-      <c r="KR1" s="60"/>
-      <c r="KS1" s="60"/>
-      <c r="KT1" s="60"/>
-      <c r="KU1" s="60"/>
-      <c r="KV1" s="60"/>
-      <c r="KW1" s="60"/>
-      <c r="KX1" s="60"/>
-      <c r="KY1" s="60"/>
-      <c r="KZ1" s="60"/>
-      <c r="LA1" s="60"/>
-      <c r="LB1" s="60"/>
-      <c r="LC1" s="60"/>
-      <c r="LD1" s="60"/>
-      <c r="LE1" s="60"/>
-      <c r="LF1" s="60"/>
-      <c r="LG1" s="60"/>
-      <c r="LH1" s="60"/>
-      <c r="LI1" s="60"/>
-      <c r="LJ1" s="60"/>
-      <c r="LK1" s="60"/>
-      <c r="LL1" s="60"/>
-      <c r="LM1" s="60"/>
-      <c r="LN1" s="60"/>
-      <c r="LO1" s="60"/>
-      <c r="LP1" s="60"/>
-      <c r="LQ1" s="60"/>
-      <c r="LR1" s="60"/>
-      <c r="LS1" s="60"/>
-      <c r="LT1" s="60"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="55"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="55"/>
+      <c r="BS1" s="55"/>
+      <c r="BT1" s="55"/>
+      <c r="BU1" s="55"/>
+      <c r="BV1" s="55"/>
+      <c r="BW1" s="55"/>
+      <c r="BX1" s="55"/>
+      <c r="BY1" s="55"/>
+      <c r="BZ1" s="55"/>
+      <c r="CA1" s="55"/>
+      <c r="CB1" s="55"/>
+      <c r="CC1" s="55"/>
+      <c r="CD1" s="55"/>
+      <c r="CE1" s="55"/>
+      <c r="CF1" s="55"/>
+      <c r="CG1" s="55"/>
+      <c r="CH1" s="55"/>
+      <c r="CI1" s="55"/>
+      <c r="CJ1" s="55"/>
+      <c r="CK1" s="55"/>
+      <c r="CL1" s="55"/>
+      <c r="CM1" s="55"/>
+      <c r="CN1" s="55"/>
+      <c r="CO1" s="55"/>
+      <c r="CP1" s="55"/>
+      <c r="CQ1" s="55"/>
+      <c r="CR1" s="55"/>
+      <c r="CS1" s="55"/>
+      <c r="CT1" s="55"/>
+      <c r="CU1" s="55"/>
+      <c r="CV1" s="55"/>
+      <c r="CW1" s="55"/>
+      <c r="CX1" s="55"/>
+      <c r="CY1" s="55"/>
+      <c r="CZ1" s="55"/>
+      <c r="DA1" s="55"/>
+      <c r="DB1" s="55"/>
+      <c r="DC1" s="55"/>
+      <c r="DD1" s="55"/>
+      <c r="DE1" s="55"/>
+      <c r="DF1" s="55"/>
+      <c r="DG1" s="55"/>
+      <c r="DH1" s="55"/>
+      <c r="DI1" s="55"/>
+      <c r="DJ1" s="55"/>
+      <c r="DK1" s="55"/>
+      <c r="DL1" s="55"/>
+      <c r="DM1" s="55"/>
+      <c r="DN1" s="55"/>
+      <c r="DO1" s="55"/>
+      <c r="DP1" s="55"/>
+      <c r="DQ1" s="55"/>
+      <c r="DR1" s="55"/>
+      <c r="DS1" s="55"/>
+      <c r="DT1" s="55"/>
+      <c r="DU1" s="55"/>
+      <c r="DV1" s="55"/>
+      <c r="DW1" s="55"/>
+      <c r="DX1" s="55"/>
+      <c r="DY1" s="55"/>
+      <c r="DZ1" s="55"/>
+      <c r="EA1" s="55"/>
+      <c r="EB1" s="55"/>
+      <c r="EC1" s="55"/>
+      <c r="ED1" s="55"/>
+      <c r="EE1" s="55"/>
+      <c r="EF1" s="55"/>
+      <c r="EG1" s="55"/>
+      <c r="EH1" s="55"/>
+      <c r="EI1" s="55"/>
+      <c r="EJ1" s="55"/>
+      <c r="EK1" s="55"/>
+      <c r="EL1" s="55"/>
+      <c r="EM1" s="55"/>
+      <c r="EN1" s="55"/>
+      <c r="EO1" s="55"/>
+      <c r="EP1" s="55"/>
+      <c r="EQ1" s="55"/>
+      <c r="ER1" s="55"/>
+      <c r="ES1" s="55"/>
+      <c r="ET1" s="55"/>
+      <c r="EU1" s="55"/>
+      <c r="EV1" s="55"/>
+      <c r="EW1" s="55"/>
+      <c r="EX1" s="55"/>
+      <c r="EY1" s="55"/>
+      <c r="EZ1" s="55"/>
+      <c r="FA1" s="55"/>
+      <c r="FB1" s="55"/>
+      <c r="FC1" s="55"/>
+      <c r="FD1" s="55"/>
+      <c r="FE1" s="55"/>
+      <c r="FF1" s="55"/>
+      <c r="FG1" s="55"/>
+      <c r="FH1" s="55"/>
+      <c r="FI1" s="55"/>
+      <c r="FJ1" s="55"/>
+      <c r="FK1" s="55"/>
+      <c r="FL1" s="55"/>
+      <c r="FM1" s="55"/>
+      <c r="FN1" s="55"/>
+      <c r="FO1" s="55"/>
+      <c r="FP1" s="55"/>
+      <c r="FQ1" s="55"/>
+      <c r="FR1" s="55"/>
+      <c r="FS1" s="55"/>
+      <c r="FT1" s="55"/>
+      <c r="FU1" s="55"/>
+      <c r="FV1" s="55"/>
+      <c r="FW1" s="55"/>
+      <c r="FX1" s="55"/>
+      <c r="FY1" s="55"/>
+      <c r="FZ1" s="55"/>
+      <c r="GA1" s="55"/>
+      <c r="GB1" s="55"/>
+      <c r="GC1" s="55"/>
+      <c r="GD1" s="55"/>
+      <c r="GE1" s="55"/>
+      <c r="GF1" s="55"/>
+      <c r="GG1" s="55"/>
+      <c r="GH1" s="55"/>
+      <c r="GI1" s="55"/>
+      <c r="GJ1" s="55"/>
+      <c r="GK1" s="55"/>
+      <c r="GL1" s="55"/>
+      <c r="GM1" s="55"/>
+      <c r="GN1" s="55"/>
+      <c r="GO1" s="55"/>
+      <c r="GP1" s="55"/>
+      <c r="GQ1" s="55"/>
+      <c r="GR1" s="55"/>
+      <c r="GS1" s="55"/>
+      <c r="GT1" s="55"/>
+      <c r="GU1" s="55"/>
+      <c r="GV1" s="55"/>
+      <c r="GW1" s="55"/>
+      <c r="GX1" s="55"/>
+      <c r="GY1" s="55"/>
+      <c r="GZ1" s="55"/>
+      <c r="HA1" s="55"/>
+      <c r="HB1" s="55"/>
+      <c r="HC1" s="55"/>
+      <c r="HD1" s="55"/>
+      <c r="HE1" s="55"/>
+      <c r="HF1" s="55"/>
+      <c r="HG1" s="55"/>
+      <c r="HH1" s="55"/>
+      <c r="HI1" s="55"/>
+      <c r="HJ1" s="55"/>
+      <c r="HK1" s="55"/>
+      <c r="HL1" s="55"/>
+      <c r="HM1" s="55"/>
+      <c r="HN1" s="55"/>
+      <c r="HO1" s="55"/>
+      <c r="HP1" s="55"/>
+      <c r="HQ1" s="55"/>
+      <c r="HR1" s="55"/>
+      <c r="HS1" s="55"/>
+      <c r="HT1" s="55"/>
+      <c r="HU1" s="55"/>
+      <c r="HV1" s="55"/>
+      <c r="HW1" s="55"/>
+      <c r="HX1" s="55"/>
+      <c r="HY1" s="55"/>
+      <c r="HZ1" s="55"/>
+      <c r="IA1" s="55"/>
+      <c r="IB1" s="55"/>
+      <c r="IC1" s="55"/>
+      <c r="ID1" s="55"/>
+      <c r="IE1" s="55"/>
+      <c r="IF1" s="55"/>
+      <c r="IG1" s="55"/>
+      <c r="IH1" s="55"/>
+      <c r="II1" s="55"/>
+      <c r="IJ1" s="55"/>
+      <c r="IK1" s="55"/>
+      <c r="IL1" s="55"/>
+      <c r="IM1" s="55"/>
+      <c r="IN1" s="55"/>
+      <c r="IO1" s="55"/>
+      <c r="IP1" s="55"/>
+      <c r="IQ1" s="55"/>
+      <c r="IR1" s="55"/>
+      <c r="IS1" s="55"/>
+      <c r="IT1" s="55"/>
+      <c r="IU1" s="55"/>
+      <c r="IV1" s="55"/>
+      <c r="IW1" s="55"/>
+      <c r="IX1" s="55"/>
+      <c r="IY1" s="55"/>
+      <c r="IZ1" s="55"/>
+      <c r="JA1" s="55"/>
+      <c r="JB1" s="55"/>
+      <c r="JC1" s="55"/>
+      <c r="JD1" s="55"/>
+      <c r="JE1" s="55"/>
+      <c r="JF1" s="55"/>
+      <c r="JG1" s="55"/>
+      <c r="JH1" s="55"/>
+      <c r="JI1" s="55"/>
+      <c r="JJ1" s="55"/>
+      <c r="JK1" s="55"/>
+      <c r="JL1" s="55"/>
+      <c r="JM1" s="55"/>
+      <c r="JN1" s="55"/>
+      <c r="JO1" s="55"/>
+      <c r="JP1" s="55"/>
+      <c r="JQ1" s="55"/>
+      <c r="JR1" s="55"/>
+      <c r="JS1" s="55"/>
+      <c r="JT1" s="55"/>
+      <c r="JU1" s="55"/>
+      <c r="JV1" s="55"/>
+      <c r="JW1" s="55"/>
+      <c r="JX1" s="55"/>
+      <c r="JY1" s="55"/>
+      <c r="JZ1" s="55"/>
+      <c r="KA1" s="55"/>
+      <c r="KB1" s="55"/>
+      <c r="KC1" s="55"/>
+      <c r="KD1" s="55"/>
+      <c r="KE1" s="55"/>
+      <c r="KF1" s="55"/>
+      <c r="KG1" s="55"/>
+      <c r="KH1" s="55"/>
+      <c r="KI1" s="55"/>
+      <c r="KJ1" s="55"/>
+      <c r="KK1" s="55"/>
+      <c r="KL1" s="55"/>
+      <c r="KM1" s="55"/>
+      <c r="KN1" s="55"/>
+      <c r="KO1" s="55"/>
+      <c r="KP1" s="55"/>
+      <c r="KQ1" s="55"/>
+      <c r="KR1" s="55"/>
+      <c r="KS1" s="55"/>
+      <c r="KT1" s="55"/>
+      <c r="KU1" s="55"/>
+      <c r="KV1" s="55"/>
+      <c r="KW1" s="55"/>
+      <c r="KX1" s="55"/>
+      <c r="KY1" s="55"/>
+      <c r="KZ1" s="55"/>
+      <c r="LA1" s="55"/>
+      <c r="LB1" s="55"/>
+      <c r="LC1" s="55"/>
+      <c r="LD1" s="55"/>
+      <c r="LE1" s="55"/>
+      <c r="LF1" s="55"/>
+      <c r="LG1" s="55"/>
+      <c r="LH1" s="55"/>
+      <c r="LI1" s="55"/>
+      <c r="LJ1" s="55"/>
+      <c r="LK1" s="55"/>
+      <c r="LL1" s="55"/>
+      <c r="LM1" s="55"/>
+      <c r="LN1" s="55"/>
+      <c r="LO1" s="55"/>
+      <c r="LP1" s="55"/>
+      <c r="LQ1" s="55"/>
+      <c r="LR1" s="55"/>
+      <c r="LS1" s="55"/>
+      <c r="LT1" s="55"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="62" t="n">
+        <v>115</v>
+      </c>
+      <c r="B2" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="n">
+      <c r="C2" s="57" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="62" t="n">
+      <c r="D2" s="57" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="62" t="n">
+      <c r="E2" s="57" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="62" t="n">
+      <c r="F2" s="57" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="62" t="n">
+      <c r="G2" s="57" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="62" t="n">
+      <c r="H2" s="57" t="n">
         <v>0.12</v>
       </c>
-      <c r="I2" s="62" t="n">
+      <c r="I2" s="57" t="n">
         <v>0.14</v>
       </c>
-      <c r="J2" s="62" t="n">
+      <c r="J2" s="57" t="n">
         <v>0.16</v>
       </c>
-      <c r="K2" s="62" t="n">
+      <c r="K2" s="57" t="n">
         <v>0.18</v>
       </c>
-      <c r="L2" s="62" t="n">
+      <c r="L2" s="57" t="n">
         <v>0.2</v>
       </c>
-      <c r="M2" s="62" t="n">
+      <c r="M2" s="57" t="n">
         <v>0.22</v>
       </c>
-      <c r="N2" s="62" t="n">
+      <c r="N2" s="57" t="n">
         <v>0.24</v>
       </c>
-      <c r="O2" s="62" t="n">
+      <c r="O2" s="57" t="n">
         <v>0.26</v>
       </c>
-      <c r="P2" s="62" t="n">
+      <c r="P2" s="57" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q2" s="62" t="n">
+      <c r="Q2" s="57" t="n">
         <v>0.3</v>
       </c>
-      <c r="R2" s="62" t="n">
+      <c r="R2" s="57" t="n">
         <v>0.32</v>
       </c>
-      <c r="S2" s="62" t="n">
+      <c r="S2" s="57" t="n">
         <v>0.34</v>
       </c>
-      <c r="T2" s="62" t="n">
+      <c r="T2" s="57" t="n">
         <v>0.36</v>
       </c>
-      <c r="U2" s="62" t="n">
+      <c r="U2" s="57" t="n">
         <v>0.38</v>
       </c>
-      <c r="V2" s="62" t="n">
+      <c r="V2" s="57" t="n">
         <v>0.4</v>
       </c>
-      <c r="W2" s="62" t="n">
+      <c r="W2" s="57" t="n">
         <v>0.42</v>
       </c>
-      <c r="X2" s="62" t="n">
+      <c r="X2" s="57" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y2" s="62" t="n">
+      <c r="Y2" s="57" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z2" s="62" t="n">
+      <c r="Z2" s="57" t="n">
         <v>0.48</v>
       </c>
-      <c r="AA2" s="62" t="n">
+      <c r="AA2" s="57" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="62" t="n">
+      <c r="AB2" s="57" t="n">
         <v>0.52</v>
       </c>
-      <c r="AC2" s="62" t="n">
+      <c r="AC2" s="57" t="n">
         <v>0.54</v>
       </c>
-      <c r="AD2" s="62" t="n">
+      <c r="AD2" s="57" t="n">
         <v>0.56</v>
       </c>
-      <c r="AE2" s="62" t="n">
+      <c r="AE2" s="57" t="n">
         <v>0.58</v>
       </c>
-      <c r="AF2" s="62" t="n">
+      <c r="AF2" s="57" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG2" s="62" t="n">
+      <c r="AG2" s="57" t="n">
         <v>0.62</v>
       </c>
-      <c r="AH2" s="62" t="n">
+      <c r="AH2" s="57" t="n">
         <v>0.64</v>
       </c>
-      <c r="AI2" s="62" t="n">
+      <c r="AI2" s="57" t="n">
         <v>0.66</v>
       </c>
-      <c r="AJ2" s="62" t="n">
+      <c r="AJ2" s="57" t="n">
         <v>0.68</v>
       </c>
-      <c r="AK2" s="62" t="n">
+      <c r="AK2" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="AL2" s="62" t="n">
+      <c r="AL2" s="57" t="n">
         <v>0.72</v>
       </c>
-      <c r="AM2" s="62" t="n">
+      <c r="AM2" s="57" t="n">
         <v>0.74</v>
       </c>
-      <c r="AN2" s="62" t="n">
+      <c r="AN2" s="57" t="n">
         <v>0.76</v>
       </c>
-      <c r="AO2" s="62" t="n">
+      <c r="AO2" s="57" t="n">
         <v>0.78</v>
       </c>
-      <c r="AP2" s="62" t="n">
+      <c r="AP2" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ2" s="62" t="n">
+      <c r="AQ2" s="57" t="n">
         <v>0.82</v>
       </c>
-      <c r="AR2" s="62" t="n">
+      <c r="AR2" s="57" t="n">
         <v>0.84</v>
       </c>
-      <c r="AS2" s="62" t="n">
+      <c r="AS2" s="57" t="n">
         <v>0.86</v>
       </c>
-      <c r="AT2" s="62" t="n">
+      <c r="AT2" s="57" t="n">
         <v>0.88</v>
       </c>
-      <c r="AU2" s="62" t="n">
+      <c r="AU2" s="57" t="n">
         <v>0.9</v>
       </c>
-      <c r="AV2" s="62" t="n">
+      <c r="AV2" s="57" t="n">
         <v>0.92</v>
       </c>
-      <c r="AW2" s="62" t="n">
+      <c r="AW2" s="57" t="n">
         <v>0.94</v>
       </c>
-      <c r="AX2" s="62" t="n">
+      <c r="AX2" s="57" t="n">
         <v>0.96</v>
       </c>
-      <c r="AY2" s="62" t="n">
+      <c r="AY2" s="57" t="n">
         <v>0.98</v>
       </c>
-      <c r="AZ2" s="62" t="n">
+      <c r="AZ2" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -9955,17 +9849,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -10130,7 +10024,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -10288,160 +10182,160 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -10453,160 +10347,160 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -10617,8 +10511,8 @@
       <c r="BG9" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>127</v>
+      <c r="A11" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -10776,172 +10670,172 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="48" t="n">
+        <v>126</v>
+      </c>
+      <c r="B12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="C12" s="48" t="n">
+      <c r="C12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="D12" s="48" t="n">
+      <c r="D12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="E12" s="48" t="n">
+      <c r="E12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="G12" s="48" t="n">
+      <c r="G12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="H12" s="48" t="n">
+      <c r="H12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="I12" s="48" t="n">
+      <c r="I12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="J12" s="48" t="n">
+      <c r="J12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="K12" s="48" t="n">
+      <c r="K12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="L12" s="48" t="n">
+      <c r="L12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="M12" s="48" t="n">
+      <c r="M12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="N12" s="48" t="n">
+      <c r="N12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="O12" s="48" t="n">
+      <c r="O12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="P12" s="48" t="n">
+      <c r="P12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Q12" s="48" t="n">
+      <c r="Q12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="R12" s="48" t="n">
+      <c r="R12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="S12" s="48" t="n">
+      <c r="S12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="T12" s="48" t="n">
+      <c r="T12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="U12" s="48" t="n">
+      <c r="U12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="V12" s="48" t="n">
+      <c r="V12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="W12" s="48" t="n">
+      <c r="W12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="X12" s="48" t="n">
+      <c r="X12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Y12" s="48" t="n">
+      <c r="Y12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="Z12" s="48" t="n">
+      <c r="Z12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AA12" s="48" t="n">
+      <c r="AA12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AB12" s="48" t="n">
+      <c r="AB12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AC12" s="48" t="n">
+      <c r="AC12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AD12" s="48" t="n">
+      <c r="AD12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AE12" s="48" t="n">
+      <c r="AE12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AF12" s="48" t="n">
+      <c r="AF12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AG12" s="48" t="n">
+      <c r="AG12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AH12" s="48" t="n">
+      <c r="AH12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AI12" s="48" t="n">
+      <c r="AI12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AJ12" s="48" t="n">
+      <c r="AJ12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AK12" s="48" t="n">
+      <c r="AK12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AL12" s="48" t="n">
+      <c r="AL12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AM12" s="48" t="n">
+      <c r="AM12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AN12" s="48" t="n">
+      <c r="AN12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AO12" s="48" t="n">
+      <c r="AO12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AP12" s="48" t="n">
+      <c r="AP12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AQ12" s="48" t="n">
+      <c r="AQ12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AR12" s="48" t="n">
+      <c r="AR12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AS12" s="48" t="n">
+      <c r="AS12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AT12" s="48" t="n">
+      <c r="AT12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AU12" s="48" t="n">
+      <c r="AU12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AV12" s="48" t="n">
+      <c r="AV12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AW12" s="48" t="n">
+      <c r="AW12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AX12" s="48" t="n">
+      <c r="AX12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AY12" s="48" t="n">
+      <c r="AY12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="AZ12" s="48" t="n">
+      <c r="AZ12" s="43" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="43"/>
+      <c r="BD12" s="43"/>
+      <c r="BE12" s="43"/>
+      <c r="BF12" s="43"/>
+      <c r="BG12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -11099,7 +10993,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -11257,7 +11151,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -11415,7 +11309,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -11573,7 +11467,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -11731,7 +11625,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>

--- a/in/2cam_trans.xlsx
+++ b/in/2cam_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="131">
   <si>
     <t>Sim</t>
   </si>
@@ -619,12 +619,6 @@
   </si>
   <si>
     <t>nHead16</t>
-  </si>
-  <si>
-    <t>latWGS84</t>
-  </si>
-  <si>
-    <t>lonWGS84</t>
   </si>
   <si>
     <t>Bincl</t>
@@ -988,7 +982,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1201,10 +1195,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1309,13 +1299,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,20 +1921,20 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IQ45"/>
+  <dimension ref="A1:IQ42"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="38" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="38" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="38" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="38" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,110 +8939,83 @@
       <c r="A35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="53" t="n">
-        <v>65.1186367</v>
-      </c>
-      <c r="C35" s="53" t="n">
-        <v>65.12657</v>
+      <c r="B35" s="4" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="53" t="n">
-        <v>-147.432975</v>
-      </c>
-      <c r="C36" s="53" t="n">
-        <v>-147.496908333</v>
+      <c r="B36" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
+      <c r="A37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>77.51</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>77.5</v>
+        <v>107</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A40" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="54" t="n">
+      <c r="B40" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="54" t="n">
+      <c r="C40" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="38" t="n">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="38" t="n">
+      <c r="C41" s="38" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="38" t="n">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="38" t="n">
+      <c r="C42" s="38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9084,614 +9047,614 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56" t="n">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="n">
+      <c r="C1" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="n">
+      <c r="D1" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="56" t="n">
+      <c r="E1" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="56" t="n">
+      <c r="F1" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="56" t="n">
+      <c r="G1" s="55" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="56" t="n">
+      <c r="H1" s="55" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="56" t="n">
+      <c r="I1" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="56" t="n">
+      <c r="J1" s="55" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="56" t="n">
+      <c r="K1" s="55" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="56" t="n">
+      <c r="L1" s="55" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="56" t="n">
+      <c r="M1" s="55" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="56" t="n">
+      <c r="N1" s="55" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="56" t="n">
+      <c r="O1" s="55" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="56" t="n">
+      <c r="P1" s="55" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="56" t="n">
+      <c r="Q1" s="55" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="56" t="n">
+      <c r="R1" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="56" t="n">
+      <c r="S1" s="55" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="56" t="n">
+      <c r="T1" s="55" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="56" t="n">
+      <c r="U1" s="55" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="56" t="n">
+      <c r="V1" s="55" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="56" t="n">
+      <c r="W1" s="55" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="56" t="n">
+      <c r="X1" s="55" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="56" t="n">
+      <c r="Y1" s="55" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="56" t="n">
+      <c r="Z1" s="55" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="56" t="n">
+      <c r="AA1" s="55" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="56" t="n">
+      <c r="AB1" s="55" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="56" t="n">
+      <c r="AC1" s="55" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="56" t="n">
+      <c r="AD1" s="55" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="56" t="n">
+      <c r="AE1" s="55" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="56" t="n">
+      <c r="AF1" s="55" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="56" t="n">
+      <c r="AG1" s="55" t="n">
         <v>31</v>
       </c>
-      <c r="AH1" s="56" t="n">
+      <c r="AH1" s="55" t="n">
         <v>32</v>
       </c>
-      <c r="AI1" s="56" t="n">
+      <c r="AI1" s="55" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1" s="56" t="n">
+      <c r="AJ1" s="55" t="n">
         <v>34</v>
       </c>
-      <c r="AK1" s="56" t="n">
+      <c r="AK1" s="55" t="n">
         <v>35</v>
       </c>
-      <c r="AL1" s="56" t="n">
+      <c r="AL1" s="55" t="n">
         <v>36</v>
       </c>
-      <c r="AM1" s="56" t="n">
+      <c r="AM1" s="55" t="n">
         <v>37</v>
       </c>
-      <c r="AN1" s="56" t="n">
+      <c r="AN1" s="55" t="n">
         <v>38</v>
       </c>
-      <c r="AO1" s="56" t="n">
+      <c r="AO1" s="55" t="n">
         <v>39</v>
       </c>
-      <c r="AP1" s="56" t="n">
+      <c r="AP1" s="55" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1" s="56" t="n">
+      <c r="AQ1" s="55" t="n">
         <v>41</v>
       </c>
-      <c r="AR1" s="56" t="n">
+      <c r="AR1" s="55" t="n">
         <v>42</v>
       </c>
-      <c r="AS1" s="56" t="n">
+      <c r="AS1" s="55" t="n">
         <v>43</v>
       </c>
-      <c r="AT1" s="56" t="n">
+      <c r="AT1" s="55" t="n">
         <v>44</v>
       </c>
-      <c r="AU1" s="56" t="n">
+      <c r="AU1" s="55" t="n">
         <v>45</v>
       </c>
-      <c r="AV1" s="56" t="n">
+      <c r="AV1" s="55" t="n">
         <v>46</v>
       </c>
-      <c r="AW1" s="56" t="n">
+      <c r="AW1" s="55" t="n">
         <v>47</v>
       </c>
-      <c r="AX1" s="56" t="n">
+      <c r="AX1" s="55" t="n">
         <v>48</v>
       </c>
-      <c r="AY1" s="56" t="n">
+      <c r="AY1" s="55" t="n">
         <v>49</v>
       </c>
-      <c r="AZ1" s="56" t="n">
+      <c r="AZ1" s="55" t="n">
         <v>50</v>
       </c>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="55"/>
-      <c r="BT1" s="55"/>
-      <c r="BU1" s="55"/>
-      <c r="BV1" s="55"/>
-      <c r="BW1" s="55"/>
-      <c r="BX1" s="55"/>
-      <c r="BY1" s="55"/>
-      <c r="BZ1" s="55"/>
-      <c r="CA1" s="55"/>
-      <c r="CB1" s="55"/>
-      <c r="CC1" s="55"/>
-      <c r="CD1" s="55"/>
-      <c r="CE1" s="55"/>
-      <c r="CF1" s="55"/>
-      <c r="CG1" s="55"/>
-      <c r="CH1" s="55"/>
-      <c r="CI1" s="55"/>
-      <c r="CJ1" s="55"/>
-      <c r="CK1" s="55"/>
-      <c r="CL1" s="55"/>
-      <c r="CM1" s="55"/>
-      <c r="CN1" s="55"/>
-      <c r="CO1" s="55"/>
-      <c r="CP1" s="55"/>
-      <c r="CQ1" s="55"/>
-      <c r="CR1" s="55"/>
-      <c r="CS1" s="55"/>
-      <c r="CT1" s="55"/>
-      <c r="CU1" s="55"/>
-      <c r="CV1" s="55"/>
-      <c r="CW1" s="55"/>
-      <c r="CX1" s="55"/>
-      <c r="CY1" s="55"/>
-      <c r="CZ1" s="55"/>
-      <c r="DA1" s="55"/>
-      <c r="DB1" s="55"/>
-      <c r="DC1" s="55"/>
-      <c r="DD1" s="55"/>
-      <c r="DE1" s="55"/>
-      <c r="DF1" s="55"/>
-      <c r="DG1" s="55"/>
-      <c r="DH1" s="55"/>
-      <c r="DI1" s="55"/>
-      <c r="DJ1" s="55"/>
-      <c r="DK1" s="55"/>
-      <c r="DL1" s="55"/>
-      <c r="DM1" s="55"/>
-      <c r="DN1" s="55"/>
-      <c r="DO1" s="55"/>
-      <c r="DP1" s="55"/>
-      <c r="DQ1" s="55"/>
-      <c r="DR1" s="55"/>
-      <c r="DS1" s="55"/>
-      <c r="DT1" s="55"/>
-      <c r="DU1" s="55"/>
-      <c r="DV1" s="55"/>
-      <c r="DW1" s="55"/>
-      <c r="DX1" s="55"/>
-      <c r="DY1" s="55"/>
-      <c r="DZ1" s="55"/>
-      <c r="EA1" s="55"/>
-      <c r="EB1" s="55"/>
-      <c r="EC1" s="55"/>
-      <c r="ED1" s="55"/>
-      <c r="EE1" s="55"/>
-      <c r="EF1" s="55"/>
-      <c r="EG1" s="55"/>
-      <c r="EH1" s="55"/>
-      <c r="EI1" s="55"/>
-      <c r="EJ1" s="55"/>
-      <c r="EK1" s="55"/>
-      <c r="EL1" s="55"/>
-      <c r="EM1" s="55"/>
-      <c r="EN1" s="55"/>
-      <c r="EO1" s="55"/>
-      <c r="EP1" s="55"/>
-      <c r="EQ1" s="55"/>
-      <c r="ER1" s="55"/>
-      <c r="ES1" s="55"/>
-      <c r="ET1" s="55"/>
-      <c r="EU1" s="55"/>
-      <c r="EV1" s="55"/>
-      <c r="EW1" s="55"/>
-      <c r="EX1" s="55"/>
-      <c r="EY1" s="55"/>
-      <c r="EZ1" s="55"/>
-      <c r="FA1" s="55"/>
-      <c r="FB1" s="55"/>
-      <c r="FC1" s="55"/>
-      <c r="FD1" s="55"/>
-      <c r="FE1" s="55"/>
-      <c r="FF1" s="55"/>
-      <c r="FG1" s="55"/>
-      <c r="FH1" s="55"/>
-      <c r="FI1" s="55"/>
-      <c r="FJ1" s="55"/>
-      <c r="FK1" s="55"/>
-      <c r="FL1" s="55"/>
-      <c r="FM1" s="55"/>
-      <c r="FN1" s="55"/>
-      <c r="FO1" s="55"/>
-      <c r="FP1" s="55"/>
-      <c r="FQ1" s="55"/>
-      <c r="FR1" s="55"/>
-      <c r="FS1" s="55"/>
-      <c r="FT1" s="55"/>
-      <c r="FU1" s="55"/>
-      <c r="FV1" s="55"/>
-      <c r="FW1" s="55"/>
-      <c r="FX1" s="55"/>
-      <c r="FY1" s="55"/>
-      <c r="FZ1" s="55"/>
-      <c r="GA1" s="55"/>
-      <c r="GB1" s="55"/>
-      <c r="GC1" s="55"/>
-      <c r="GD1" s="55"/>
-      <c r="GE1" s="55"/>
-      <c r="GF1" s="55"/>
-      <c r="GG1" s="55"/>
-      <c r="GH1" s="55"/>
-      <c r="GI1" s="55"/>
-      <c r="GJ1" s="55"/>
-      <c r="GK1" s="55"/>
-      <c r="GL1" s="55"/>
-      <c r="GM1" s="55"/>
-      <c r="GN1" s="55"/>
-      <c r="GO1" s="55"/>
-      <c r="GP1" s="55"/>
-      <c r="GQ1" s="55"/>
-      <c r="GR1" s="55"/>
-      <c r="GS1" s="55"/>
-      <c r="GT1" s="55"/>
-      <c r="GU1" s="55"/>
-      <c r="GV1" s="55"/>
-      <c r="GW1" s="55"/>
-      <c r="GX1" s="55"/>
-      <c r="GY1" s="55"/>
-      <c r="GZ1" s="55"/>
-      <c r="HA1" s="55"/>
-      <c r="HB1" s="55"/>
-      <c r="HC1" s="55"/>
-      <c r="HD1" s="55"/>
-      <c r="HE1" s="55"/>
-      <c r="HF1" s="55"/>
-      <c r="HG1" s="55"/>
-      <c r="HH1" s="55"/>
-      <c r="HI1" s="55"/>
-      <c r="HJ1" s="55"/>
-      <c r="HK1" s="55"/>
-      <c r="HL1" s="55"/>
-      <c r="HM1" s="55"/>
-      <c r="HN1" s="55"/>
-      <c r="HO1" s="55"/>
-      <c r="HP1" s="55"/>
-      <c r="HQ1" s="55"/>
-      <c r="HR1" s="55"/>
-      <c r="HS1" s="55"/>
-      <c r="HT1" s="55"/>
-      <c r="HU1" s="55"/>
-      <c r="HV1" s="55"/>
-      <c r="HW1" s="55"/>
-      <c r="HX1" s="55"/>
-      <c r="HY1" s="55"/>
-      <c r="HZ1" s="55"/>
-      <c r="IA1" s="55"/>
-      <c r="IB1" s="55"/>
-      <c r="IC1" s="55"/>
-      <c r="ID1" s="55"/>
-      <c r="IE1" s="55"/>
-      <c r="IF1" s="55"/>
-      <c r="IG1" s="55"/>
-      <c r="IH1" s="55"/>
-      <c r="II1" s="55"/>
-      <c r="IJ1" s="55"/>
-      <c r="IK1" s="55"/>
-      <c r="IL1" s="55"/>
-      <c r="IM1" s="55"/>
-      <c r="IN1" s="55"/>
-      <c r="IO1" s="55"/>
-      <c r="IP1" s="55"/>
-      <c r="IQ1" s="55"/>
-      <c r="IR1" s="55"/>
-      <c r="IS1" s="55"/>
-      <c r="IT1" s="55"/>
-      <c r="IU1" s="55"/>
-      <c r="IV1" s="55"/>
-      <c r="IW1" s="55"/>
-      <c r="IX1" s="55"/>
-      <c r="IY1" s="55"/>
-      <c r="IZ1" s="55"/>
-      <c r="JA1" s="55"/>
-      <c r="JB1" s="55"/>
-      <c r="JC1" s="55"/>
-      <c r="JD1" s="55"/>
-      <c r="JE1" s="55"/>
-      <c r="JF1" s="55"/>
-      <c r="JG1" s="55"/>
-      <c r="JH1" s="55"/>
-      <c r="JI1" s="55"/>
-      <c r="JJ1" s="55"/>
-      <c r="JK1" s="55"/>
-      <c r="JL1" s="55"/>
-      <c r="JM1" s="55"/>
-      <c r="JN1" s="55"/>
-      <c r="JO1" s="55"/>
-      <c r="JP1" s="55"/>
-      <c r="JQ1" s="55"/>
-      <c r="JR1" s="55"/>
-      <c r="JS1" s="55"/>
-      <c r="JT1" s="55"/>
-      <c r="JU1" s="55"/>
-      <c r="JV1" s="55"/>
-      <c r="JW1" s="55"/>
-      <c r="JX1" s="55"/>
-      <c r="JY1" s="55"/>
-      <c r="JZ1" s="55"/>
-      <c r="KA1" s="55"/>
-      <c r="KB1" s="55"/>
-      <c r="KC1" s="55"/>
-      <c r="KD1" s="55"/>
-      <c r="KE1" s="55"/>
-      <c r="KF1" s="55"/>
-      <c r="KG1" s="55"/>
-      <c r="KH1" s="55"/>
-      <c r="KI1" s="55"/>
-      <c r="KJ1" s="55"/>
-      <c r="KK1" s="55"/>
-      <c r="KL1" s="55"/>
-      <c r="KM1" s="55"/>
-      <c r="KN1" s="55"/>
-      <c r="KO1" s="55"/>
-      <c r="KP1" s="55"/>
-      <c r="KQ1" s="55"/>
-      <c r="KR1" s="55"/>
-      <c r="KS1" s="55"/>
-      <c r="KT1" s="55"/>
-      <c r="KU1" s="55"/>
-      <c r="KV1" s="55"/>
-      <c r="KW1" s="55"/>
-      <c r="KX1" s="55"/>
-      <c r="KY1" s="55"/>
-      <c r="KZ1" s="55"/>
-      <c r="LA1" s="55"/>
-      <c r="LB1" s="55"/>
-      <c r="LC1" s="55"/>
-      <c r="LD1" s="55"/>
-      <c r="LE1" s="55"/>
-      <c r="LF1" s="55"/>
-      <c r="LG1" s="55"/>
-      <c r="LH1" s="55"/>
-      <c r="LI1" s="55"/>
-      <c r="LJ1" s="55"/>
-      <c r="LK1" s="55"/>
-      <c r="LL1" s="55"/>
-      <c r="LM1" s="55"/>
-      <c r="LN1" s="55"/>
-      <c r="LO1" s="55"/>
-      <c r="LP1" s="55"/>
-      <c r="LQ1" s="55"/>
-      <c r="LR1" s="55"/>
-      <c r="LS1" s="55"/>
-      <c r="LT1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="54"/>
+      <c r="BR1" s="54"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="54"/>
+      <c r="BU1" s="54"/>
+      <c r="BV1" s="54"/>
+      <c r="BW1" s="54"/>
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="54"/>
+      <c r="CH1" s="54"/>
+      <c r="CI1" s="54"/>
+      <c r="CJ1" s="54"/>
+      <c r="CK1" s="54"/>
+      <c r="CL1" s="54"/>
+      <c r="CM1" s="54"/>
+      <c r="CN1" s="54"/>
+      <c r="CO1" s="54"/>
+      <c r="CP1" s="54"/>
+      <c r="CQ1" s="54"/>
+      <c r="CR1" s="54"/>
+      <c r="CS1" s="54"/>
+      <c r="CT1" s="54"/>
+      <c r="CU1" s="54"/>
+      <c r="CV1" s="54"/>
+      <c r="CW1" s="54"/>
+      <c r="CX1" s="54"/>
+      <c r="CY1" s="54"/>
+      <c r="CZ1" s="54"/>
+      <c r="DA1" s="54"/>
+      <c r="DB1" s="54"/>
+      <c r="DC1" s="54"/>
+      <c r="DD1" s="54"/>
+      <c r="DE1" s="54"/>
+      <c r="DF1" s="54"/>
+      <c r="DG1" s="54"/>
+      <c r="DH1" s="54"/>
+      <c r="DI1" s="54"/>
+      <c r="DJ1" s="54"/>
+      <c r="DK1" s="54"/>
+      <c r="DL1" s="54"/>
+      <c r="DM1" s="54"/>
+      <c r="DN1" s="54"/>
+      <c r="DO1" s="54"/>
+      <c r="DP1" s="54"/>
+      <c r="DQ1" s="54"/>
+      <c r="DR1" s="54"/>
+      <c r="DS1" s="54"/>
+      <c r="DT1" s="54"/>
+      <c r="DU1" s="54"/>
+      <c r="DV1" s="54"/>
+      <c r="DW1" s="54"/>
+      <c r="DX1" s="54"/>
+      <c r="DY1" s="54"/>
+      <c r="DZ1" s="54"/>
+      <c r="EA1" s="54"/>
+      <c r="EB1" s="54"/>
+      <c r="EC1" s="54"/>
+      <c r="ED1" s="54"/>
+      <c r="EE1" s="54"/>
+      <c r="EF1" s="54"/>
+      <c r="EG1" s="54"/>
+      <c r="EH1" s="54"/>
+      <c r="EI1" s="54"/>
+      <c r="EJ1" s="54"/>
+      <c r="EK1" s="54"/>
+      <c r="EL1" s="54"/>
+      <c r="EM1" s="54"/>
+      <c r="EN1" s="54"/>
+      <c r="EO1" s="54"/>
+      <c r="EP1" s="54"/>
+      <c r="EQ1" s="54"/>
+      <c r="ER1" s="54"/>
+      <c r="ES1" s="54"/>
+      <c r="ET1" s="54"/>
+      <c r="EU1" s="54"/>
+      <c r="EV1" s="54"/>
+      <c r="EW1" s="54"/>
+      <c r="EX1" s="54"/>
+      <c r="EY1" s="54"/>
+      <c r="EZ1" s="54"/>
+      <c r="FA1" s="54"/>
+      <c r="FB1" s="54"/>
+      <c r="FC1" s="54"/>
+      <c r="FD1" s="54"/>
+      <c r="FE1" s="54"/>
+      <c r="FF1" s="54"/>
+      <c r="FG1" s="54"/>
+      <c r="FH1" s="54"/>
+      <c r="FI1" s="54"/>
+      <c r="FJ1" s="54"/>
+      <c r="FK1" s="54"/>
+      <c r="FL1" s="54"/>
+      <c r="FM1" s="54"/>
+      <c r="FN1" s="54"/>
+      <c r="FO1" s="54"/>
+      <c r="FP1" s="54"/>
+      <c r="FQ1" s="54"/>
+      <c r="FR1" s="54"/>
+      <c r="FS1" s="54"/>
+      <c r="FT1" s="54"/>
+      <c r="FU1" s="54"/>
+      <c r="FV1" s="54"/>
+      <c r="FW1" s="54"/>
+      <c r="FX1" s="54"/>
+      <c r="FY1" s="54"/>
+      <c r="FZ1" s="54"/>
+      <c r="GA1" s="54"/>
+      <c r="GB1" s="54"/>
+      <c r="GC1" s="54"/>
+      <c r="GD1" s="54"/>
+      <c r="GE1" s="54"/>
+      <c r="GF1" s="54"/>
+      <c r="GG1" s="54"/>
+      <c r="GH1" s="54"/>
+      <c r="GI1" s="54"/>
+      <c r="GJ1" s="54"/>
+      <c r="GK1" s="54"/>
+      <c r="GL1" s="54"/>
+      <c r="GM1" s="54"/>
+      <c r="GN1" s="54"/>
+      <c r="GO1" s="54"/>
+      <c r="GP1" s="54"/>
+      <c r="GQ1" s="54"/>
+      <c r="GR1" s="54"/>
+      <c r="GS1" s="54"/>
+      <c r="GT1" s="54"/>
+      <c r="GU1" s="54"/>
+      <c r="GV1" s="54"/>
+      <c r="GW1" s="54"/>
+      <c r="GX1" s="54"/>
+      <c r="GY1" s="54"/>
+      <c r="GZ1" s="54"/>
+      <c r="HA1" s="54"/>
+      <c r="HB1" s="54"/>
+      <c r="HC1" s="54"/>
+      <c r="HD1" s="54"/>
+      <c r="HE1" s="54"/>
+      <c r="HF1" s="54"/>
+      <c r="HG1" s="54"/>
+      <c r="HH1" s="54"/>
+      <c r="HI1" s="54"/>
+      <c r="HJ1" s="54"/>
+      <c r="HK1" s="54"/>
+      <c r="HL1" s="54"/>
+      <c r="HM1" s="54"/>
+      <c r="HN1" s="54"/>
+      <c r="HO1" s="54"/>
+      <c r="HP1" s="54"/>
+      <c r="HQ1" s="54"/>
+      <c r="HR1" s="54"/>
+      <c r="HS1" s="54"/>
+      <c r="HT1" s="54"/>
+      <c r="HU1" s="54"/>
+      <c r="HV1" s="54"/>
+      <c r="HW1" s="54"/>
+      <c r="HX1" s="54"/>
+      <c r="HY1" s="54"/>
+      <c r="HZ1" s="54"/>
+      <c r="IA1" s="54"/>
+      <c r="IB1" s="54"/>
+      <c r="IC1" s="54"/>
+      <c r="ID1" s="54"/>
+      <c r="IE1" s="54"/>
+      <c r="IF1" s="54"/>
+      <c r="IG1" s="54"/>
+      <c r="IH1" s="54"/>
+      <c r="II1" s="54"/>
+      <c r="IJ1" s="54"/>
+      <c r="IK1" s="54"/>
+      <c r="IL1" s="54"/>
+      <c r="IM1" s="54"/>
+      <c r="IN1" s="54"/>
+      <c r="IO1" s="54"/>
+      <c r="IP1" s="54"/>
+      <c r="IQ1" s="54"/>
+      <c r="IR1" s="54"/>
+      <c r="IS1" s="54"/>
+      <c r="IT1" s="54"/>
+      <c r="IU1" s="54"/>
+      <c r="IV1" s="54"/>
+      <c r="IW1" s="54"/>
+      <c r="IX1" s="54"/>
+      <c r="IY1" s="54"/>
+      <c r="IZ1" s="54"/>
+      <c r="JA1" s="54"/>
+      <c r="JB1" s="54"/>
+      <c r="JC1" s="54"/>
+      <c r="JD1" s="54"/>
+      <c r="JE1" s="54"/>
+      <c r="JF1" s="54"/>
+      <c r="JG1" s="54"/>
+      <c r="JH1" s="54"/>
+      <c r="JI1" s="54"/>
+      <c r="JJ1" s="54"/>
+      <c r="JK1" s="54"/>
+      <c r="JL1" s="54"/>
+      <c r="JM1" s="54"/>
+      <c r="JN1" s="54"/>
+      <c r="JO1" s="54"/>
+      <c r="JP1" s="54"/>
+      <c r="JQ1" s="54"/>
+      <c r="JR1" s="54"/>
+      <c r="JS1" s="54"/>
+      <c r="JT1" s="54"/>
+      <c r="JU1" s="54"/>
+      <c r="JV1" s="54"/>
+      <c r="JW1" s="54"/>
+      <c r="JX1" s="54"/>
+      <c r="JY1" s="54"/>
+      <c r="JZ1" s="54"/>
+      <c r="KA1" s="54"/>
+      <c r="KB1" s="54"/>
+      <c r="KC1" s="54"/>
+      <c r="KD1" s="54"/>
+      <c r="KE1" s="54"/>
+      <c r="KF1" s="54"/>
+      <c r="KG1" s="54"/>
+      <c r="KH1" s="54"/>
+      <c r="KI1" s="54"/>
+      <c r="KJ1" s="54"/>
+      <c r="KK1" s="54"/>
+      <c r="KL1" s="54"/>
+      <c r="KM1" s="54"/>
+      <c r="KN1" s="54"/>
+      <c r="KO1" s="54"/>
+      <c r="KP1" s="54"/>
+      <c r="KQ1" s="54"/>
+      <c r="KR1" s="54"/>
+      <c r="KS1" s="54"/>
+      <c r="KT1" s="54"/>
+      <c r="KU1" s="54"/>
+      <c r="KV1" s="54"/>
+      <c r="KW1" s="54"/>
+      <c r="KX1" s="54"/>
+      <c r="KY1" s="54"/>
+      <c r="KZ1" s="54"/>
+      <c r="LA1" s="54"/>
+      <c r="LB1" s="54"/>
+      <c r="LC1" s="54"/>
+      <c r="LD1" s="54"/>
+      <c r="LE1" s="54"/>
+      <c r="LF1" s="54"/>
+      <c r="LG1" s="54"/>
+      <c r="LH1" s="54"/>
+      <c r="LI1" s="54"/>
+      <c r="LJ1" s="54"/>
+      <c r="LK1" s="54"/>
+      <c r="LL1" s="54"/>
+      <c r="LM1" s="54"/>
+      <c r="LN1" s="54"/>
+      <c r="LO1" s="54"/>
+      <c r="LP1" s="54"/>
+      <c r="LQ1" s="54"/>
+      <c r="LR1" s="54"/>
+      <c r="LS1" s="54"/>
+      <c r="LT1" s="54"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="57" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="n">
+      <c r="C2" s="56" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="57" t="n">
+      <c r="D2" s="56" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="57" t="n">
+      <c r="E2" s="56" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="57" t="n">
+      <c r="F2" s="56" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="57" t="n">
+      <c r="G2" s="56" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="57" t="n">
+      <c r="H2" s="56" t="n">
         <v>0.12</v>
       </c>
-      <c r="I2" s="57" t="n">
+      <c r="I2" s="56" t="n">
         <v>0.14</v>
       </c>
-      <c r="J2" s="57" t="n">
+      <c r="J2" s="56" t="n">
         <v>0.16</v>
       </c>
-      <c r="K2" s="57" t="n">
+      <c r="K2" s="56" t="n">
         <v>0.18</v>
       </c>
-      <c r="L2" s="57" t="n">
+      <c r="L2" s="56" t="n">
         <v>0.2</v>
       </c>
-      <c r="M2" s="57" t="n">
+      <c r="M2" s="56" t="n">
         <v>0.22</v>
       </c>
-      <c r="N2" s="57" t="n">
+      <c r="N2" s="56" t="n">
         <v>0.24</v>
       </c>
-      <c r="O2" s="57" t="n">
+      <c r="O2" s="56" t="n">
         <v>0.26</v>
       </c>
-      <c r="P2" s="57" t="n">
+      <c r="P2" s="56" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q2" s="57" t="n">
+      <c r="Q2" s="56" t="n">
         <v>0.3</v>
       </c>
-      <c r="R2" s="57" t="n">
+      <c r="R2" s="56" t="n">
         <v>0.32</v>
       </c>
-      <c r="S2" s="57" t="n">
+      <c r="S2" s="56" t="n">
         <v>0.34</v>
       </c>
-      <c r="T2" s="57" t="n">
+      <c r="T2" s="56" t="n">
         <v>0.36</v>
       </c>
-      <c r="U2" s="57" t="n">
+      <c r="U2" s="56" t="n">
         <v>0.38</v>
       </c>
-      <c r="V2" s="57" t="n">
+      <c r="V2" s="56" t="n">
         <v>0.4</v>
       </c>
-      <c r="W2" s="57" t="n">
+      <c r="W2" s="56" t="n">
         <v>0.42</v>
       </c>
-      <c r="X2" s="57" t="n">
+      <c r="X2" s="56" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y2" s="57" t="n">
+      <c r="Y2" s="56" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z2" s="57" t="n">
+      <c r="Z2" s="56" t="n">
         <v>0.48</v>
       </c>
-      <c r="AA2" s="57" t="n">
+      <c r="AA2" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="57" t="n">
+      <c r="AB2" s="56" t="n">
         <v>0.52</v>
       </c>
-      <c r="AC2" s="57" t="n">
+      <c r="AC2" s="56" t="n">
         <v>0.54</v>
       </c>
-      <c r="AD2" s="57" t="n">
+      <c r="AD2" s="56" t="n">
         <v>0.56</v>
       </c>
-      <c r="AE2" s="57" t="n">
+      <c r="AE2" s="56" t="n">
         <v>0.58</v>
       </c>
-      <c r="AF2" s="57" t="n">
+      <c r="AF2" s="56" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG2" s="57" t="n">
+      <c r="AG2" s="56" t="n">
         <v>0.62</v>
       </c>
-      <c r="AH2" s="57" t="n">
+      <c r="AH2" s="56" t="n">
         <v>0.64</v>
       </c>
-      <c r="AI2" s="57" t="n">
+      <c r="AI2" s="56" t="n">
         <v>0.66</v>
       </c>
-      <c r="AJ2" s="57" t="n">
+      <c r="AJ2" s="56" t="n">
         <v>0.68</v>
       </c>
-      <c r="AK2" s="57" t="n">
+      <c r="AK2" s="56" t="n">
         <v>0.7</v>
       </c>
-      <c r="AL2" s="57" t="n">
+      <c r="AL2" s="56" t="n">
         <v>0.72</v>
       </c>
-      <c r="AM2" s="57" t="n">
+      <c r="AM2" s="56" t="n">
         <v>0.74</v>
       </c>
-      <c r="AN2" s="57" t="n">
+      <c r="AN2" s="56" t="n">
         <v>0.76</v>
       </c>
-      <c r="AO2" s="57" t="n">
+      <c r="AO2" s="56" t="n">
         <v>0.78</v>
       </c>
-      <c r="AP2" s="57" t="n">
+      <c r="AP2" s="56" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ2" s="57" t="n">
+      <c r="AQ2" s="56" t="n">
         <v>0.82</v>
       </c>
-      <c r="AR2" s="57" t="n">
+      <c r="AR2" s="56" t="n">
         <v>0.84</v>
       </c>
-      <c r="AS2" s="57" t="n">
+      <c r="AS2" s="56" t="n">
         <v>0.86</v>
       </c>
-      <c r="AT2" s="57" t="n">
+      <c r="AT2" s="56" t="n">
         <v>0.88</v>
       </c>
-      <c r="AU2" s="57" t="n">
+      <c r="AU2" s="56" t="n">
         <v>0.9</v>
       </c>
-      <c r="AV2" s="57" t="n">
+      <c r="AV2" s="56" t="n">
         <v>0.92</v>
       </c>
-      <c r="AW2" s="57" t="n">
+      <c r="AW2" s="56" t="n">
         <v>0.94</v>
       </c>
-      <c r="AX2" s="57" t="n">
+      <c r="AX2" s="56" t="n">
         <v>0.96</v>
       </c>
-      <c r="AY2" s="57" t="n">
+      <c r="AY2" s="56" t="n">
         <v>0.98</v>
       </c>
-      <c r="AZ2" s="57" t="n">
+      <c r="AZ2" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -9849,17 +9812,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -10024,7 +9987,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -10182,160 +10145,160 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -10347,160 +10310,160 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -10512,7 +10475,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -10670,7 +10633,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="43" t="n">
         <v>2800000000000</v>
@@ -10835,7 +10798,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -10993,7 +10956,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -11151,7 +11114,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -11309,7 +11272,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -11467,7 +11430,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -11625,7 +11588,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>
